--- a/WEST_C4_ICRH_Logbook.xlsx
+++ b/WEST_C4_ICRH_Logbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="14808" windowHeight="6672" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="14808" windowHeight="6612" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5194" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5383" uniqueCount="1024">
   <si>
     <t>Direction de la Recherche Fondamentale
 Institut de Recherche sur la Fusion par confinement Magnétique
@@ -3060,6 +3060,174 @@
   <si>
     <t>Q2 défaut vide, dommage !</t>
   </si>
+  <si>
+    <t>capa</t>
+  </si>
+  <si>
+    <t>impossible de bouger les capas de Q1</t>
+  </si>
+  <si>
+    <t>impossible de bouger les capas de Q2</t>
+  </si>
+  <si>
+    <t>MAIS : impossible de se connecter au contrôlleurs de Q1 et Q2…</t>
+  </si>
+  <si>
+    <t>Q2 et Q4 en fin de créneau LH. Montée en puissance en USN. Q1 au garage.</t>
+  </si>
+  <si>
+    <t>nouvelle version de DFCI pour corriger le bug associé au codage de la puissance. Puissance totale maintenant en kW au lieu de centaine de Watts</t>
+  </si>
+  <si>
+    <t>Les capas de Q4 fonctionnent à nouveau (intervention GELEC+Gilles hier soir après la boro). L'antenne Q4 peut à nouveau bouger (codeur remplacé)</t>
+  </si>
+  <si>
+    <t>repeat. Antennes FCI 2950 -&gt; 2951</t>
+  </si>
+  <si>
+    <t>choc annulé (PCS)</t>
+  </si>
+  <si>
+    <t>plasma disrupte avant FCI (MHD)</t>
+  </si>
+  <si>
+    <t>repeat avec plateau de courant 300kA/1s en début de plasma</t>
+  </si>
+  <si>
+    <t>la protection latérale de Q2 (droite bas vu du plasma) chauffe beaucoup (1000°C apparent, dû aux electrons rapides)</t>
+  </si>
+  <si>
+    <t>la protection latérale de Q2 chauffe toujours mais un peu moins (750°C)</t>
+  </si>
+  <si>
+    <t>repeat avec antennes LH reculées de 3mm</t>
+  </si>
+  <si>
+    <t>repeat avec injection de N2</t>
+  </si>
+  <si>
+    <t>pb avec la vanne de N2.</t>
+  </si>
+  <si>
+    <t>MHD disruption</t>
+  </si>
+  <si>
+    <t>Nouvelle version du CODAC pour essayer de corriger le bug de Ptot</t>
+  </si>
+  <si>
+    <t>on rapproche toutes les antennes. Baisse la densité (4,5-&gt;4,0)</t>
+  </si>
+  <si>
+    <t>MHD disruption before IC. Seules les antennes FCI ont été avancées ! Ils ont oublié d'avancer les antennes LH</t>
+  </si>
+  <si>
+    <t>OK. Q1 and Q2 vacuum interlock. Q4 OK. Nl 3.8~4.0</t>
+  </si>
+  <si>
+    <t>pas d'autorisation de tir (PCS?). Disruption sur VDE</t>
+  </si>
+  <si>
+    <t>repeat du 54930 avec FCI à la place de LH. Variation de la hauteur du point X pendant le créneau FCI</t>
+  </si>
+  <si>
+    <t>repeat with plasma closer to the antennas by 5 mm</t>
+  </si>
+  <si>
+    <t>repeat with higher density (4-&gt;4.5)</t>
+  </si>
+  <si>
+    <t>nice. Power limitation on Q2 (phase control)</t>
+  </si>
+  <si>
+    <t>Q1 250°</t>
+  </si>
+  <si>
+    <t>55 (+1m+50cm)</t>
+  </si>
+  <si>
+    <t>PCS plante</t>
+  </si>
+  <si>
+    <t>Corrigé : On avait - 110 mV d'offset sur la sortie 4-20 mA ( chargée sur 500 Ohms=&gt; 1.89V au lieu de 2.0 V) de la mesure de Pr ce qui correspond à environ - 250 kW.</t>
+  </si>
+  <si>
+    <t>Antennes en place à 3004</t>
+  </si>
+  <si>
+    <t>PCS planté. Choc annulé.</t>
+  </si>
+  <si>
+    <t>impossible de bouger les capas de Q1 (comme mardi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification d'un ampli sur le generateur 6 (Q1) + cable N mal serré. </t>
+  </si>
+  <si>
+    <t>Pas de consignes (mais autorisation). En fait le choc s'est terminé trop tôt (pas de wachdog LH)</t>
+  </si>
+  <si>
+    <t>tirs de test sur fin de plateau LH, 3x500kW</t>
+  </si>
+  <si>
+    <t>FCI seul</t>
+  </si>
+  <si>
+    <t>phase n'importe quoi et antenne pas bien adaptée</t>
+  </si>
+  <si>
+    <t>antennes en place à 3006 et coupleurs reculés au garage</t>
+  </si>
+  <si>
+    <t>55
+(+1m+50cm)</t>
+  </si>
+  <si>
+    <t>Saut de phase en cours du choc</t>
+  </si>
+  <si>
+    <t>Ajout 1 m de cable  sur mesure géné 5 (Q1 droit) soit environ 100° de plus (normalement)</t>
+  </si>
+  <si>
+    <r>
+      <t>antennes en place à 3006 et coupleurs reculés au garage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(changement d'asservissement de phase --&gt; mesures sur sortie géné 
+Mesure phase à 30° seulement.</t>
+    </r>
+  </si>
+  <si>
+    <t>disruption pendant IC plasma distachment</t>
+  </si>
+  <si>
+    <t>Ajout 1 m de cable  sur mesure géné 6 (Q1 gauche) soit environ 100° de moins</t>
+  </si>
+  <si>
+    <t>disruption pendant IC plasma distachment: phase pas acrrochée phase à 300° au lieu de 130?</t>
+  </si>
+  <si>
+    <t>Phi Q1 = 250° ????</t>
+  </si>
+  <si>
+    <t>Ajout 50cm côté gauche (soit 1.5m)</t>
+  </si>
+  <si>
+    <t>OK. Rc assez basse pour les deux coupleurs (1 ohm). No LH</t>
+  </si>
+  <si>
+    <t>disruption pendant IC plasma distachment: phase a  acrroché phase à -130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauche --&gt; A. Droite --&gt; B. Augmenter cable à gauche --&gt; augmenter la phase. </t>
+  </si>
 </sst>
 </file>
 
@@ -3069,7 +3237,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3196,6 +3364,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3555,7 +3730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3966,27 +4141,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3999,31 +4153,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4421,11 +4578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93994368"/>
-        <c:axId val="94020736"/>
+        <c:axId val="93859200"/>
+        <c:axId val="97211520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93994368"/>
+        <c:axId val="93859200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,12 +4592,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94020736"/>
+        <c:crossAx val="97211520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94020736"/>
+        <c:axId val="97211520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,7 +4608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93994368"/>
+        <c:crossAx val="93859200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4948,7 +5105,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4966,25 +5123,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="116.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="160"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="166" t="s">
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="168"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="162"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="112" t="s">
@@ -4997,7 +5154,7 @@
       </c>
       <c r="F5" s="110">
         <f>COUNTIF('Pulse list'!G:G,"Y")+COUNTIF('Pulse list'!G:G,"N")</f>
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -5006,14 +5163,14 @@
       </c>
       <c r="F6">
         <f>COUNTIF('Pulse list'!G:G, "Y")</f>
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="H6" t="s">
         <v>565</v>
       </c>
       <c r="I6" s="111">
         <f>F6/F5*100</f>
-        <v>61.837455830388691</v>
+        <v>61.688311688311693</v>
       </c>
     </row>
   </sheetData>
@@ -5033,14 +5190,14 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:CO495"/>
+  <dimension ref="A1:CO498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="G442" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="G475" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="F392" sqref="F392"/>
-      <selection pane="bottomRight" activeCell="F453" activeCellId="2" sqref="F449 F451 F453"/>
+      <selection pane="bottomRight" activeCell="U485" sqref="U485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -5084,97 +5241,97 @@
       <c r="K1" s="72"/>
       <c r="L1" s="72"/>
       <c r="M1" s="72"/>
-      <c r="N1" s="187" t="s">
+      <c r="N1" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="220" t="s">
+      <c r="O1" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="220"/>
-      <c r="AB1" s="220"/>
-      <c r="AC1" s="220"/>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="220"/>
-      <c r="AH1" s="220"/>
-      <c r="AI1" s="220"/>
-      <c r="AJ1" s="220"/>
-      <c r="AK1" s="220"/>
-      <c r="AL1" s="220"/>
-      <c r="AM1" s="220"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="214"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="214"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="214"/>
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="214"/>
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="214"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="214"/>
+      <c r="AJ1" s="214"/>
+      <c r="AK1" s="214"/>
+      <c r="AL1" s="214"/>
+      <c r="AM1" s="214"/>
       <c r="AN1" s="12"/>
-      <c r="AO1" s="231" t="s">
+      <c r="AO1" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="194" t="s">
+      <c r="AP1" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="AQ1" s="194"/>
-      <c r="AR1" s="194"/>
-      <c r="AS1" s="194"/>
-      <c r="AT1" s="194"/>
-      <c r="AU1" s="194"/>
-      <c r="AV1" s="194"/>
-      <c r="AW1" s="194"/>
-      <c r="AX1" s="194"/>
-      <c r="AY1" s="194"/>
-      <c r="AZ1" s="194"/>
-      <c r="BA1" s="194"/>
-      <c r="BB1" s="194"/>
-      <c r="BC1" s="194"/>
-      <c r="BD1" s="194"/>
-      <c r="BE1" s="194"/>
-      <c r="BF1" s="194"/>
-      <c r="BG1" s="194"/>
-      <c r="BH1" s="194"/>
-      <c r="BI1" s="194"/>
-      <c r="BJ1" s="194"/>
-      <c r="BK1" s="194"/>
-      <c r="BL1" s="194"/>
-      <c r="BM1" s="194"/>
-      <c r="BN1" s="194"/>
-      <c r="BO1" s="231" t="s">
+      <c r="AQ1" s="188"/>
+      <c r="AR1" s="188"/>
+      <c r="AS1" s="188"/>
+      <c r="AT1" s="188"/>
+      <c r="AU1" s="188"/>
+      <c r="AV1" s="188"/>
+      <c r="AW1" s="188"/>
+      <c r="AX1" s="188"/>
+      <c r="AY1" s="188"/>
+      <c r="AZ1" s="188"/>
+      <c r="BA1" s="188"/>
+      <c r="BB1" s="188"/>
+      <c r="BC1" s="188"/>
+      <c r="BD1" s="188"/>
+      <c r="BE1" s="188"/>
+      <c r="BF1" s="188"/>
+      <c r="BG1" s="188"/>
+      <c r="BH1" s="188"/>
+      <c r="BI1" s="188"/>
+      <c r="BJ1" s="188"/>
+      <c r="BK1" s="188"/>
+      <c r="BL1" s="188"/>
+      <c r="BM1" s="188"/>
+      <c r="BN1" s="188"/>
+      <c r="BO1" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="BP1" s="221" t="s">
+      <c r="BP1" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="BQ1" s="221"/>
-      <c r="BR1" s="221"/>
-      <c r="BS1" s="221"/>
-      <c r="BT1" s="221"/>
-      <c r="BU1" s="221"/>
-      <c r="BV1" s="221"/>
-      <c r="BW1" s="221"/>
-      <c r="BX1" s="221"/>
-      <c r="BY1" s="221"/>
-      <c r="BZ1" s="221"/>
-      <c r="CA1" s="221"/>
-      <c r="CB1" s="221"/>
-      <c r="CC1" s="221"/>
-      <c r="CD1" s="221"/>
-      <c r="CE1" s="221"/>
-      <c r="CF1" s="221"/>
-      <c r="CG1" s="221"/>
-      <c r="CH1" s="221"/>
-      <c r="CI1" s="221"/>
-      <c r="CJ1" s="221"/>
-      <c r="CK1" s="221"/>
-      <c r="CL1" s="221"/>
-      <c r="CM1" s="221"/>
-      <c r="CN1" s="221"/>
+      <c r="BQ1" s="215"/>
+      <c r="BR1" s="215"/>
+      <c r="BS1" s="215"/>
+      <c r="BT1" s="215"/>
+      <c r="BU1" s="215"/>
+      <c r="BV1" s="215"/>
+      <c r="BW1" s="215"/>
+      <c r="BX1" s="215"/>
+      <c r="BY1" s="215"/>
+      <c r="BZ1" s="215"/>
+      <c r="CA1" s="215"/>
+      <c r="CB1" s="215"/>
+      <c r="CC1" s="215"/>
+      <c r="CD1" s="215"/>
+      <c r="CE1" s="215"/>
+      <c r="CF1" s="215"/>
+      <c r="CG1" s="215"/>
+      <c r="CH1" s="215"/>
+      <c r="CI1" s="215"/>
+      <c r="CJ1" s="215"/>
+      <c r="CK1" s="215"/>
+      <c r="CL1" s="215"/>
+      <c r="CM1" s="215"/>
+      <c r="CN1" s="215"/>
     </row>
     <row r="2" spans="1:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="71"/>
@@ -5182,323 +5339,323 @@
       <c r="K2" s="72"/>
       <c r="L2" s="72"/>
       <c r="M2" s="72"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="232" t="s">
+      <c r="N2" s="181"/>
+      <c r="O2" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="233" t="s">
+      <c r="P2" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="233" t="s">
+      <c r="Q2" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="222" t="s">
+      <c r="R2" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="181" t="s">
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="175" t="s">
         <v>375</v>
       </c>
-      <c r="W2" s="181" t="s">
+      <c r="W2" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="X2" s="209" t="s">
+      <c r="X2" s="203" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="212" t="s">
+      <c r="Y2" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="224" t="s">
+      <c r="Z2" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
-      <c r="AF2" s="222"/>
-      <c r="AG2" s="222"/>
-      <c r="AH2" s="222"/>
-      <c r="AI2" s="222"/>
-      <c r="AJ2" s="222"/>
-      <c r="AK2" s="222"/>
-      <c r="AL2" s="222"/>
-      <c r="AM2" s="223"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="216"/>
+      <c r="AJ2" s="216"/>
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="216"/>
+      <c r="AM2" s="217"/>
       <c r="AN2" s="12"/>
-      <c r="AO2" s="231"/>
-      <c r="AP2" s="201" t="s">
+      <c r="AO2" s="225"/>
+      <c r="AP2" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="AQ2" s="202" t="s">
+      <c r="AQ2" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="AR2" s="201" t="s">
+      <c r="AR2" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="195" t="s">
+      <c r="AS2" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="195"/>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="196"/>
-      <c r="AW2" s="203" t="s">
+      <c r="AT2" s="189"/>
+      <c r="AU2" s="189"/>
+      <c r="AV2" s="190"/>
+      <c r="AW2" s="197" t="s">
         <v>375</v>
       </c>
-      <c r="AX2" s="203" t="s">
+      <c r="AX2" s="197" t="s">
         <v>376</v>
       </c>
-      <c r="AY2" s="215" t="s">
+      <c r="AY2" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="AZ2" s="203" t="s">
+      <c r="AZ2" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="BA2" s="225" t="s">
+      <c r="BA2" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" s="195"/>
-      <c r="BC2" s="195"/>
-      <c r="BD2" s="195"/>
-      <c r="BE2" s="195"/>
-      <c r="BF2" s="195"/>
-      <c r="BG2" s="195"/>
-      <c r="BH2" s="195"/>
-      <c r="BI2" s="195"/>
-      <c r="BJ2" s="195"/>
-      <c r="BK2" s="195"/>
-      <c r="BL2" s="195"/>
-      <c r="BM2" s="195"/>
-      <c r="BN2" s="196"/>
-      <c r="BO2" s="231"/>
-      <c r="BP2" s="218" t="s">
+      <c r="BB2" s="189"/>
+      <c r="BC2" s="189"/>
+      <c r="BD2" s="189"/>
+      <c r="BE2" s="189"/>
+      <c r="BF2" s="189"/>
+      <c r="BG2" s="189"/>
+      <c r="BH2" s="189"/>
+      <c r="BI2" s="189"/>
+      <c r="BJ2" s="189"/>
+      <c r="BK2" s="189"/>
+      <c r="BL2" s="189"/>
+      <c r="BM2" s="189"/>
+      <c r="BN2" s="190"/>
+      <c r="BO2" s="225"/>
+      <c r="BP2" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="BQ2" s="219" t="s">
+      <c r="BQ2" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" s="219" t="s">
+      <c r="BR2" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="BS2" s="226" t="s">
+      <c r="BS2" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="BT2" s="226"/>
-      <c r="BU2" s="226"/>
-      <c r="BV2" s="227"/>
-      <c r="BW2" s="235" t="s">
+      <c r="BT2" s="220"/>
+      <c r="BU2" s="220"/>
+      <c r="BV2" s="221"/>
+      <c r="BW2" s="229" t="s">
         <v>375</v>
       </c>
-      <c r="BX2" s="235" t="s">
+      <c r="BX2" s="229" t="s">
         <v>376</v>
       </c>
-      <c r="BY2" s="235" t="s">
+      <c r="BY2" s="229" t="s">
         <v>466</v>
       </c>
-      <c r="BZ2" s="238" t="s">
+      <c r="BZ2" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="CA2" s="228" t="s">
+      <c r="CA2" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="CB2" s="229"/>
-      <c r="CC2" s="229"/>
-      <c r="CD2" s="229"/>
-      <c r="CE2" s="229"/>
-      <c r="CF2" s="229"/>
-      <c r="CG2" s="229"/>
-      <c r="CH2" s="229"/>
-      <c r="CI2" s="229"/>
-      <c r="CJ2" s="229"/>
-      <c r="CK2" s="229"/>
-      <c r="CL2" s="229"/>
-      <c r="CM2" s="229"/>
-      <c r="CN2" s="230"/>
+      <c r="CB2" s="223"/>
+      <c r="CC2" s="223"/>
+      <c r="CD2" s="223"/>
+      <c r="CE2" s="223"/>
+      <c r="CF2" s="223"/>
+      <c r="CG2" s="223"/>
+      <c r="CH2" s="223"/>
+      <c r="CI2" s="223"/>
+      <c r="CJ2" s="223"/>
+      <c r="CK2" s="223"/>
+      <c r="CL2" s="223"/>
+      <c r="CM2" s="223"/>
+      <c r="CN2" s="224"/>
     </row>
     <row r="3" spans="1:93" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="184" t="s">
+      <c r="D3" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="184" t="s">
+      <c r="E3" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="176" t="s">
+      <c r="G3" s="170" t="s">
         <v>560</v>
       </c>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="170" t="s">
         <v>406</v>
       </c>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="170" t="s">
         <v>407</v>
       </c>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="170" t="s">
         <v>408</v>
       </c>
-      <c r="K3" s="178" t="s">
+      <c r="K3" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="178" t="s">
+      <c r="L3" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="178" t="s">
+      <c r="M3" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="187"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="233"/>
-      <c r="Q3" s="233"/>
-      <c r="R3" s="207" t="s">
+      <c r="N3" s="181"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="186" t="s">
+      <c r="S3" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="186" t="s">
+      <c r="T3" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="186" t="s">
+      <c r="U3" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="180" t="s">
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="180"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="180" t="s">
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="180"/>
-      <c r="AJ3" s="180"/>
-      <c r="AK3" s="180"/>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="180"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
       <c r="AN3" s="13"/>
-      <c r="AO3" s="231"/>
-      <c r="AP3" s="201"/>
-      <c r="AQ3" s="202"/>
-      <c r="AR3" s="201"/>
-      <c r="AS3" s="197" t="s">
+      <c r="AO3" s="225"/>
+      <c r="AP3" s="195"/>
+      <c r="AQ3" s="196"/>
+      <c r="AR3" s="195"/>
+      <c r="AS3" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="AT3" s="199" t="s">
+      <c r="AT3" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="AU3" s="199" t="s">
+      <c r="AU3" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="AV3" s="199" t="s">
+      <c r="AV3" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="AW3" s="204"/>
-      <c r="AX3" s="204"/>
-      <c r="AY3" s="216"/>
-      <c r="AZ3" s="204"/>
-      <c r="BA3" s="206" t="s">
+      <c r="AW3" s="198"/>
+      <c r="AX3" s="198"/>
+      <c r="AY3" s="210"/>
+      <c r="AZ3" s="198"/>
+      <c r="BA3" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="BB3" s="206"/>
-      <c r="BC3" s="206"/>
-      <c r="BD3" s="206"/>
-      <c r="BE3" s="206"/>
-      <c r="BF3" s="206"/>
-      <c r="BG3" s="206"/>
-      <c r="BH3" s="206" t="s">
+      <c r="BB3" s="200"/>
+      <c r="BC3" s="200"/>
+      <c r="BD3" s="200"/>
+      <c r="BE3" s="200"/>
+      <c r="BF3" s="200"/>
+      <c r="BG3" s="200"/>
+      <c r="BH3" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="BI3" s="206"/>
-      <c r="BJ3" s="206"/>
-      <c r="BK3" s="206"/>
-      <c r="BL3" s="206"/>
-      <c r="BM3" s="206"/>
-      <c r="BN3" s="206"/>
-      <c r="BO3" s="231"/>
-      <c r="BP3" s="218"/>
-      <c r="BQ3" s="219"/>
-      <c r="BR3" s="219"/>
-      <c r="BS3" s="241" t="s">
+      <c r="BI3" s="200"/>
+      <c r="BJ3" s="200"/>
+      <c r="BK3" s="200"/>
+      <c r="BL3" s="200"/>
+      <c r="BM3" s="200"/>
+      <c r="BN3" s="200"/>
+      <c r="BO3" s="225"/>
+      <c r="BP3" s="212"/>
+      <c r="BQ3" s="213"/>
+      <c r="BR3" s="213"/>
+      <c r="BS3" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="BT3" s="170" t="s">
+      <c r="BT3" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="BU3" s="170" t="s">
+      <c r="BU3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="BV3" s="170" t="s">
+      <c r="BV3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="BW3" s="236"/>
-      <c r="BX3" s="236"/>
-      <c r="BY3" s="236"/>
-      <c r="BZ3" s="239"/>
-      <c r="CA3" s="234" t="s">
+      <c r="BW3" s="230"/>
+      <c r="BX3" s="230"/>
+      <c r="BY3" s="230"/>
+      <c r="BZ3" s="233"/>
+      <c r="CA3" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="CB3" s="234"/>
-      <c r="CC3" s="234"/>
-      <c r="CD3" s="234"/>
-      <c r="CE3" s="234"/>
-      <c r="CF3" s="234"/>
-      <c r="CG3" s="234"/>
-      <c r="CH3" s="234" t="s">
+      <c r="CB3" s="228"/>
+      <c r="CC3" s="228"/>
+      <c r="CD3" s="228"/>
+      <c r="CE3" s="228"/>
+      <c r="CF3" s="228"/>
+      <c r="CG3" s="228"/>
+      <c r="CH3" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="CI3" s="234"/>
-      <c r="CJ3" s="234"/>
-      <c r="CK3" s="234"/>
-      <c r="CL3" s="234"/>
-      <c r="CM3" s="234"/>
-      <c r="CN3" s="234"/>
+      <c r="CI3" s="228"/>
+      <c r="CJ3" s="228"/>
+      <c r="CK3" s="228"/>
+      <c r="CL3" s="228"/>
+      <c r="CM3" s="228"/>
+      <c r="CN3" s="228"/>
       <c r="CO3" s="7"/>
     </row>
     <row r="4" spans="1:93" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="191"/>
-      <c r="B4" s="193"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="232"/>
-      <c r="P4" s="233"/>
-      <c r="Q4" s="233"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="183"/>
-      <c r="T4" s="183"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="183"/>
-      <c r="W4" s="183"/>
-      <c r="X4" s="211"/>
-      <c r="Y4" s="214"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="227"/>
+      <c r="Q4" s="227"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="177"/>
+      <c r="T4" s="177"/>
+      <c r="U4" s="177"/>
+      <c r="V4" s="177"/>
+      <c r="W4" s="177"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="208"/>
       <c r="Z4" s="69" t="s">
         <v>9</v>
       </c>
@@ -5542,18 +5699,18 @@
         <v>15</v>
       </c>
       <c r="AN4" s="13"/>
-      <c r="AO4" s="231"/>
-      <c r="AP4" s="201"/>
-      <c r="AQ4" s="202"/>
-      <c r="AR4" s="201"/>
-      <c r="AS4" s="198"/>
-      <c r="AT4" s="200"/>
-      <c r="AU4" s="200"/>
-      <c r="AV4" s="200"/>
-      <c r="AW4" s="205"/>
-      <c r="AX4" s="205"/>
-      <c r="AY4" s="217"/>
-      <c r="AZ4" s="205"/>
+      <c r="AO4" s="225"/>
+      <c r="AP4" s="195"/>
+      <c r="AQ4" s="196"/>
+      <c r="AR4" s="195"/>
+      <c r="AS4" s="192"/>
+      <c r="AT4" s="194"/>
+      <c r="AU4" s="194"/>
+      <c r="AV4" s="194"/>
+      <c r="AW4" s="199"/>
+      <c r="AX4" s="199"/>
+      <c r="AY4" s="211"/>
+      <c r="AZ4" s="199"/>
       <c r="BA4" s="68" t="s">
         <v>9</v>
       </c>
@@ -5596,18 +5753,18 @@
       <c r="BN4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="BO4" s="231"/>
-      <c r="BP4" s="218"/>
-      <c r="BQ4" s="219"/>
-      <c r="BR4" s="219"/>
-      <c r="BS4" s="242"/>
-      <c r="BT4" s="171"/>
-      <c r="BU4" s="171"/>
-      <c r="BV4" s="171"/>
-      <c r="BW4" s="237"/>
-      <c r="BX4" s="237"/>
-      <c r="BY4" s="237"/>
-      <c r="BZ4" s="240"/>
+      <c r="BO4" s="225"/>
+      <c r="BP4" s="212"/>
+      <c r="BQ4" s="213"/>
+      <c r="BR4" s="213"/>
+      <c r="BS4" s="236"/>
+      <c r="BT4" s="165"/>
+      <c r="BU4" s="165"/>
+      <c r="BV4" s="165"/>
+      <c r="BW4" s="231"/>
+      <c r="BX4" s="231"/>
+      <c r="BY4" s="231"/>
+      <c r="BZ4" s="234"/>
       <c r="CA4" s="70" t="s">
         <v>9</v>
       </c>
@@ -5662,7 +5819,7 @@
       <c r="C5" s="32">
         <v>70</v>
       </c>
-      <c r="D5" s="173" t="s">
+      <c r="D5" s="167" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="20">
@@ -5681,7 +5838,7 @@
       <c r="L5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="175" t="s">
+      <c r="M5" s="169" t="s">
         <v>125</v>
       </c>
       <c r="N5" s="6"/>
@@ -5877,7 +6034,7 @@
       <c r="C6" s="32">
         <v>70</v>
       </c>
-      <c r="D6" s="174"/>
+      <c r="D6" s="168"/>
       <c r="F6" s="33">
         <v>54291</v>
       </c>
@@ -5889,7 +6046,7 @@
       <c r="L6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="172"/>
+      <c r="M6" s="166"/>
       <c r="N6" s="6"/>
       <c r="O6" s="36" t="s">
         <v>47</v>
@@ -6008,7 +6165,7 @@
       <c r="C7" s="32">
         <v>70</v>
       </c>
-      <c r="D7" s="174"/>
+      <c r="D7" s="168"/>
       <c r="E7" s="20">
         <v>0.43442129629629633</v>
       </c>
@@ -6018,7 +6175,7 @@
       <c r="L7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="172"/>
+      <c r="M7" s="166"/>
       <c r="O7" s="36" t="s">
         <v>47</v>
       </c>
@@ -6100,14 +6257,14 @@
       <c r="C8" s="32">
         <v>70</v>
       </c>
-      <c r="D8" s="174"/>
+      <c r="D8" s="168"/>
       <c r="F8" s="26" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="172"/>
+      <c r="M8" s="166"/>
       <c r="O8" s="36" t="s">
         <v>47</v>
       </c>
@@ -6189,7 +6346,7 @@
       <c r="C9" s="32">
         <v>70</v>
       </c>
-      <c r="D9" s="174"/>
+      <c r="D9" s="168"/>
       <c r="E9" s="19">
         <v>0.5625</v>
       </c>
@@ -6202,7 +6359,7 @@
       <c r="L9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="172" t="s">
+      <c r="M9" s="166" t="s">
         <v>127</v>
       </c>
       <c r="O9" s="37">
@@ -6283,7 +6440,7 @@
       <c r="C10" s="32">
         <v>70</v>
       </c>
-      <c r="D10" s="174"/>
+      <c r="D10" s="168"/>
       <c r="E10" s="19">
         <v>0.56666666666666665</v>
       </c>
@@ -6293,7 +6450,7 @@
       <c r="L10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="172"/>
+      <c r="M10" s="166"/>
       <c r="O10" s="37">
         <v>55.5</v>
       </c>
@@ -6372,7 +6529,7 @@
       <c r="C11" s="32">
         <v>70</v>
       </c>
-      <c r="D11" s="174"/>
+      <c r="D11" s="168"/>
       <c r="F11" s="26" t="s">
         <v>47</v>
       </c>
@@ -6382,7 +6539,7 @@
       <c r="L11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="172"/>
+      <c r="M11" s="166"/>
       <c r="O11" s="37">
         <v>55.5</v>
       </c>
@@ -6461,7 +6618,7 @@
       <c r="C12" s="32">
         <v>70</v>
       </c>
-      <c r="D12" s="174"/>
+      <c r="D12" s="168"/>
       <c r="E12" s="19">
         <v>0.5708333333333333</v>
       </c>
@@ -6471,7 +6628,7 @@
       <c r="L12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="172"/>
+      <c r="M12" s="166"/>
       <c r="O12" s="37">
         <v>55.5</v>
       </c>
@@ -6550,7 +6707,7 @@
       <c r="C13" s="32">
         <v>70</v>
       </c>
-      <c r="D13" s="174"/>
+      <c r="D13" s="168"/>
       <c r="E13" s="19">
         <v>0.57986111111111105</v>
       </c>
@@ -6560,7 +6717,7 @@
       <c r="L13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="172"/>
+      <c r="M13" s="166"/>
       <c r="O13" s="37">
         <v>55.5</v>
       </c>
@@ -6639,7 +6796,7 @@
       <c r="C14" s="32">
         <v>70</v>
       </c>
-      <c r="D14" s="174"/>
+      <c r="D14" s="168"/>
       <c r="E14" s="19">
         <v>0.59693287037037035</v>
       </c>
@@ -6649,7 +6806,7 @@
       <c r="L14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="172"/>
+      <c r="M14" s="166"/>
       <c r="O14" s="37">
         <v>55.5</v>
       </c>
@@ -6728,7 +6885,7 @@
       <c r="C15" s="32">
         <v>70</v>
       </c>
-      <c r="D15" s="174"/>
+      <c r="D15" s="168"/>
       <c r="E15" s="19">
         <v>0.60347222222222219</v>
       </c>
@@ -6741,7 +6898,7 @@
       <c r="L15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="172"/>
+      <c r="M15" s="166"/>
       <c r="O15" s="37">
         <v>55.5</v>
       </c>
@@ -6820,7 +6977,7 @@
       <c r="C16" s="32">
         <v>70</v>
       </c>
-      <c r="D16" s="174"/>
+      <c r="D16" s="168"/>
       <c r="E16" s="19">
         <v>0.6045949074074074</v>
       </c>
@@ -6833,7 +6990,7 @@
       <c r="L16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="172"/>
+      <c r="M16" s="166"/>
       <c r="O16" s="37">
         <v>55.5</v>
       </c>
@@ -6912,7 +7069,7 @@
       <c r="C17" s="32">
         <v>70</v>
       </c>
-      <c r="D17" s="174"/>
+      <c r="D17" s="168"/>
       <c r="E17" s="19">
         <v>0.60625000000000007</v>
       </c>
@@ -6925,7 +7082,7 @@
       <c r="L17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="172"/>
+      <c r="M17" s="166"/>
       <c r="O17" s="37">
         <v>55.5</v>
       </c>
@@ -7004,7 +7161,7 @@
       <c r="C18" s="32">
         <v>70</v>
       </c>
-      <c r="D18" s="174"/>
+      <c r="D18" s="168"/>
       <c r="E18" s="19">
         <v>0.6069444444444444</v>
       </c>
@@ -7014,7 +7171,7 @@
       <c r="L18" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="172"/>
+      <c r="M18" s="166"/>
       <c r="O18" s="37">
         <v>55.5</v>
       </c>
@@ -7094,7 +7251,7 @@
       <c r="C19" s="32">
         <v>70</v>
       </c>
-      <c r="D19" s="174"/>
+      <c r="D19" s="168"/>
       <c r="F19" s="26">
         <v>54304</v>
       </c>
@@ -7180,7 +7337,7 @@
       <c r="C20" s="32">
         <v>70</v>
       </c>
-      <c r="D20" s="174"/>
+      <c r="D20" s="168"/>
       <c r="E20" s="19">
         <v>0.6333333333333333</v>
       </c>
@@ -7193,7 +7350,7 @@
       <c r="L20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="172" t="s">
+      <c r="M20" s="166" t="s">
         <v>126</v>
       </c>
       <c r="O20" s="37">
@@ -7277,7 +7434,7 @@
       <c r="C21" s="32">
         <v>70</v>
       </c>
-      <c r="D21" s="174"/>
+      <c r="D21" s="168"/>
       <c r="E21" s="19">
         <v>0.6381944444444444</v>
       </c>
@@ -7290,7 +7447,7 @@
       <c r="L21" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="172"/>
+      <c r="M21" s="166"/>
       <c r="O21" s="37">
         <v>55.5</v>
       </c>
@@ -7372,7 +7529,7 @@
       <c r="C22" s="32">
         <v>70</v>
       </c>
-      <c r="D22" s="174"/>
+      <c r="D22" s="168"/>
       <c r="E22" s="19">
         <v>0.64027777777777783</v>
       </c>
@@ -7385,7 +7542,7 @@
       <c r="L22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="172"/>
+      <c r="M22" s="166"/>
       <c r="O22" s="37">
         <v>55.5</v>
       </c>
@@ -7467,7 +7624,7 @@
       <c r="C23" s="32">
         <v>70</v>
       </c>
-      <c r="D23" s="174"/>
+      <c r="D23" s="168"/>
       <c r="E23" s="19">
         <v>0.64342592592592596</v>
       </c>
@@ -7477,7 +7634,7 @@
       <c r="L23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M23" s="172"/>
+      <c r="M23" s="166"/>
       <c r="O23" s="37">
         <v>55.5</v>
       </c>
@@ -7556,7 +7713,7 @@
       <c r="C24" s="32">
         <v>70</v>
       </c>
-      <c r="D24" s="174"/>
+      <c r="D24" s="168"/>
       <c r="E24" s="19">
         <v>0.64374999999999993</v>
       </c>
@@ -7566,7 +7723,7 @@
       <c r="L24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M24" s="172"/>
+      <c r="M24" s="166"/>
       <c r="O24" s="37">
         <v>55.5</v>
       </c>
@@ -7645,7 +7802,7 @@
       <c r="C25" s="32">
         <v>70</v>
       </c>
-      <c r="D25" s="174"/>
+      <c r="D25" s="168"/>
       <c r="E25" s="19">
         <v>0.65486111111111112</v>
       </c>
@@ -7655,7 +7812,7 @@
       <c r="K25" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="172" t="s">
+      <c r="M25" s="166" t="s">
         <v>126</v>
       </c>
       <c r="O25" s="37">
@@ -7739,7 +7896,7 @@
       <c r="C26" s="32">
         <v>70</v>
       </c>
-      <c r="D26" s="174"/>
+      <c r="D26" s="168"/>
       <c r="E26" s="19">
         <v>0.65535879629629623</v>
       </c>
@@ -7752,7 +7909,7 @@
       <c r="L26" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="172"/>
+      <c r="M26" s="166"/>
       <c r="O26" s="37">
         <v>55.5</v>
       </c>
@@ -7832,7 +7989,7 @@
       <c r="C27" s="32">
         <v>70</v>
       </c>
-      <c r="D27" s="174"/>
+      <c r="D27" s="168"/>
       <c r="E27" s="19">
         <v>0.68888888888888899</v>
       </c>
@@ -7845,7 +8002,7 @@
       <c r="L27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="172" t="s">
+      <c r="M27" s="166" t="s">
         <v>124</v>
       </c>
       <c r="O27" s="37" t="s">
@@ -7926,7 +8083,7 @@
       <c r="C28" s="32">
         <v>70</v>
       </c>
-      <c r="D28" s="174"/>
+      <c r="D28" s="168"/>
       <c r="E28" s="19">
         <v>0.69027777777777777</v>
       </c>
@@ -7939,7 +8096,7 @@
       <c r="L28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M28" s="172"/>
+      <c r="M28" s="166"/>
       <c r="O28" s="37" t="s">
         <v>47</v>
       </c>
@@ -8018,7 +8175,7 @@
       <c r="C29" s="32">
         <v>70</v>
       </c>
-      <c r="D29" s="174"/>
+      <c r="D29" s="168"/>
       <c r="E29" s="19">
         <v>0.69354166666666661</v>
       </c>
@@ -8028,7 +8185,7 @@
       <c r="L29" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="M29" s="172"/>
+      <c r="M29" s="166"/>
       <c r="O29" s="37" t="s">
         <v>47</v>
       </c>
@@ -8110,7 +8267,7 @@
       <c r="C30" s="32">
         <v>70</v>
       </c>
-      <c r="D30" s="174"/>
+      <c r="D30" s="168"/>
       <c r="E30" s="19">
         <v>0.69444444444444453</v>
       </c>
@@ -8123,7 +8280,7 @@
       <c r="L30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M30" s="172" t="s">
+      <c r="M30" s="166" t="s">
         <v>125</v>
       </c>
       <c r="O30" s="37" t="s">
@@ -8207,7 +8364,7 @@
       <c r="C31" s="32">
         <v>70</v>
       </c>
-      <c r="D31" s="174"/>
+      <c r="D31" s="168"/>
       <c r="E31" s="19">
         <v>0.71458333333333324</v>
       </c>
@@ -8220,7 +8377,7 @@
       <c r="L31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M31" s="172"/>
+      <c r="M31" s="166"/>
       <c r="O31" s="37" t="s">
         <v>47</v>
       </c>
@@ -8299,7 +8456,7 @@
       <c r="C32" s="32">
         <v>70</v>
       </c>
-      <c r="D32" s="174"/>
+      <c r="D32" s="168"/>
       <c r="E32" s="19">
         <v>0.71666666666666667</v>
       </c>
@@ -8312,7 +8469,7 @@
       <c r="L32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M32" s="172"/>
+      <c r="M32" s="166"/>
       <c r="O32" s="37" t="s">
         <v>47</v>
       </c>
@@ -8391,7 +8548,7 @@
       <c r="C33" s="32">
         <v>70</v>
       </c>
-      <c r="D33" s="174"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="19">
         <v>0.72013888888888899</v>
       </c>
@@ -8404,7 +8561,7 @@
       <c r="L33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M33" s="172"/>
+      <c r="M33" s="166"/>
       <c r="O33" s="37" t="s">
         <v>47</v>
       </c>
@@ -8554,7 +8711,7 @@
       <c r="C35" s="25">
         <v>70</v>
       </c>
-      <c r="D35" s="169" t="s">
+      <c r="D35" s="163" t="s">
         <v>193</v>
       </c>
       <c r="E35" s="19">
@@ -8654,7 +8811,7 @@
       <c r="C36" s="25">
         <v>70</v>
       </c>
-      <c r="D36" s="169"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="19">
         <v>0.38194444444444442</v>
       </c>
@@ -8722,7 +8879,7 @@
       <c r="C37" s="25">
         <v>70</v>
       </c>
-      <c r="D37" s="169"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="19">
         <v>0.39930555555555558</v>
       </c>
@@ -8793,7 +8950,7 @@
       <c r="C38" s="25">
         <v>70</v>
       </c>
-      <c r="D38" s="169"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="19">
         <v>0.40416666666666662</v>
       </c>
@@ -8861,7 +9018,7 @@
       <c r="C39" s="25">
         <v>70</v>
       </c>
-      <c r="D39" s="169"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="19">
         <v>0.52555555555555555</v>
       </c>
@@ -8956,7 +9113,7 @@
       <c r="C40" s="25">
         <v>70</v>
       </c>
-      <c r="D40" s="169"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="19">
         <v>0.52688657407407413</v>
       </c>
@@ -9048,7 +9205,7 @@
       <c r="C41" s="25">
         <v>70</v>
       </c>
-      <c r="D41" s="169"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="19">
         <v>0.5270717592592592</v>
       </c>
@@ -9140,7 +9297,7 @@
       <c r="C42" s="25">
         <v>70</v>
       </c>
-      <c r="D42" s="169"/>
+      <c r="D42" s="163"/>
       <c r="F42" s="26" t="s">
         <v>47</v>
       </c>
@@ -9229,7 +9386,7 @@
       <c r="C43" s="25">
         <v>70</v>
       </c>
-      <c r="D43" s="169"/>
+      <c r="D43" s="163"/>
       <c r="F43" s="26" t="s">
         <v>47</v>
       </c>
@@ -9315,7 +9472,7 @@
       <c r="C44" s="25">
         <v>70</v>
       </c>
-      <c r="D44" s="169"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="19">
         <v>0.5625</v>
       </c>
@@ -9408,7 +9565,7 @@
       <c r="C45" s="25">
         <v>70</v>
       </c>
-      <c r="D45" s="169"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="19">
         <v>0.56319444444444444</v>
       </c>
@@ -9497,7 +9654,7 @@
       <c r="C46" s="25">
         <v>70</v>
       </c>
-      <c r="D46" s="169"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="19">
         <v>0.56666666666666665</v>
       </c>
@@ -9592,7 +9749,7 @@
       <c r="C47" s="25">
         <v>70</v>
       </c>
-      <c r="D47" s="169"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="19">
         <v>0.56874999999999998</v>
       </c>
@@ -9681,7 +9838,7 @@
       <c r="C48" s="25">
         <v>70</v>
       </c>
-      <c r="D48" s="169"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="19">
         <v>0.5756944444444444</v>
       </c>
@@ -9773,7 +9930,7 @@
       <c r="C49" s="25">
         <v>70</v>
       </c>
-      <c r="D49" s="169"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="19">
         <v>0.57777777777777783</v>
       </c>
@@ -9865,7 +10022,7 @@
       <c r="C50" s="25">
         <v>70</v>
       </c>
-      <c r="D50" s="169"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="19">
         <v>0.58124999999999993</v>
       </c>
@@ -9957,7 +10114,7 @@
       <c r="C51" s="25">
         <v>70</v>
       </c>
-      <c r="D51" s="169"/>
+      <c r="D51" s="163"/>
       <c r="F51" s="26" t="s">
         <v>47</v>
       </c>
@@ -10043,7 +10200,7 @@
       <c r="C52" s="25">
         <v>70</v>
       </c>
-      <c r="D52" s="169"/>
+      <c r="D52" s="163"/>
       <c r="F52" s="26" t="s">
         <v>47</v>
       </c>
@@ -10129,7 +10286,7 @@
       <c r="C53" s="25">
         <v>70</v>
       </c>
-      <c r="D53" s="169"/>
+      <c r="D53" s="163"/>
       <c r="F53" s="26" t="s">
         <v>47</v>
       </c>
@@ -10218,7 +10375,7 @@
       <c r="C54" s="25">
         <v>70</v>
       </c>
-      <c r="D54" s="169"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="19">
         <v>0.65486111111111112</v>
       </c>
@@ -10310,7 +10467,7 @@
       <c r="C55" s="25">
         <v>70</v>
       </c>
-      <c r="D55" s="169"/>
+      <c r="D55" s="163"/>
       <c r="F55" s="26" t="s">
         <v>47</v>
       </c>
@@ -10399,7 +10556,7 @@
       <c r="C56" s="25">
         <v>70</v>
       </c>
-      <c r="D56" s="169"/>
+      <c r="D56" s="163"/>
       <c r="F56" s="26" t="s">
         <v>47</v>
       </c>
@@ -10485,7 +10642,7 @@
       <c r="C57" s="25">
         <v>70</v>
       </c>
-      <c r="D57" s="169"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="19">
         <v>0.70347222222222217</v>
       </c>
@@ -10580,7 +10737,7 @@
       <c r="C58" s="25">
         <v>70</v>
       </c>
-      <c r="D58" s="169"/>
+      <c r="D58" s="163"/>
       <c r="F58" s="26" t="s">
         <v>47</v>
       </c>
@@ -10666,7 +10823,7 @@
       <c r="C59" s="25">
         <v>70</v>
       </c>
-      <c r="D59" s="169"/>
+      <c r="D59" s="163"/>
       <c r="F59" s="26" t="s">
         <v>47</v>
       </c>
@@ -10752,7 +10909,7 @@
       <c r="C60" s="25">
         <v>70</v>
       </c>
-      <c r="D60" s="169"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="19">
         <v>0.75</v>
       </c>
@@ -10844,7 +11001,7 @@
       <c r="C61" s="25">
         <v>70</v>
       </c>
-      <c r="D61" s="169"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="19">
         <v>0.75208333333333333</v>
       </c>
@@ -10936,7 +11093,7 @@
       <c r="C62" s="25">
         <v>70</v>
       </c>
-      <c r="D62" s="169"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="19">
         <v>0.75624999999999998</v>
       </c>
@@ -11028,7 +11185,7 @@
       <c r="C63" s="25">
         <v>70</v>
       </c>
-      <c r="D63" s="169"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="19">
         <v>0.75902777777777775</v>
       </c>
@@ -11120,7 +11277,7 @@
       <c r="C64" s="25">
         <v>70</v>
       </c>
-      <c r="D64" s="169"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="19">
         <v>0.76250000000000007</v>
       </c>
@@ -11212,7 +11369,7 @@
       <c r="C65" s="25">
         <v>70</v>
       </c>
-      <c r="D65" s="169"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="19">
         <v>0.76736111111111116</v>
       </c>
@@ -11304,7 +11461,7 @@
       <c r="C66" s="25">
         <v>70</v>
       </c>
-      <c r="D66" s="169"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="19">
         <v>0.76848379629629626</v>
       </c>
@@ -11393,7 +11550,7 @@
       <c r="C67" s="25">
         <v>70</v>
       </c>
-      <c r="D67" s="169"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="19">
         <v>0.7729166666666667</v>
       </c>
@@ -11485,7 +11642,7 @@
       <c r="C68" s="25">
         <v>70</v>
       </c>
-      <c r="D68" s="169"/>
+      <c r="D68" s="163"/>
       <c r="E68" s="19">
         <v>0.77569444444444446</v>
       </c>
@@ -11580,7 +11737,7 @@
       <c r="C69" s="25">
         <v>70</v>
       </c>
-      <c r="D69" s="169"/>
+      <c r="D69" s="163"/>
       <c r="E69" s="19">
         <v>0.77638888888888891</v>
       </c>
@@ -11735,7 +11892,7 @@
       <c r="C71" s="48">
         <v>70</v>
       </c>
-      <c r="D71" s="169" t="s">
+      <c r="D71" s="163" t="s">
         <v>193</v>
       </c>
       <c r="E71" s="49">
@@ -11809,7 +11966,7 @@
       <c r="C72" s="48">
         <v>70</v>
       </c>
-      <c r="D72" s="169"/>
+      <c r="D72" s="163"/>
       <c r="E72" s="19">
         <v>0.35138888888888892</v>
       </c>
@@ -11880,7 +12037,7 @@
       <c r="C73" s="48">
         <v>70</v>
       </c>
-      <c r="D73" s="169"/>
+      <c r="D73" s="163"/>
       <c r="E73" s="19">
         <v>0.3520833333333333</v>
       </c>
@@ -11951,7 +12108,7 @@
       <c r="C74" s="48">
         <v>70</v>
       </c>
-      <c r="D74" s="169"/>
+      <c r="D74" s="163"/>
       <c r="E74" s="19">
         <v>0.36527777777777781</v>
       </c>
@@ -12022,7 +12179,7 @@
       <c r="C75" s="48">
         <v>70</v>
       </c>
-      <c r="D75" s="169"/>
+      <c r="D75" s="163"/>
       <c r="E75" s="19">
         <v>0.37222222222222223</v>
       </c>
@@ -12093,7 +12250,7 @@
       <c r="C76" s="48">
         <v>70</v>
       </c>
-      <c r="D76" s="169"/>
+      <c r="D76" s="163"/>
       <c r="F76" s="26" t="s">
         <v>47</v>
       </c>
@@ -12161,7 +12318,7 @@
       <c r="C77" s="48">
         <v>70</v>
       </c>
-      <c r="D77" s="169"/>
+      <c r="D77" s="163"/>
       <c r="E77" s="19">
         <v>0.38819444444444445</v>
       </c>
@@ -12232,7 +12389,7 @@
       <c r="C78" s="48">
         <v>70</v>
       </c>
-      <c r="D78" s="169"/>
+      <c r="D78" s="163"/>
       <c r="E78" s="19">
         <v>0.4069444444444445</v>
       </c>
@@ -12306,7 +12463,7 @@
       <c r="C79" s="48">
         <v>70</v>
       </c>
-      <c r="D79" s="169"/>
+      <c r="D79" s="163"/>
       <c r="E79" s="19">
         <v>0.41250000000000003</v>
       </c>
@@ -12377,7 +12534,7 @@
       <c r="C80" s="48">
         <v>70</v>
       </c>
-      <c r="D80" s="169"/>
+      <c r="D80" s="163"/>
       <c r="E80" s="19">
         <v>0.4145833333333333</v>
       </c>
@@ -12448,7 +12605,7 @@
       <c r="C81" s="48">
         <v>70</v>
       </c>
-      <c r="D81" s="169"/>
+      <c r="D81" s="163"/>
       <c r="E81" s="19">
         <v>0.41805555555555557</v>
       </c>
@@ -12519,7 +12676,7 @@
       <c r="C82" s="48">
         <v>70</v>
       </c>
-      <c r="D82" s="169"/>
+      <c r="D82" s="163"/>
       <c r="E82" s="19">
         <v>0.4201388888888889</v>
       </c>
@@ -12590,7 +12747,7 @@
       <c r="C83" s="48">
         <v>70</v>
       </c>
-      <c r="D83" s="169"/>
+      <c r="D83" s="163"/>
       <c r="E83" s="19">
         <v>0.43124999999999997</v>
       </c>
@@ -12661,7 +12818,7 @@
       <c r="C84" s="48">
         <v>70</v>
       </c>
-      <c r="D84" s="169"/>
+      <c r="D84" s="163"/>
       <c r="E84" s="19">
         <v>0.4597222222222222</v>
       </c>
@@ -12732,7 +12889,7 @@
       <c r="C85" s="48">
         <v>70</v>
       </c>
-      <c r="D85" s="169"/>
+      <c r="D85" s="163"/>
       <c r="E85" s="19" t="s">
         <v>222</v>
       </c>
@@ -12800,7 +12957,7 @@
       <c r="C86" s="48">
         <v>70</v>
       </c>
-      <c r="D86" s="169"/>
+      <c r="D86" s="163"/>
       <c r="E86" s="19">
         <v>0.47013888888888888</v>
       </c>
@@ -12871,7 +13028,7 @@
       <c r="C87" s="48">
         <v>70</v>
       </c>
-      <c r="D87" s="169"/>
+      <c r="D87" s="163"/>
       <c r="E87" s="19">
         <v>0.47291666666666665</v>
       </c>
@@ -12942,7 +13099,7 @@
       <c r="C88" s="48">
         <v>70</v>
       </c>
-      <c r="D88" s="169"/>
+      <c r="D88" s="163"/>
       <c r="E88" s="53">
         <v>0.47569444444444442</v>
       </c>
@@ -14465,7 +14622,7 @@
       <c r="CN131" s="3"/>
     </row>
     <row r="132" spans="1:93" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D132" s="169" t="s">
+      <c r="D132" s="163" t="s">
         <v>299</v>
       </c>
       <c r="E132" s="19">
@@ -14509,7 +14666,7 @@
       <c r="CN132" s="3"/>
     </row>
     <row r="133" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="D133" s="169"/>
+      <c r="D133" s="163"/>
       <c r="F133" s="26" t="s">
         <v>47</v>
       </c>
@@ -14528,7 +14685,7 @@
       <c r="C134" s="25">
         <v>70</v>
       </c>
-      <c r="D134" s="169"/>
+      <c r="D134" s="163"/>
       <c r="F134" s="26">
         <v>54363</v>
       </c>
@@ -14582,7 +14739,7 @@
       <c r="C135" s="25">
         <v>70</v>
       </c>
-      <c r="D135" s="169"/>
+      <c r="D135" s="163"/>
       <c r="F135" s="26">
         <v>54368</v>
       </c>
@@ -14639,7 +14796,7 @@
       <c r="C136" s="25">
         <v>70</v>
       </c>
-      <c r="D136" s="169"/>
+      <c r="D136" s="163"/>
       <c r="F136" s="26">
         <v>54370</v>
       </c>
@@ -14699,7 +14856,7 @@
       <c r="C137" s="25">
         <v>70</v>
       </c>
-      <c r="D137" s="169"/>
+      <c r="D137" s="163"/>
       <c r="F137" s="26">
         <v>54371</v>
       </c>
@@ -14756,7 +14913,7 @@
       <c r="C138" s="25">
         <v>70</v>
       </c>
-      <c r="D138" s="169"/>
+      <c r="D138" s="163"/>
       <c r="F138" s="26">
         <v>54372</v>
       </c>
@@ -14813,7 +14970,7 @@
       <c r="C139" s="25">
         <v>70</v>
       </c>
-      <c r="D139" s="169"/>
+      <c r="D139" s="163"/>
       <c r="F139" s="26">
         <v>54373</v>
       </c>
@@ -14871,7 +15028,7 @@
       <c r="C140" s="25">
         <v>70</v>
       </c>
-      <c r="D140" s="169"/>
+      <c r="D140" s="163"/>
       <c r="F140" s="26">
         <v>54374</v>
       </c>
@@ -14928,7 +15085,7 @@
       <c r="C141" s="25">
         <v>70</v>
       </c>
-      <c r="D141" s="169"/>
+      <c r="D141" s="163"/>
       <c r="F141" s="26">
         <v>54375</v>
       </c>
@@ -14979,7 +15136,7 @@
       <c r="A142" s="39"/>
       <c r="B142" s="40"/>
       <c r="C142" s="40"/>
-      <c r="D142" s="169"/>
+      <c r="D142" s="163"/>
       <c r="E142" s="41"/>
       <c r="F142" s="42"/>
       <c r="G142" s="42"/>
@@ -15064,7 +15221,7 @@
       <c r="C143" s="25">
         <v>70</v>
       </c>
-      <c r="D143" s="169"/>
+      <c r="D143" s="163"/>
       <c r="F143" s="26">
         <v>54384</v>
       </c>
@@ -15124,7 +15281,7 @@
       <c r="C144" s="25">
         <v>70</v>
       </c>
-      <c r="D144" s="169"/>
+      <c r="D144" s="163"/>
       <c r="F144" s="26">
         <v>54386</v>
       </c>
@@ -15179,7 +15336,7 @@
       <c r="C145" s="25">
         <v>70</v>
       </c>
-      <c r="D145" s="169"/>
+      <c r="D145" s="163"/>
       <c r="E145" s="56"/>
       <c r="F145" s="26">
         <v>54387</v>
@@ -15240,7 +15397,7 @@
       <c r="C146" s="25">
         <v>70</v>
       </c>
-      <c r="D146" s="169"/>
+      <c r="D146" s="163"/>
       <c r="E146" s="56"/>
       <c r="F146" s="26">
         <v>54388</v>
@@ -15301,7 +15458,7 @@
       <c r="C147" s="25">
         <v>70</v>
       </c>
-      <c r="D147" s="169"/>
+      <c r="D147" s="163"/>
       <c r="E147" s="56"/>
       <c r="F147" s="26">
         <v>54389</v>
@@ -15362,7 +15519,7 @@
       <c r="C148" s="25">
         <v>70</v>
       </c>
-      <c r="D148" s="169"/>
+      <c r="D148" s="163"/>
       <c r="F148" s="26">
         <v>54390</v>
       </c>
@@ -15419,7 +15576,7 @@
       <c r="C149" s="25">
         <v>70</v>
       </c>
-      <c r="D149" s="169"/>
+      <c r="D149" s="163"/>
       <c r="F149" s="26">
         <v>54391</v>
       </c>
@@ -15473,7 +15630,7 @@
       <c r="C150" s="25">
         <v>70</v>
       </c>
-      <c r="D150" s="169"/>
+      <c r="D150" s="163"/>
       <c r="F150" s="26">
         <v>54394</v>
       </c>
@@ -15531,7 +15688,7 @@
       <c r="C151" s="25">
         <v>70</v>
       </c>
-      <c r="D151" s="169"/>
+      <c r="D151" s="163"/>
       <c r="F151" s="26">
         <v>54395</v>
       </c>
@@ -15581,7 +15738,7 @@
       <c r="CN151" s="3"/>
     </row>
     <row r="152" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="D152" s="169"/>
+      <c r="D152" s="163"/>
       <c r="F152" s="26">
         <v>54396</v>
       </c>
@@ -15625,7 +15782,7 @@
       <c r="CN152" s="3"/>
     </row>
     <row r="153" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D153" s="169"/>
+      <c r="D153" s="163"/>
       <c r="E153" s="19">
         <v>0.70277777777777783</v>
       </c>
@@ -15664,7 +15821,7 @@
       <c r="CN153" s="3"/>
     </row>
     <row r="154" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="D154" s="169"/>
+      <c r="D154" s="163"/>
       <c r="E154" s="19">
         <v>0.7090277777777777</v>
       </c>
@@ -15712,7 +15869,7 @@
       <c r="C155" s="25">
         <v>70</v>
       </c>
-      <c r="D155" s="169"/>
+      <c r="D155" s="163"/>
       <c r="F155" s="26">
         <v>54397</v>
       </c>
@@ -15772,7 +15929,7 @@
       <c r="C156" s="25">
         <v>70</v>
       </c>
-      <c r="D156" s="169"/>
+      <c r="D156" s="163"/>
       <c r="F156" s="26">
         <v>54398</v>
       </c>
@@ -15983,7 +16140,7 @@
       <c r="C159" s="25">
         <v>70</v>
       </c>
-      <c r="D159" s="169" t="s">
+      <c r="D159" s="163" t="s">
         <v>412</v>
       </c>
       <c r="E159" s="19">
@@ -16089,7 +16246,7 @@
       <c r="C160" s="25">
         <v>70</v>
       </c>
-      <c r="D160" s="169"/>
+      <c r="D160" s="163"/>
       <c r="E160" s="19">
         <v>0.375</v>
       </c>
@@ -16202,7 +16359,7 @@
       <c r="C161" s="25">
         <v>70</v>
       </c>
-      <c r="D161" s="169"/>
+      <c r="D161" s="163"/>
       <c r="E161" s="19">
         <v>0.44166666666666665</v>
       </c>
@@ -16309,7 +16466,7 @@
       <c r="C162" s="25">
         <v>70</v>
       </c>
-      <c r="D162" s="169"/>
+      <c r="D162" s="163"/>
       <c r="E162" s="19">
         <v>0.45902777777777781</v>
       </c>
@@ -16422,7 +16579,7 @@
       <c r="C163" s="25">
         <v>70</v>
       </c>
-      <c r="D163" s="169"/>
+      <c r="D163" s="163"/>
       <c r="F163" s="26">
         <v>54405</v>
       </c>
@@ -16543,7 +16700,7 @@
       <c r="C164" s="25">
         <v>70</v>
       </c>
-      <c r="D164" s="169"/>
+      <c r="D164" s="163"/>
       <c r="F164" s="26">
         <v>54406</v>
       </c>
@@ -16658,7 +16815,7 @@
       <c r="C165" s="25">
         <v>70</v>
       </c>
-      <c r="D165" s="169"/>
+      <c r="D165" s="163"/>
       <c r="F165" s="26">
         <v>54407</v>
       </c>
@@ -16782,7 +16939,7 @@
       <c r="C166" s="25">
         <v>70</v>
       </c>
-      <c r="D166" s="169"/>
+      <c r="D166" s="163"/>
       <c r="F166" s="26">
         <v>54408</v>
       </c>
@@ -16903,7 +17060,7 @@
       <c r="C167" s="25">
         <v>70</v>
       </c>
-      <c r="D167" s="169"/>
+      <c r="D167" s="163"/>
       <c r="F167" s="26">
         <v>54409</v>
       </c>
@@ -17021,7 +17178,7 @@
       <c r="C168" s="25">
         <v>70</v>
       </c>
-      <c r="D168" s="169"/>
+      <c r="D168" s="163"/>
       <c r="F168" s="26">
         <v>54410</v>
       </c>
@@ -17139,7 +17296,7 @@
       <c r="C169" s="25">
         <v>70</v>
       </c>
-      <c r="D169" s="169"/>
+      <c r="D169" s="163"/>
       <c r="F169" s="26">
         <v>54411</v>
       </c>
@@ -17263,7 +17420,7 @@
       <c r="C170" s="25">
         <v>70</v>
       </c>
-      <c r="D170" s="169"/>
+      <c r="D170" s="163"/>
       <c r="F170" s="26">
         <v>54412</v>
       </c>
@@ -17424,7 +17581,7 @@
       <c r="C171" s="25">
         <v>70</v>
       </c>
-      <c r="D171" s="169"/>
+      <c r="D171" s="163"/>
       <c r="F171" s="26">
         <v>54413</v>
       </c>
@@ -17590,7 +17747,7 @@
       <c r="C172" s="25">
         <v>70</v>
       </c>
-      <c r="D172" s="169"/>
+      <c r="D172" s="163"/>
       <c r="F172" s="26">
         <v>54414</v>
       </c>
@@ -17758,7 +17915,7 @@
       <c r="C173" s="89">
         <v>70</v>
       </c>
-      <c r="D173" s="169"/>
+      <c r="D173" s="163"/>
       <c r="E173" s="90"/>
       <c r="F173" s="91">
         <v>54415</v>
@@ -18317,7 +18474,7 @@
       <c r="C178" s="25">
         <v>70</v>
       </c>
-      <c r="D178" s="169" t="s">
+      <c r="D178" s="163" t="s">
         <v>424</v>
       </c>
       <c r="E178" s="19">
@@ -18485,7 +18642,7 @@
       <c r="C179" s="25">
         <v>70</v>
       </c>
-      <c r="D179" s="169"/>
+      <c r="D179" s="163"/>
       <c r="E179" s="19">
         <v>0.46527777777777773</v>
       </c>
@@ -18603,7 +18760,7 @@
       <c r="C180" s="25">
         <v>70</v>
       </c>
-      <c r="D180" s="169"/>
+      <c r="D180" s="163"/>
       <c r="E180" s="19">
         <v>0.47152777777777777</v>
       </c>
@@ -18715,7 +18872,7 @@
       <c r="C181" s="25">
         <v>70</v>
       </c>
-      <c r="D181" s="169"/>
+      <c r="D181" s="163"/>
       <c r="E181" s="19">
         <v>0.48472222222222222</v>
       </c>
@@ -18833,7 +18990,7 @@
       <c r="C182" s="25">
         <v>70</v>
       </c>
-      <c r="D182" s="169"/>
+      <c r="D182" s="163"/>
       <c r="E182" s="19">
         <v>0.64583333333333337</v>
       </c>
@@ -18945,7 +19102,7 @@
       <c r="C183" s="25">
         <v>70</v>
       </c>
-      <c r="D183" s="169"/>
+      <c r="D183" s="163"/>
       <c r="E183" s="19">
         <v>0.65833333333333333</v>
       </c>
@@ -19052,7 +19209,7 @@
       <c r="C184" s="25">
         <v>70</v>
       </c>
-      <c r="D184" s="169"/>
+      <c r="D184" s="163"/>
       <c r="E184" s="19">
         <v>0.6791666666666667</v>
       </c>
@@ -19170,7 +19327,7 @@
       <c r="C185" s="25">
         <v>70</v>
       </c>
-      <c r="D185" s="169"/>
+      <c r="D185" s="163"/>
       <c r="E185" s="19">
         <v>0.69166666666666676</v>
       </c>
@@ -19285,7 +19442,7 @@
       <c r="C186" s="25">
         <v>70</v>
       </c>
-      <c r="D186" s="169"/>
+      <c r="D186" s="163"/>
       <c r="E186" s="19">
         <v>0.70347222222222217</v>
       </c>
@@ -19386,7 +19543,7 @@
       <c r="C187" s="25">
         <v>70</v>
       </c>
-      <c r="D187" s="169"/>
+      <c r="D187" s="163"/>
       <c r="F187" s="26">
         <v>54433</v>
       </c>
@@ -19496,7 +19653,7 @@
       <c r="C188" s="25">
         <v>70</v>
       </c>
-      <c r="D188" s="169"/>
+      <c r="D188" s="163"/>
       <c r="F188" s="26">
         <v>54434</v>
       </c>
@@ -19611,7 +19768,7 @@
       <c r="C189" s="25">
         <v>70</v>
       </c>
-      <c r="D189" s="169"/>
+      <c r="D189" s="163"/>
       <c r="F189" s="26">
         <v>54435</v>
       </c>
@@ -19718,7 +19875,7 @@
       <c r="C190" s="25">
         <v>70</v>
       </c>
-      <c r="D190" s="169"/>
+      <c r="D190" s="163"/>
       <c r="F190" s="26">
         <v>54436</v>
       </c>
@@ -19952,7 +20109,7 @@
       <c r="C192" s="25">
         <v>70</v>
       </c>
-      <c r="D192" s="169" t="s">
+      <c r="D192" s="163" t="s">
         <v>465</v>
       </c>
       <c r="E192" s="19">
@@ -20078,7 +20235,7 @@
       <c r="C193" s="25">
         <v>70</v>
       </c>
-      <c r="D193" s="169"/>
+      <c r="D193" s="163"/>
       <c r="E193" s="71">
         <v>0.3756944444444445</v>
       </c>
@@ -20212,7 +20369,7 @@
       <c r="C194" s="25">
         <v>70</v>
       </c>
-      <c r="D194" s="169"/>
+      <c r="D194" s="163"/>
       <c r="E194" s="71">
         <v>0.4055555555555555</v>
       </c>
@@ -20346,7 +20503,7 @@
       <c r="C195" s="25">
         <v>70</v>
       </c>
-      <c r="D195" s="169"/>
+      <c r="D195" s="163"/>
       <c r="E195" s="71">
         <v>0.42222222222222222</v>
       </c>
@@ -20514,7 +20671,7 @@
       <c r="C196" s="25">
         <v>70</v>
       </c>
-      <c r="D196" s="169"/>
+      <c r="D196" s="163"/>
       <c r="E196" s="71">
         <v>0.44236111111111115</v>
       </c>
@@ -20632,7 +20789,7 @@
       <c r="C197" s="25">
         <v>70</v>
       </c>
-      <c r="D197" s="169"/>
+      <c r="D197" s="163"/>
       <c r="E197" s="71">
         <v>0.46597222222222223</v>
       </c>
@@ -20759,7 +20916,7 @@
       <c r="C198" s="25">
         <v>70</v>
       </c>
-      <c r="D198" s="169"/>
+      <c r="D198" s="163"/>
       <c r="E198" s="71">
         <v>0.48680555555555555</v>
       </c>
@@ -20880,7 +21037,7 @@
       <c r="C199" s="25">
         <v>70</v>
       </c>
-      <c r="D199" s="169"/>
+      <c r="D199" s="163"/>
       <c r="E199" s="71">
         <v>0.50208333333333333</v>
       </c>
@@ -21006,7 +21163,7 @@
       <c r="C200" s="25">
         <v>70</v>
       </c>
-      <c r="D200" s="169"/>
+      <c r="D200" s="163"/>
       <c r="E200" s="71">
         <v>0.52638888888888891</v>
       </c>
@@ -21132,7 +21289,7 @@
       <c r="C201" s="25">
         <v>70</v>
       </c>
-      <c r="D201" s="169"/>
+      <c r="D201" s="163"/>
       <c r="E201" s="71">
         <v>0.54375000000000007</v>
       </c>
@@ -21256,7 +21413,7 @@
       <c r="C202" s="25">
         <v>70</v>
       </c>
-      <c r="D202" s="169"/>
+      <c r="D202" s="163"/>
       <c r="E202" s="71">
         <v>0.56388888888888888</v>
       </c>
@@ -21424,7 +21581,7 @@
       <c r="C203" s="25">
         <v>70</v>
       </c>
-      <c r="D203" s="169"/>
+      <c r="D203" s="163"/>
       <c r="E203" s="71">
         <v>0.58263888888888882</v>
       </c>
@@ -21593,7 +21750,7 @@
       <c r="C204" s="25">
         <v>70</v>
       </c>
-      <c r="D204" s="169"/>
+      <c r="D204" s="163"/>
       <c r="E204" s="71">
         <v>0.60347222222222219</v>
       </c>
@@ -21753,7 +21910,7 @@
       <c r="C205" s="25">
         <v>70</v>
       </c>
-      <c r="D205" s="169"/>
+      <c r="D205" s="163"/>
       <c r="E205" s="71">
         <v>0.62430555555555556</v>
       </c>
@@ -21917,7 +22074,7 @@
       <c r="C206" s="25">
         <v>70</v>
       </c>
-      <c r="D206" s="169"/>
+      <c r="D206" s="163"/>
       <c r="E206" s="71">
         <v>0.65208333333333335</v>
       </c>
@@ -22087,7 +22244,7 @@
       <c r="C207" s="25">
         <v>70</v>
       </c>
-      <c r="D207" s="169"/>
+      <c r="D207" s="163"/>
       <c r="E207" s="71">
         <v>0.67222222222222217</v>
       </c>
@@ -22205,7 +22362,7 @@
       <c r="C208" s="25">
         <v>70</v>
       </c>
-      <c r="D208" s="169"/>
+      <c r="D208" s="163"/>
       <c r="E208" s="71">
         <v>0.68819444444444444</v>
       </c>
@@ -22313,7 +22470,7 @@
       <c r="C209" s="25">
         <v>70</v>
       </c>
-      <c r="D209" s="169"/>
+      <c r="D209" s="163"/>
       <c r="E209" s="19">
         <v>0.70277777777777783</v>
       </c>
@@ -22422,7 +22579,7 @@
       <c r="C210" s="25">
         <v>70</v>
       </c>
-      <c r="D210" s="169"/>
+      <c r="D210" s="163"/>
       <c r="E210" s="19">
         <v>0.71805555555555556</v>
       </c>
@@ -22540,7 +22697,7 @@
       <c r="C211" s="25">
         <v>70</v>
       </c>
-      <c r="D211" s="169"/>
+      <c r="D211" s="163"/>
       <c r="E211" s="71">
         <v>0.72986111111111107</v>
       </c>
@@ -22655,7 +22812,7 @@
       <c r="C212" s="25">
         <v>70</v>
       </c>
-      <c r="D212" s="169"/>
+      <c r="D212" s="163"/>
       <c r="E212" s="71">
         <v>0.74930555555555556</v>
       </c>
@@ -22776,7 +22933,7 @@
       <c r="C213" s="25">
         <v>70</v>
       </c>
-      <c r="D213" s="169"/>
+      <c r="D213" s="163"/>
       <c r="E213" s="71">
         <v>0.76597222222222217</v>
       </c>
@@ -22897,7 +23054,7 @@
       <c r="C214" s="25">
         <v>70</v>
       </c>
-      <c r="D214" s="169"/>
+      <c r="D214" s="163"/>
       <c r="E214" s="71"/>
       <c r="F214" s="26">
         <v>54461</v>
@@ -23010,7 +23167,7 @@
       <c r="C215" s="25">
         <v>70</v>
       </c>
-      <c r="D215" s="169"/>
+      <c r="D215" s="163"/>
       <c r="E215" s="71"/>
       <c r="F215" s="26">
         <v>54462</v>
@@ -23210,7 +23367,7 @@
       <c r="C217" s="25">
         <v>70</v>
       </c>
-      <c r="D217" s="169" t="s">
+      <c r="D217" s="163" t="s">
         <v>699</v>
       </c>
       <c r="F217" s="26">
@@ -23330,7 +23487,7 @@
       <c r="C218" s="25">
         <v>70</v>
       </c>
-      <c r="D218" s="169"/>
+      <c r="D218" s="163"/>
       <c r="E218" s="71"/>
       <c r="F218" s="26">
         <v>54469</v>
@@ -23447,7 +23604,7 @@
       <c r="C219" s="25">
         <v>70</v>
       </c>
-      <c r="D219" s="169"/>
+      <c r="D219" s="163"/>
       <c r="E219" s="71"/>
       <c r="F219" s="26">
         <v>54470</v>
@@ -23563,7 +23720,7 @@
       <c r="C220" s="25">
         <v>70</v>
       </c>
-      <c r="D220" s="169"/>
+      <c r="D220" s="163"/>
       <c r="E220" s="71"/>
       <c r="F220" s="26">
         <v>54471</v>
@@ -23688,7 +23845,7 @@
       <c r="C221" s="25">
         <v>70</v>
       </c>
-      <c r="D221" s="169"/>
+      <c r="D221" s="163"/>
       <c r="E221" s="71"/>
       <c r="F221" s="26">
         <v>54472</v>
@@ -23805,7 +23962,7 @@
       <c r="C222" s="25">
         <v>70</v>
       </c>
-      <c r="D222" s="169"/>
+      <c r="D222" s="163"/>
       <c r="E222" s="71"/>
       <c r="F222" s="26">
         <v>54473</v>
@@ -23911,7 +24068,7 @@
       <c r="C223" s="25">
         <v>70</v>
       </c>
-      <c r="D223" s="169"/>
+      <c r="D223" s="163"/>
       <c r="E223" s="71"/>
       <c r="F223" s="26">
         <v>54474</v>
@@ -24028,7 +24185,7 @@
       <c r="C224" s="25">
         <v>70</v>
       </c>
-      <c r="D224" s="169"/>
+      <c r="D224" s="163"/>
       <c r="E224" s="71">
         <v>0.4909722222222222</v>
       </c>
@@ -24136,7 +24293,7 @@
       <c r="C225" s="25">
         <v>70</v>
       </c>
-      <c r="D225" s="169"/>
+      <c r="D225" s="163"/>
       <c r="E225" s="71">
         <v>0.5</v>
       </c>
@@ -24246,7 +24403,7 @@
       <c r="C226" s="25">
         <v>70</v>
       </c>
-      <c r="D226" s="169"/>
+      <c r="D226" s="163"/>
       <c r="E226" s="71">
         <v>0.51458333333333328</v>
       </c>
@@ -24356,7 +24513,7 @@
       <c r="C227" s="25">
         <v>70</v>
       </c>
-      <c r="D227" s="169"/>
+      <c r="D227" s="163"/>
       <c r="E227" s="71"/>
       <c r="F227" s="26">
         <v>54478</v>
@@ -24631,7 +24788,7 @@
       <c r="C230" s="25">
         <v>70</v>
       </c>
-      <c r="D230" s="169" t="s">
+      <c r="D230" s="163" t="s">
         <v>568</v>
       </c>
       <c r="E230" s="71">
@@ -24741,7 +24898,7 @@
       <c r="C231" s="25">
         <v>70</v>
       </c>
-      <c r="D231" s="169"/>
+      <c r="D231" s="163"/>
       <c r="E231" s="71"/>
       <c r="F231" s="26">
         <v>54504</v>
@@ -24860,7 +25017,7 @@
       <c r="C232" s="25">
         <v>70</v>
       </c>
-      <c r="D232" s="169"/>
+      <c r="D232" s="163"/>
       <c r="E232" s="71"/>
       <c r="F232" s="26">
         <v>54505</v>
@@ -24979,7 +25136,7 @@
       <c r="C233" s="25">
         <v>70</v>
       </c>
-      <c r="D233" s="169"/>
+      <c r="D233" s="163"/>
       <c r="E233" s="71"/>
       <c r="F233" s="26">
         <v>54506</v>
@@ -25087,7 +25244,7 @@
       <c r="C234" s="25">
         <v>70</v>
       </c>
-      <c r="D234" s="169"/>
+      <c r="D234" s="163"/>
       <c r="E234" s="71"/>
       <c r="F234" s="26">
         <v>54507</v>
@@ -25193,7 +25350,7 @@
       <c r="C235" s="25">
         <v>70</v>
       </c>
-      <c r="D235" s="169"/>
+      <c r="D235" s="163"/>
       <c r="E235" s="71"/>
       <c r="F235" s="26">
         <v>54508</v>
@@ -25314,7 +25471,7 @@
       <c r="C236" s="25">
         <v>70</v>
       </c>
-      <c r="D236" s="169"/>
+      <c r="D236" s="163"/>
       <c r="E236" s="71"/>
       <c r="F236" s="26">
         <v>54509</v>
@@ -25435,7 +25592,7 @@
       <c r="C237" s="25">
         <v>70</v>
       </c>
-      <c r="D237" s="169"/>
+      <c r="D237" s="163"/>
       <c r="E237" s="71"/>
       <c r="F237" s="26">
         <v>54510</v>
@@ -25543,7 +25700,7 @@
       <c r="C238" s="25">
         <v>70</v>
       </c>
-      <c r="D238" s="169"/>
+      <c r="D238" s="163"/>
       <c r="E238" s="71"/>
       <c r="F238" s="26">
         <v>54511</v>
@@ -25705,7 +25862,7 @@
       <c r="C239" s="25">
         <v>70</v>
       </c>
-      <c r="D239" s="169"/>
+      <c r="D239" s="163"/>
       <c r="F239" s="26">
         <v>54512</v>
       </c>
@@ -25870,7 +26027,7 @@
       <c r="C240" s="25">
         <v>70</v>
       </c>
-      <c r="D240" s="169"/>
+      <c r="D240" s="163"/>
       <c r="F240" s="26">
         <v>54513</v>
       </c>
@@ -25988,7 +26145,7 @@
       <c r="C241" s="25">
         <v>70</v>
       </c>
-      <c r="D241" s="169"/>
+      <c r="D241" s="163"/>
       <c r="F241" s="26">
         <v>54514</v>
       </c>
@@ -26109,7 +26266,7 @@
       <c r="C242" s="25">
         <v>70</v>
       </c>
-      <c r="D242" s="169"/>
+      <c r="D242" s="163"/>
       <c r="F242" s="26">
         <v>54515</v>
       </c>
@@ -26227,7 +26384,7 @@
       <c r="C243" s="25">
         <v>70</v>
       </c>
-      <c r="D243" s="169"/>
+      <c r="D243" s="163"/>
       <c r="F243" s="26">
         <v>54516</v>
       </c>
@@ -26345,7 +26502,7 @@
       <c r="C244" s="25">
         <v>70</v>
       </c>
-      <c r="D244" s="169"/>
+      <c r="D244" s="163"/>
       <c r="F244" s="26">
         <v>54517</v>
       </c>
@@ -26463,7 +26620,7 @@
       <c r="C245" s="25">
         <v>70</v>
       </c>
-      <c r="D245" s="169"/>
+      <c r="D245" s="163"/>
       <c r="E245" s="113"/>
       <c r="F245" s="26">
         <v>54518</v>
@@ -26588,7 +26745,7 @@
       <c r="C247" s="25">
         <v>70</v>
       </c>
-      <c r="D247" s="169" t="s">
+      <c r="D247" s="163" t="s">
         <v>668</v>
       </c>
       <c r="F247" s="26">
@@ -26703,7 +26860,7 @@
       <c r="C248" s="25">
         <v>70</v>
       </c>
-      <c r="D248" s="169"/>
+      <c r="D248" s="163"/>
       <c r="E248" s="116"/>
       <c r="F248" s="26">
         <v>54526</v>
@@ -26823,7 +26980,7 @@
       <c r="C249" s="25">
         <v>70</v>
       </c>
-      <c r="D249" s="169"/>
+      <c r="D249" s="163"/>
       <c r="F249" s="26">
         <v>54527</v>
       </c>
@@ -26941,7 +27098,7 @@
       <c r="C250" s="25">
         <v>70</v>
       </c>
-      <c r="D250" s="169"/>
+      <c r="D250" s="163"/>
       <c r="F250" s="26">
         <v>54528</v>
       </c>
@@ -27059,7 +27216,7 @@
       <c r="C251" s="25">
         <v>70</v>
       </c>
-      <c r="D251" s="169"/>
+      <c r="D251" s="163"/>
       <c r="F251" s="26">
         <v>54529</v>
       </c>
@@ -27177,7 +27334,7 @@
       <c r="C252" s="25">
         <v>70</v>
       </c>
-      <c r="D252" s="169"/>
+      <c r="D252" s="163"/>
       <c r="F252" s="26">
         <v>54530</v>
       </c>
@@ -27295,7 +27452,7 @@
       <c r="C253" s="25">
         <v>70</v>
       </c>
-      <c r="D253" s="169"/>
+      <c r="D253" s="163"/>
       <c r="F253" s="26">
         <v>54531</v>
       </c>
@@ -27407,7 +27564,7 @@
       <c r="C254" s="25">
         <v>70</v>
       </c>
-      <c r="D254" s="169"/>
+      <c r="D254" s="163"/>
       <c r="F254" s="26">
         <v>54532</v>
       </c>
@@ -27507,7 +27664,7 @@
       <c r="C255" s="25">
         <v>70</v>
       </c>
-      <c r="D255" s="169"/>
+      <c r="D255" s="163"/>
       <c r="F255" s="26">
         <v>54533</v>
       </c>
@@ -27619,7 +27776,7 @@
       <c r="C256" s="25">
         <v>70</v>
       </c>
-      <c r="D256" s="169"/>
+      <c r="D256" s="163"/>
       <c r="F256" s="26">
         <v>54534</v>
       </c>
@@ -27731,7 +27888,7 @@
       <c r="C257" s="25">
         <v>70</v>
       </c>
-      <c r="D257" s="169"/>
+      <c r="D257" s="163"/>
       <c r="F257" s="26">
         <v>54535</v>
       </c>
@@ -27840,7 +27997,7 @@
       <c r="C258" s="25">
         <v>70</v>
       </c>
-      <c r="D258" s="169"/>
+      <c r="D258" s="163"/>
       <c r="F258" s="26">
         <v>54536</v>
       </c>
@@ -27946,7 +28103,7 @@
       <c r="C259" s="25">
         <v>70</v>
       </c>
-      <c r="D259" s="169"/>
+      <c r="D259" s="163"/>
       <c r="F259" s="26">
         <v>54537</v>
       </c>
@@ -28055,7 +28212,7 @@
       <c r="C260" s="25">
         <v>70</v>
       </c>
-      <c r="D260" s="169"/>
+      <c r="D260" s="163"/>
       <c r="F260" s="26">
         <v>54538</v>
       </c>
@@ -28173,7 +28330,7 @@
       <c r="C261" s="25">
         <v>70</v>
       </c>
-      <c r="D261" s="169"/>
+      <c r="D261" s="163"/>
       <c r="E261" s="116"/>
       <c r="F261" s="26">
         <v>54539</v>
@@ -28291,7 +28448,7 @@
       <c r="C262" s="25">
         <v>70</v>
       </c>
-      <c r="D262" s="169"/>
+      <c r="D262" s="163"/>
       <c r="F262" s="26">
         <v>54540</v>
       </c>
@@ -28447,7 +28604,7 @@
       <c r="C263" s="25">
         <v>70</v>
       </c>
-      <c r="D263" s="169"/>
+      <c r="D263" s="163"/>
       <c r="E263" s="116"/>
       <c r="F263" s="26">
         <v>54541</v>
@@ -28565,7 +28722,7 @@
       <c r="C264" s="25">
         <v>70</v>
       </c>
-      <c r="D264" s="169"/>
+      <c r="D264" s="163"/>
       <c r="E264" s="116"/>
       <c r="F264" s="26">
         <v>54543</v>
@@ -28627,7 +28784,7 @@
       <c r="C265" s="25">
         <v>70</v>
       </c>
-      <c r="D265" s="169"/>
+      <c r="D265" s="163"/>
       <c r="F265" s="3">
         <v>54544</v>
       </c>
@@ -28834,7 +28991,7 @@
       <c r="C266" s="25">
         <v>70</v>
       </c>
-      <c r="D266" s="169"/>
+      <c r="D266" s="163"/>
       <c r="F266" s="26">
         <v>54545</v>
       </c>
@@ -29086,7 +29243,7 @@
       <c r="C267" s="25">
         <v>70</v>
       </c>
-      <c r="D267" s="169"/>
+      <c r="D267" s="163"/>
       <c r="F267" s="26">
         <v>54546</v>
       </c>
@@ -29425,7 +29582,7 @@
       <c r="C269" s="25">
         <v>70</v>
       </c>
-      <c r="D269" s="169" t="s">
+      <c r="D269" s="163" t="s">
         <v>700</v>
       </c>
       <c r="F269" s="26">
@@ -29533,7 +29690,7 @@
       <c r="C270" s="25">
         <v>70</v>
       </c>
-      <c r="D270" s="169"/>
+      <c r="D270" s="163"/>
       <c r="F270" s="26">
         <v>54555</v>
       </c>
@@ -29627,7 +29784,7 @@
       <c r="C271" s="25">
         <v>70</v>
       </c>
-      <c r="D271" s="169"/>
+      <c r="D271" s="163"/>
       <c r="F271" s="26">
         <v>54556</v>
       </c>
@@ -29730,7 +29887,7 @@
       <c r="C272" s="25">
         <v>70</v>
       </c>
-      <c r="D272" s="169"/>
+      <c r="D272" s="163"/>
       <c r="F272" s="26">
         <v>54557</v>
       </c>
@@ -29833,7 +29990,7 @@
       <c r="C273" s="25">
         <v>70</v>
       </c>
-      <c r="D273" s="169"/>
+      <c r="D273" s="163"/>
       <c r="F273" s="26">
         <v>54558</v>
       </c>
@@ -29936,7 +30093,7 @@
       <c r="C274" s="25">
         <v>70</v>
       </c>
-      <c r="D274" s="169"/>
+      <c r="D274" s="163"/>
       <c r="F274" s="26">
         <v>54563</v>
       </c>
@@ -30051,7 +30208,7 @@
       <c r="C275" s="25">
         <v>70</v>
       </c>
-      <c r="D275" s="169"/>
+      <c r="D275" s="163"/>
       <c r="F275" s="26">
         <v>54564</v>
       </c>
@@ -30166,7 +30323,7 @@
       <c r="C276" s="25">
         <v>70</v>
       </c>
-      <c r="D276" s="169"/>
+      <c r="D276" s="163"/>
       <c r="F276" s="26">
         <v>54565</v>
       </c>
@@ -30397,7 +30554,7 @@
       <c r="C277" s="25">
         <v>70</v>
       </c>
-      <c r="D277" s="169"/>
+      <c r="D277" s="163"/>
       <c r="F277" s="26">
         <v>54566</v>
       </c>
@@ -30628,7 +30785,7 @@
       <c r="C278" s="25">
         <v>70</v>
       </c>
-      <c r="D278" s="169"/>
+      <c r="D278" s="163"/>
       <c r="F278" s="26">
         <v>54567</v>
       </c>
@@ -30859,7 +31016,7 @@
       <c r="C279" s="25">
         <v>70</v>
       </c>
-      <c r="D279" s="169"/>
+      <c r="D279" s="163"/>
       <c r="F279" s="26">
         <v>54568</v>
       </c>
@@ -31096,7 +31253,7 @@
       <c r="C280" s="25">
         <v>70</v>
       </c>
-      <c r="D280" s="169"/>
+      <c r="D280" s="163"/>
       <c r="E280" s="120"/>
       <c r="F280" s="26">
         <v>54569</v>
@@ -31177,7 +31334,7 @@
       <c r="C281" s="25">
         <v>70</v>
       </c>
-      <c r="D281" s="169"/>
+      <c r="D281" s="163"/>
       <c r="E281" s="120"/>
       <c r="F281" s="26">
         <v>54570</v>
@@ -31256,7 +31413,7 @@
       <c r="C282" s="25">
         <v>70</v>
       </c>
-      <c r="D282" s="169"/>
+      <c r="D282" s="163"/>
       <c r="F282" s="26">
         <v>54571</v>
       </c>
@@ -31449,7 +31606,7 @@
       <c r="C283" s="25">
         <v>70</v>
       </c>
-      <c r="D283" s="169"/>
+      <c r="D283" s="163"/>
       <c r="E283" s="120"/>
       <c r="F283" s="26">
         <v>54572</v>
@@ -31528,7 +31685,7 @@
       <c r="C284" s="25">
         <v>70</v>
       </c>
-      <c r="D284" s="169"/>
+      <c r="D284" s="163"/>
       <c r="F284" s="26">
         <v>54573</v>
       </c>
@@ -31726,7 +31883,7 @@
       <c r="C285" s="25">
         <v>70</v>
       </c>
-      <c r="D285" s="169"/>
+      <c r="D285" s="163"/>
       <c r="F285" s="26">
         <v>54574</v>
       </c>
@@ -31855,7 +32012,7 @@
       <c r="C286" s="25">
         <v>70</v>
       </c>
-      <c r="D286" s="169"/>
+      <c r="D286" s="163"/>
       <c r="F286" s="26">
         <v>54575</v>
       </c>
@@ -43750,83 +43907,83 @@
       </c>
       <c r="CN403" s="3"/>
     </row>
-    <row r="404" spans="1:92" s="144" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="140"/>
-      <c r="B404" s="141"/>
-      <c r="C404" s="141"/>
-      <c r="D404" s="142"/>
-      <c r="E404" s="142"/>
-      <c r="F404" s="100"/>
-      <c r="G404" s="100"/>
-      <c r="H404" s="100"/>
-      <c r="I404" s="100"/>
-      <c r="J404" s="100"/>
-      <c r="K404" s="143"/>
-      <c r="L404" s="143"/>
-      <c r="M404" s="143"/>
-      <c r="O404" s="145"/>
-      <c r="P404" s="141"/>
-      <c r="Q404" s="141"/>
-      <c r="R404" s="146"/>
-      <c r="S404" s="146"/>
-      <c r="T404" s="146"/>
-      <c r="U404" s="146"/>
-      <c r="V404" s="146"/>
-      <c r="W404" s="146"/>
-      <c r="X404" s="143"/>
-      <c r="Y404" s="146"/>
-      <c r="Z404" s="146"/>
-      <c r="AA404" s="146"/>
-      <c r="AB404" s="146"/>
-      <c r="AC404" s="146"/>
-      <c r="AD404" s="146"/>
-      <c r="AE404" s="146"/>
-      <c r="AF404" s="146"/>
-      <c r="AG404" s="146"/>
-      <c r="AH404" s="146"/>
-      <c r="AI404" s="146"/>
-      <c r="AJ404" s="146"/>
-      <c r="AK404" s="146"/>
-      <c r="AL404" s="146"/>
-      <c r="AM404" s="146"/>
-      <c r="AN404" s="146"/>
-      <c r="AO404" s="146"/>
-      <c r="AP404" s="146"/>
-      <c r="AQ404" s="141"/>
-      <c r="AR404" s="146"/>
-      <c r="AS404" s="146"/>
-      <c r="AT404" s="146"/>
-      <c r="AU404" s="146"/>
-      <c r="AV404" s="146"/>
-      <c r="AW404" s="146"/>
-      <c r="AX404" s="146"/>
-      <c r="AY404" s="143"/>
-      <c r="AZ404" s="146"/>
-      <c r="BA404" s="146"/>
-      <c r="BB404" s="146"/>
-      <c r="BC404" s="146"/>
-      <c r="BD404" s="146"/>
-      <c r="BE404" s="146"/>
-      <c r="BF404" s="146"/>
-      <c r="BG404" s="146"/>
-      <c r="BH404" s="146"/>
-      <c r="BI404" s="146"/>
-      <c r="BJ404" s="146"/>
-      <c r="BK404" s="146"/>
-      <c r="BL404" s="146"/>
-      <c r="BM404" s="146"/>
-      <c r="BN404" s="146"/>
-      <c r="BO404" s="146"/>
-      <c r="BP404" s="146"/>
-      <c r="BQ404" s="141"/>
-      <c r="BR404" s="146"/>
-      <c r="BS404" s="146"/>
-      <c r="BT404" s="146"/>
-      <c r="BU404" s="146"/>
-      <c r="BV404" s="146"/>
-      <c r="BW404" s="146"/>
-      <c r="BX404" s="143"/>
-      <c r="BY404" s="143"/>
+    <row r="404" spans="1:92" s="78" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="73"/>
+      <c r="B404" s="74"/>
+      <c r="C404" s="74"/>
+      <c r="D404" s="75"/>
+      <c r="E404" s="75"/>
+      <c r="F404" s="76"/>
+      <c r="G404" s="76"/>
+      <c r="H404" s="76"/>
+      <c r="I404" s="76"/>
+      <c r="J404" s="76"/>
+      <c r="K404" s="77"/>
+      <c r="L404" s="77"/>
+      <c r="M404" s="77"/>
+      <c r="O404" s="79"/>
+      <c r="P404" s="74"/>
+      <c r="Q404" s="74"/>
+      <c r="R404" s="80"/>
+      <c r="S404" s="80"/>
+      <c r="T404" s="80"/>
+      <c r="U404" s="80"/>
+      <c r="V404" s="80"/>
+      <c r="W404" s="80"/>
+      <c r="X404" s="77"/>
+      <c r="Y404" s="80"/>
+      <c r="Z404" s="80"/>
+      <c r="AA404" s="80"/>
+      <c r="AB404" s="80"/>
+      <c r="AC404" s="80"/>
+      <c r="AD404" s="80"/>
+      <c r="AE404" s="80"/>
+      <c r="AF404" s="80"/>
+      <c r="AG404" s="80"/>
+      <c r="AH404" s="80"/>
+      <c r="AI404" s="80"/>
+      <c r="AJ404" s="80"/>
+      <c r="AK404" s="80"/>
+      <c r="AL404" s="80"/>
+      <c r="AM404" s="80"/>
+      <c r="AN404" s="80"/>
+      <c r="AO404" s="80"/>
+      <c r="AP404" s="80"/>
+      <c r="AQ404" s="74"/>
+      <c r="AR404" s="80"/>
+      <c r="AS404" s="80"/>
+      <c r="AT404" s="80"/>
+      <c r="AU404" s="80"/>
+      <c r="AV404" s="80"/>
+      <c r="AW404" s="80"/>
+      <c r="AX404" s="80"/>
+      <c r="AY404" s="77"/>
+      <c r="AZ404" s="80"/>
+      <c r="BA404" s="80"/>
+      <c r="BB404" s="80"/>
+      <c r="BC404" s="80"/>
+      <c r="BD404" s="80"/>
+      <c r="BE404" s="80"/>
+      <c r="BF404" s="80"/>
+      <c r="BG404" s="80"/>
+      <c r="BH404" s="80"/>
+      <c r="BI404" s="80"/>
+      <c r="BJ404" s="80"/>
+      <c r="BK404" s="80"/>
+      <c r="BL404" s="80"/>
+      <c r="BM404" s="80"/>
+      <c r="BN404" s="80"/>
+      <c r="BO404" s="80"/>
+      <c r="BP404" s="80"/>
+      <c r="BQ404" s="74"/>
+      <c r="BR404" s="80"/>
+      <c r="BS404" s="80"/>
+      <c r="BT404" s="80"/>
+      <c r="BU404" s="80"/>
+      <c r="BV404" s="80"/>
+      <c r="BW404" s="80"/>
+      <c r="BX404" s="77"/>
+      <c r="BY404" s="77"/>
     </row>
     <row r="405" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F405" s="26">
@@ -43844,7 +44001,7 @@
       <c r="J405" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="L405" s="147" t="s">
+      <c r="L405" s="140" t="s">
         <v>888</v>
       </c>
       <c r="M405" s="1" t="s">
@@ -43871,7 +44028,7 @@
       <c r="U405" s="11">
         <v>49.12</v>
       </c>
-      <c r="X405" s="147"/>
+      <c r="X405" s="140"/>
       <c r="AP405" s="11">
         <v>55.9</v>
       </c>
@@ -43893,7 +44050,7 @@
       <c r="AV405" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY405" s="147"/>
+      <c r="AY405" s="140"/>
       <c r="BP405" s="11">
         <v>56.05</v>
       </c>
@@ -43954,7 +44111,7 @@
       <c r="U406" s="11">
         <v>49.12</v>
       </c>
-      <c r="X406" s="147"/>
+      <c r="X406" s="140"/>
       <c r="AP406" s="11">
         <v>55.9</v>
       </c>
@@ -43976,7 +44133,7 @@
       <c r="AV406" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY406" s="147"/>
+      <c r="AY406" s="140"/>
       <c r="BP406" s="11">
         <v>56.05</v>
       </c>
@@ -44088,7 +44245,7 @@
       <c r="U409" s="11">
         <v>49.12</v>
       </c>
-      <c r="X409" s="147"/>
+      <c r="X409" s="140"/>
       <c r="AP409" s="11">
         <v>55.9</v>
       </c>
@@ -44110,7 +44267,7 @@
       <c r="AV409" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY409" s="147"/>
+      <c r="AY409" s="140"/>
       <c r="BP409" s="11">
         <v>56.05</v>
       </c>
@@ -44174,7 +44331,7 @@
       <c r="U410" s="11">
         <v>49.12</v>
       </c>
-      <c r="X410" s="147"/>
+      <c r="X410" s="140"/>
       <c r="AP410" s="11">
         <v>55.9</v>
       </c>
@@ -44196,7 +44353,7 @@
       <c r="AV410" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY410" s="147"/>
+      <c r="AY410" s="140"/>
       <c r="BP410" s="11">
         <v>56.05</v>
       </c>
@@ -44236,8 +44393,8 @@
       <c r="J411" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K411" s="147"/>
-      <c r="L411" s="147" t="s">
+      <c r="K411" s="140"/>
+      <c r="L411" s="140" t="s">
         <v>897</v>
       </c>
       <c r="CN411" s="3"/>
@@ -44285,7 +44442,7 @@
       <c r="U412" s="11">
         <v>49.12</v>
       </c>
-      <c r="X412" s="148"/>
+      <c r="X412" s="141"/>
       <c r="AP412" s="11">
         <v>55.9</v>
       </c>
@@ -44307,7 +44464,7 @@
       <c r="AV412" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY412" s="148"/>
+      <c r="AY412" s="141"/>
       <c r="BP412" s="11">
         <v>56.05</v>
       </c>
@@ -44347,11 +44504,11 @@
       <c r="J413" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="L413" s="148" t="s">
+      <c r="L413" s="141" t="s">
         <v>897</v>
       </c>
-      <c r="BX413" s="148"/>
-      <c r="BY413" s="148"/>
+      <c r="BX413" s="141"/>
+      <c r="BY413" s="141"/>
       <c r="CN413" s="3"/>
     </row>
     <row r="414" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44370,7 +44527,7 @@
       <c r="J414" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K414" s="148" t="s">
+      <c r="K414" s="141" t="s">
         <v>900</v>
       </c>
       <c r="CN414" s="3"/>
@@ -44418,7 +44575,7 @@
       <c r="U415" s="11">
         <v>49.12</v>
       </c>
-      <c r="X415" s="148"/>
+      <c r="X415" s="141"/>
       <c r="AP415" s="11">
         <v>55.9</v>
       </c>
@@ -44440,7 +44597,7 @@
       <c r="AV415" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY415" s="148"/>
+      <c r="AY415" s="141"/>
       <c r="BP415" s="11">
         <v>56.05</v>
       </c>
@@ -44480,7 +44637,7 @@
       <c r="J416" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K416" s="148"/>
+      <c r="K416" s="141"/>
       <c r="L416" s="1" t="s">
         <v>903</v>
       </c>
@@ -44505,7 +44662,7 @@
       <c r="K417" s="67" t="s">
         <v>904</v>
       </c>
-      <c r="L417" s="148" t="s">
+      <c r="L417" s="141" t="s">
         <v>903</v>
       </c>
       <c r="CN417" s="3"/>
@@ -44526,7 +44683,7 @@
       <c r="J418" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="L418" s="148" t="s">
+      <c r="L418" s="141" t="s">
         <v>897</v>
       </c>
       <c r="CN418" s="3"/>
@@ -44547,7 +44704,7 @@
       <c r="J419" s="100">
         <v>500</v>
       </c>
-      <c r="L419" s="148" t="s">
+      <c r="L419" s="141" t="s">
         <v>902</v>
       </c>
       <c r="O419" s="37">
@@ -44571,7 +44728,7 @@
       <c r="U419" s="11">
         <v>49.12</v>
       </c>
-      <c r="X419" s="148"/>
+      <c r="X419" s="141"/>
       <c r="AP419" s="11">
         <v>55.9</v>
       </c>
@@ -44593,7 +44750,7 @@
       <c r="AV419" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY419" s="148"/>
+      <c r="AY419" s="141"/>
       <c r="BP419" s="11">
         <v>56.05</v>
       </c>
@@ -44617,83 +44774,83 @@
       </c>
       <c r="CN419" s="3"/>
     </row>
-    <row r="420" spans="1:92" s="78" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="73"/>
-      <c r="B420" s="74"/>
-      <c r="C420" s="74"/>
-      <c r="D420" s="75"/>
-      <c r="E420" s="75"/>
-      <c r="F420" s="76"/>
-      <c r="G420" s="76"/>
-      <c r="H420" s="76"/>
-      <c r="I420" s="76"/>
-      <c r="J420" s="76"/>
-      <c r="K420" s="77"/>
-      <c r="L420" s="77"/>
-      <c r="M420" s="77"/>
-      <c r="O420" s="79"/>
-      <c r="P420" s="74"/>
-      <c r="Q420" s="74"/>
-      <c r="R420" s="80"/>
-      <c r="S420" s="80"/>
-      <c r="T420" s="80"/>
-      <c r="U420" s="80"/>
-      <c r="V420" s="80"/>
-      <c r="W420" s="80"/>
-      <c r="X420" s="77"/>
-      <c r="Y420" s="80"/>
-      <c r="Z420" s="80"/>
-      <c r="AA420" s="80"/>
-      <c r="AB420" s="80"/>
-      <c r="AC420" s="80"/>
-      <c r="AD420" s="80"/>
-      <c r="AE420" s="80"/>
-      <c r="AF420" s="80"/>
-      <c r="AG420" s="80"/>
-      <c r="AH420" s="80"/>
-      <c r="AI420" s="80"/>
-      <c r="AJ420" s="80"/>
-      <c r="AK420" s="80"/>
-      <c r="AL420" s="80"/>
-      <c r="AM420" s="80"/>
-      <c r="AN420" s="80"/>
-      <c r="AO420" s="80"/>
-      <c r="AP420" s="80"/>
-      <c r="AQ420" s="74"/>
-      <c r="AR420" s="80"/>
-      <c r="AS420" s="80"/>
-      <c r="AT420" s="80"/>
-      <c r="AU420" s="80"/>
-      <c r="AV420" s="80"/>
-      <c r="AW420" s="80"/>
-      <c r="AX420" s="80"/>
-      <c r="AY420" s="77"/>
-      <c r="AZ420" s="80"/>
-      <c r="BA420" s="80"/>
-      <c r="BB420" s="80"/>
-      <c r="BC420" s="80"/>
-      <c r="BD420" s="80"/>
-      <c r="BE420" s="80"/>
-      <c r="BF420" s="80"/>
-      <c r="BG420" s="80"/>
-      <c r="BH420" s="80"/>
-      <c r="BI420" s="80"/>
-      <c r="BJ420" s="80"/>
-      <c r="BK420" s="80"/>
-      <c r="BL420" s="80"/>
-      <c r="BM420" s="80"/>
-      <c r="BN420" s="80"/>
-      <c r="BO420" s="80"/>
-      <c r="BP420" s="80"/>
-      <c r="BQ420" s="74"/>
-      <c r="BR420" s="80"/>
-      <c r="BS420" s="80"/>
-      <c r="BT420" s="80"/>
-      <c r="BU420" s="80"/>
-      <c r="BV420" s="80"/>
-      <c r="BW420" s="80"/>
-      <c r="BX420" s="77"/>
-      <c r="BY420" s="77"/>
+    <row r="420" spans="1:92" s="129" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="124"/>
+      <c r="B420" s="125"/>
+      <c r="C420" s="125"/>
+      <c r="D420" s="126"/>
+      <c r="E420" s="126"/>
+      <c r="F420" s="127"/>
+      <c r="G420" s="127"/>
+      <c r="H420" s="127"/>
+      <c r="I420" s="127"/>
+      <c r="J420" s="127"/>
+      <c r="K420" s="128"/>
+      <c r="L420" s="128"/>
+      <c r="M420" s="128"/>
+      <c r="O420" s="130"/>
+      <c r="P420" s="125"/>
+      <c r="Q420" s="125"/>
+      <c r="R420" s="131"/>
+      <c r="S420" s="131"/>
+      <c r="T420" s="131"/>
+      <c r="U420" s="131"/>
+      <c r="V420" s="131"/>
+      <c r="W420" s="131"/>
+      <c r="X420" s="128"/>
+      <c r="Y420" s="131"/>
+      <c r="Z420" s="131"/>
+      <c r="AA420" s="131"/>
+      <c r="AB420" s="131"/>
+      <c r="AC420" s="131"/>
+      <c r="AD420" s="131"/>
+      <c r="AE420" s="131"/>
+      <c r="AF420" s="131"/>
+      <c r="AG420" s="131"/>
+      <c r="AH420" s="131"/>
+      <c r="AI420" s="131"/>
+      <c r="AJ420" s="131"/>
+      <c r="AK420" s="131"/>
+      <c r="AL420" s="131"/>
+      <c r="AM420" s="131"/>
+      <c r="AN420" s="131"/>
+      <c r="AO420" s="131"/>
+      <c r="AP420" s="131"/>
+      <c r="AQ420" s="125"/>
+      <c r="AR420" s="131"/>
+      <c r="AS420" s="131"/>
+      <c r="AT420" s="131"/>
+      <c r="AU420" s="131"/>
+      <c r="AV420" s="131"/>
+      <c r="AW420" s="131"/>
+      <c r="AX420" s="131"/>
+      <c r="AY420" s="128"/>
+      <c r="AZ420" s="131"/>
+      <c r="BA420" s="131"/>
+      <c r="BB420" s="131"/>
+      <c r="BC420" s="131"/>
+      <c r="BD420" s="131"/>
+      <c r="BE420" s="131"/>
+      <c r="BF420" s="131"/>
+      <c r="BG420" s="131"/>
+      <c r="BH420" s="131"/>
+      <c r="BI420" s="131"/>
+      <c r="BJ420" s="131"/>
+      <c r="BK420" s="131"/>
+      <c r="BL420" s="131"/>
+      <c r="BM420" s="131"/>
+      <c r="BN420" s="131"/>
+      <c r="BO420" s="131"/>
+      <c r="BP420" s="131"/>
+      <c r="BQ420" s="125"/>
+      <c r="BR420" s="131"/>
+      <c r="BS420" s="131"/>
+      <c r="BT420" s="131"/>
+      <c r="BU420" s="131"/>
+      <c r="BV420" s="131"/>
+      <c r="BW420" s="131"/>
+      <c r="BX420" s="128"/>
+      <c r="BY420" s="128"/>
     </row>
     <row r="421" spans="1:92" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="8">
@@ -44765,7 +44922,7 @@
       <c r="AT421" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU421" s="158">
+      <c r="AU421" s="146">
         <v>55.11</v>
       </c>
       <c r="AV421" s="11">
@@ -44816,7 +44973,7 @@
       <c r="J422" s="101">
         <v>500</v>
       </c>
-      <c r="K422" s="149" t="s">
+      <c r="K422" s="142" t="s">
         <v>905</v>
       </c>
       <c r="L422" s="1" t="s">
@@ -44846,7 +45003,7 @@
       <c r="U422" s="11">
         <v>49.12</v>
       </c>
-      <c r="X422" s="149"/>
+      <c r="X422" s="142"/>
       <c r="AP422" s="11">
         <v>55.9</v>
       </c>
@@ -44862,13 +45019,13 @@
       <c r="AT422" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU422" s="158">
+      <c r="AU422" s="146">
         <v>55.11</v>
       </c>
       <c r="AV422" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY422" s="149"/>
+      <c r="AY422" s="142"/>
       <c r="BP422" s="11">
         <v>56.05</v>
       </c>
@@ -44911,7 +45068,7 @@
       <c r="J423" s="101">
         <v>500</v>
       </c>
-      <c r="K423" s="149" t="s">
+      <c r="K423" s="142" t="s">
         <v>909</v>
       </c>
       <c r="L423" s="1" t="s">
@@ -44941,7 +45098,7 @@
       <c r="U423" s="11">
         <v>49.12</v>
       </c>
-      <c r="X423" s="149"/>
+      <c r="X423" s="142"/>
       <c r="AP423" s="11">
         <v>55.9</v>
       </c>
@@ -44957,13 +45114,13 @@
       <c r="AT423" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU423" s="158">
+      <c r="AU423" s="146">
         <v>55.11</v>
       </c>
       <c r="AV423" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY423" s="149"/>
+      <c r="AY423" s="142"/>
       <c r="BP423" s="11">
         <v>56.05</v>
       </c>
@@ -45036,7 +45193,7 @@
       <c r="U424" s="11">
         <v>49.12</v>
       </c>
-      <c r="X424" s="149"/>
+      <c r="X424" s="142"/>
       <c r="AP424" s="11">
         <v>55.9</v>
       </c>
@@ -45052,13 +45209,13 @@
       <c r="AT424" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU424" s="158">
+      <c r="AU424" s="146">
         <v>55.11</v>
       </c>
       <c r="AV424" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY424" s="149"/>
+      <c r="AY424" s="142"/>
       <c r="BP424" s="11">
         <v>56.05</v>
       </c>
@@ -45101,7 +45258,7 @@
       <c r="J425" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K425" s="149" t="s">
+      <c r="K425" s="142" t="s">
         <v>914</v>
       </c>
       <c r="L425" s="1" t="s">
@@ -45128,7 +45285,7 @@
       <c r="U425" s="11">
         <v>49.12</v>
       </c>
-      <c r="X425" s="149"/>
+      <c r="X425" s="142"/>
       <c r="AP425" s="11">
         <v>55.9</v>
       </c>
@@ -45144,13 +45301,13 @@
       <c r="AT425" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU425" s="158">
+      <c r="AU425" s="146">
         <v>55.11</v>
       </c>
       <c r="AV425" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY425" s="149"/>
+      <c r="AY425" s="142"/>
       <c r="BP425" s="11">
         <v>56.05</v>
       </c>
@@ -45220,7 +45377,7 @@
       <c r="U426" s="11">
         <v>49.12</v>
       </c>
-      <c r="X426" s="149"/>
+      <c r="X426" s="142"/>
       <c r="AP426" s="11">
         <v>55.9</v>
       </c>
@@ -45236,13 +45393,13 @@
       <c r="AT426" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU426" s="158">
+      <c r="AU426" s="146">
         <v>55.11</v>
       </c>
       <c r="AV426" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY426" s="149"/>
+      <c r="AY426" s="142"/>
       <c r="BP426" s="11">
         <v>56.05</v>
       </c>
@@ -45312,7 +45469,7 @@
       <c r="U427" s="11">
         <v>49.12</v>
       </c>
-      <c r="X427" s="149"/>
+      <c r="X427" s="142"/>
       <c r="AP427" s="11">
         <v>55.9</v>
       </c>
@@ -45328,13 +45485,13 @@
       <c r="AT427" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU427" s="158">
+      <c r="AU427" s="146">
         <v>55.11</v>
       </c>
       <c r="AV427" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY427" s="149"/>
+      <c r="AY427" s="142"/>
       <c r="BP427" s="11">
         <v>56.05</v>
       </c>
@@ -45377,7 +45534,7 @@
       <c r="J428" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K428" s="149" t="s">
+      <c r="K428" s="142" t="s">
         <v>920</v>
       </c>
       <c r="L428" s="1" t="s">
@@ -45404,7 +45561,7 @@
       <c r="U428" s="11">
         <v>49.12</v>
       </c>
-      <c r="X428" s="149"/>
+      <c r="X428" s="142"/>
       <c r="AP428" s="11">
         <v>55.9</v>
       </c>
@@ -45420,13 +45577,13 @@
       <c r="AT428" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU428" s="158">
+      <c r="AU428" s="146">
         <v>55.11</v>
       </c>
       <c r="AV428" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY428" s="149"/>
+      <c r="AY428" s="142"/>
       <c r="BP428" s="11">
         <v>56.05</v>
       </c>
@@ -45472,7 +45629,7 @@
       <c r="K429" s="67" t="s">
         <v>920</v>
       </c>
-      <c r="L429" s="149" t="s">
+      <c r="L429" s="142" t="s">
         <v>916</v>
       </c>
       <c r="O429" s="37">
@@ -45496,7 +45653,7 @@
       <c r="U429" s="11">
         <v>49.12</v>
       </c>
-      <c r="X429" s="149"/>
+      <c r="X429" s="142"/>
       <c r="AP429" s="11">
         <v>55.9</v>
       </c>
@@ -45512,13 +45669,13 @@
       <c r="AT429" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU429" s="158">
+      <c r="AU429" s="146">
         <v>55.11</v>
       </c>
       <c r="AV429" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY429" s="149"/>
+      <c r="AY429" s="142"/>
       <c r="BP429" s="11">
         <v>56.05</v>
       </c>
@@ -45561,10 +45718,10 @@
       <c r="J430" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K430" s="149" t="s">
+      <c r="K430" s="142" t="s">
         <v>920</v>
       </c>
-      <c r="L430" s="149" t="s">
+      <c r="L430" s="142" t="s">
         <v>916</v>
       </c>
       <c r="O430" s="37">
@@ -45588,7 +45745,7 @@
       <c r="U430" s="11">
         <v>49.12</v>
       </c>
-      <c r="X430" s="149"/>
+      <c r="X430" s="142"/>
       <c r="AP430" s="11">
         <v>55.9</v>
       </c>
@@ -45604,13 +45761,13 @@
       <c r="AT430" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU430" s="158">
+      <c r="AU430" s="146">
         <v>55.11</v>
       </c>
       <c r="AV430" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY430" s="149"/>
+      <c r="AY430" s="142"/>
       <c r="BP430" s="11">
         <v>56.05</v>
       </c>
@@ -45653,7 +45810,7 @@
       <c r="J431" s="99">
         <v>1500</v>
       </c>
-      <c r="K431" s="149" t="s">
+      <c r="K431" s="142" t="s">
         <v>920</v>
       </c>
       <c r="L431" s="1" t="s">
@@ -45683,7 +45840,7 @@
       <c r="U431" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="X431" s="149"/>
+      <c r="X431" s="142"/>
       <c r="AP431" s="11">
         <v>55.9</v>
       </c>
@@ -45699,13 +45856,13 @@
       <c r="AT431" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU431" s="158">
+      <c r="AU431" s="146">
         <v>55.11</v>
       </c>
       <c r="AV431" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY431" s="149"/>
+      <c r="AY431" s="142"/>
       <c r="BP431" s="11">
         <v>56.05</v>
       </c>
@@ -45781,7 +45938,7 @@
       <c r="U432" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="X432" s="149"/>
+      <c r="X432" s="142"/>
       <c r="AP432" s="11">
         <v>55.9</v>
       </c>
@@ -45797,13 +45954,13 @@
       <c r="AT432" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU432" s="158">
+      <c r="AU432" s="146">
         <v>55.11</v>
       </c>
       <c r="AV432" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY432" s="149"/>
+      <c r="AY432" s="142"/>
       <c r="BP432" s="11">
         <v>56.05</v>
       </c>
@@ -45873,7 +46030,7 @@
       <c r="U433" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="X433" s="149"/>
+      <c r="X433" s="142"/>
       <c r="AP433" s="11">
         <v>55.9</v>
       </c>
@@ -45889,13 +46046,13 @@
       <c r="AT433" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU433" s="158">
+      <c r="AU433" s="146">
         <v>55.11</v>
       </c>
       <c r="AV433" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY433" s="149"/>
+      <c r="AY433" s="142"/>
       <c r="BP433" s="11">
         <v>56.05</v>
       </c>
@@ -45968,7 +46125,7 @@
       <c r="U434" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="X434" s="149"/>
+      <c r="X434" s="142"/>
       <c r="AP434" s="11">
         <v>55.9</v>
       </c>
@@ -45984,13 +46141,13 @@
       <c r="AT434" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU434" s="158">
+      <c r="AU434" s="146">
         <v>55.11</v>
       </c>
       <c r="AV434" s="11">
         <v>47.75</v>
       </c>
-      <c r="AY434" s="149"/>
+      <c r="AY434" s="142"/>
       <c r="BP434" s="11">
         <v>56.05</v>
       </c>
@@ -46075,7 +46232,7 @@
       <c r="AT435" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU435" s="158">
+      <c r="AU435" s="146">
         <v>55.11</v>
       </c>
       <c r="AV435" s="11">
@@ -46165,7 +46322,7 @@
       <c r="AT436" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU436" s="158">
+      <c r="AU436" s="146">
         <v>55.11</v>
       </c>
       <c r="AV436" s="11">
@@ -46258,7 +46415,7 @@
       <c r="AT437" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU437" s="158">
+      <c r="AU437" s="146">
         <v>55.11</v>
       </c>
       <c r="AV437" s="11">
@@ -46348,7 +46505,7 @@
       <c r="AT438" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU438" s="158">
+      <c r="AU438" s="146">
         <v>55.11</v>
       </c>
       <c r="AV438" s="11">
@@ -46438,7 +46595,7 @@
       <c r="AT439" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU439" s="158">
+      <c r="AU439" s="146">
         <v>55.11</v>
       </c>
       <c r="AV439" s="11">
@@ -46528,7 +46685,7 @@
       <c r="AT440" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU440" s="158">
+      <c r="AU440" s="146">
         <v>55.11</v>
       </c>
       <c r="AV440" s="11">
@@ -46618,7 +46775,7 @@
       <c r="AT441" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU441" s="158">
+      <c r="AU441" s="146">
         <v>55.11</v>
       </c>
       <c r="AV441" s="11">
@@ -46666,10 +46823,10 @@
       <c r="J442" s="99">
         <v>1800</v>
       </c>
-      <c r="K442" s="149" t="s">
+      <c r="K442" s="142" t="s">
         <v>946</v>
       </c>
-      <c r="L442" s="149" t="s">
+      <c r="L442" s="142" t="s">
         <v>949</v>
       </c>
       <c r="M442" s="1" t="s">
@@ -46711,7 +46868,7 @@
       <c r="AT442" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU442" s="158">
+      <c r="AU442" s="146">
         <v>55.11</v>
       </c>
       <c r="AV442" s="11">
@@ -46801,17 +46958,17 @@
       <c r="AT443" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU443" s="158">
+      <c r="AU443" s="146">
         <v>55.11</v>
       </c>
       <c r="AV443" s="11">
         <v>47.78</v>
       </c>
       <c r="BP443" s="11">
-        <v>55.9</v>
+        <v>56.05</v>
       </c>
       <c r="BQ443" s="25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="BR443" s="11">
         <v>2950</v>
@@ -46891,17 +47048,17 @@
       <c r="AT444" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU444" s="158">
+      <c r="AU444" s="146">
         <v>55.11</v>
       </c>
       <c r="AV444" s="11">
         <v>47.78</v>
       </c>
       <c r="BP444" s="11">
-        <v>55.9</v>
+        <v>56.05</v>
       </c>
       <c r="BQ444" s="25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="BR444" s="11">
         <v>2950</v>
@@ -46920,83 +47077,83 @@
       </c>
       <c r="CN444" s="3"/>
     </row>
-    <row r="445" spans="1:92" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="151"/>
-      <c r="B445" s="152"/>
-      <c r="C445" s="152"/>
-      <c r="D445" s="153"/>
-      <c r="E445" s="153"/>
-      <c r="F445" s="154"/>
-      <c r="G445" s="154"/>
-      <c r="H445" s="154"/>
-      <c r="I445" s="154"/>
-      <c r="J445" s="154"/>
-      <c r="K445" s="155"/>
-      <c r="L445" s="155"/>
-      <c r="M445" s="155"/>
-      <c r="O445" s="156"/>
-      <c r="P445" s="152"/>
-      <c r="Q445" s="152"/>
-      <c r="R445" s="157"/>
-      <c r="S445" s="157"/>
-      <c r="T445" s="157"/>
-      <c r="U445" s="157"/>
-      <c r="V445" s="157"/>
-      <c r="W445" s="157"/>
-      <c r="X445" s="155"/>
-      <c r="Y445" s="157"/>
-      <c r="Z445" s="157"/>
-      <c r="AA445" s="157"/>
-      <c r="AB445" s="157"/>
-      <c r="AC445" s="157"/>
-      <c r="AD445" s="157"/>
-      <c r="AE445" s="157"/>
-      <c r="AF445" s="157"/>
-      <c r="AG445" s="157"/>
-      <c r="AH445" s="157"/>
-      <c r="AI445" s="157"/>
-      <c r="AJ445" s="157"/>
-      <c r="AK445" s="157"/>
-      <c r="AL445" s="157"/>
-      <c r="AM445" s="157"/>
-      <c r="AN445" s="157"/>
-      <c r="AO445" s="157"/>
-      <c r="AP445" s="157"/>
-      <c r="AQ445" s="152"/>
-      <c r="AR445" s="157"/>
-      <c r="AS445" s="157"/>
-      <c r="AT445" s="157"/>
-      <c r="AU445" s="157"/>
-      <c r="AV445" s="157"/>
-      <c r="AW445" s="157"/>
-      <c r="AX445" s="157"/>
-      <c r="AY445" s="155"/>
-      <c r="AZ445" s="157"/>
-      <c r="BA445" s="157"/>
-      <c r="BB445" s="157"/>
-      <c r="BC445" s="157"/>
-      <c r="BD445" s="157"/>
-      <c r="BE445" s="157"/>
-      <c r="BF445" s="157"/>
-      <c r="BG445" s="157"/>
-      <c r="BH445" s="157"/>
-      <c r="BI445" s="157"/>
-      <c r="BJ445" s="157"/>
-      <c r="BK445" s="157"/>
-      <c r="BL445" s="157"/>
-      <c r="BM445" s="157"/>
-      <c r="BN445" s="157"/>
-      <c r="BO445" s="157"/>
-      <c r="BP445" s="157"/>
-      <c r="BQ445" s="152"/>
-      <c r="BR445" s="157"/>
-      <c r="BS445" s="157"/>
-      <c r="BT445" s="157"/>
-      <c r="BU445" s="157"/>
-      <c r="BV445" s="157"/>
-      <c r="BW445" s="157"/>
-      <c r="BX445" s="155"/>
-      <c r="BY445" s="155"/>
+    <row r="445" spans="1:92" s="78" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="73"/>
+      <c r="B445" s="74"/>
+      <c r="C445" s="74"/>
+      <c r="D445" s="75"/>
+      <c r="E445" s="75"/>
+      <c r="F445" s="76"/>
+      <c r="G445" s="76"/>
+      <c r="H445" s="76"/>
+      <c r="I445" s="76"/>
+      <c r="J445" s="76"/>
+      <c r="K445" s="77"/>
+      <c r="L445" s="77"/>
+      <c r="M445" s="77"/>
+      <c r="O445" s="79"/>
+      <c r="P445" s="74"/>
+      <c r="Q445" s="74"/>
+      <c r="R445" s="80"/>
+      <c r="S445" s="80"/>
+      <c r="T445" s="80"/>
+      <c r="U445" s="80"/>
+      <c r="V445" s="80"/>
+      <c r="W445" s="80"/>
+      <c r="X445" s="77"/>
+      <c r="Y445" s="80"/>
+      <c r="Z445" s="80"/>
+      <c r="AA445" s="80"/>
+      <c r="AB445" s="80"/>
+      <c r="AC445" s="80"/>
+      <c r="AD445" s="80"/>
+      <c r="AE445" s="80"/>
+      <c r="AF445" s="80"/>
+      <c r="AG445" s="80"/>
+      <c r="AH445" s="80"/>
+      <c r="AI445" s="80"/>
+      <c r="AJ445" s="80"/>
+      <c r="AK445" s="80"/>
+      <c r="AL445" s="80"/>
+      <c r="AM445" s="80"/>
+      <c r="AN445" s="80"/>
+      <c r="AO445" s="80"/>
+      <c r="AP445" s="80"/>
+      <c r="AQ445" s="74"/>
+      <c r="AR445" s="80"/>
+      <c r="AS445" s="80"/>
+      <c r="AT445" s="80"/>
+      <c r="AU445" s="80"/>
+      <c r="AV445" s="80"/>
+      <c r="AW445" s="80"/>
+      <c r="AX445" s="80"/>
+      <c r="AY445" s="77"/>
+      <c r="AZ445" s="80"/>
+      <c r="BA445" s="80"/>
+      <c r="BB445" s="80"/>
+      <c r="BC445" s="80"/>
+      <c r="BD445" s="80"/>
+      <c r="BE445" s="80"/>
+      <c r="BF445" s="80"/>
+      <c r="BG445" s="80"/>
+      <c r="BH445" s="80"/>
+      <c r="BI445" s="80"/>
+      <c r="BJ445" s="80"/>
+      <c r="BK445" s="80"/>
+      <c r="BL445" s="80"/>
+      <c r="BM445" s="80"/>
+      <c r="BN445" s="80"/>
+      <c r="BO445" s="80"/>
+      <c r="BP445" s="80"/>
+      <c r="BQ445" s="74"/>
+      <c r="BR445" s="80"/>
+      <c r="BS445" s="80"/>
+      <c r="BT445" s="80"/>
+      <c r="BU445" s="80"/>
+      <c r="BV445" s="80"/>
+      <c r="BW445" s="80"/>
+      <c r="BX445" s="77"/>
+      <c r="BY445" s="77"/>
     </row>
     <row r="446" spans="1:92" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="8">
@@ -47026,7 +47183,7 @@
       <c r="L446" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="M446" s="159" t="s">
+      <c r="M446" s="147" t="s">
         <v>956</v>
       </c>
       <c r="O446" s="37">
@@ -47065,17 +47222,17 @@
       <c r="AT446" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU446" s="158">
+      <c r="AU446" s="146">
         <v>55.11</v>
       </c>
       <c r="AV446" s="11">
         <v>47.8</v>
       </c>
       <c r="BP446" s="11">
-        <v>55.9</v>
+        <v>56.05</v>
       </c>
       <c r="BQ446" s="25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="BR446" s="11">
         <v>2950</v>
@@ -47095,6 +47252,9 @@
       <c r="CN446" s="3"/>
     </row>
     <row r="447" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="8">
+        <v>43714</v>
+      </c>
       <c r="F447" s="26">
         <v>54985</v>
       </c>
@@ -47152,17 +47312,17 @@
       <c r="AT447" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU447" s="158">
+      <c r="AU447" s="146">
         <v>55.11</v>
       </c>
       <c r="AV447" s="11">
         <v>47.8</v>
       </c>
       <c r="BP447" s="11">
-        <v>55.9</v>
+        <v>56.05</v>
       </c>
       <c r="BQ447" s="25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="BR447" s="11">
         <v>2950</v>
@@ -47182,6 +47342,9 @@
       <c r="CN447" s="3"/>
     </row>
     <row r="448" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="8">
+        <v>43714</v>
+      </c>
       <c r="E448" s="19">
         <v>0.7284722222222223</v>
       </c>
@@ -47206,7 +47369,7 @@
       <c r="L448" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="M448" s="159" t="s">
+      <c r="M448" s="147" t="s">
         <v>966</v>
       </c>
       <c r="O448" s="37">
@@ -47245,17 +47408,17 @@
       <c r="AT448" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU448" s="158">
+      <c r="AU448" s="146">
         <v>55.11</v>
       </c>
       <c r="AV448" s="11">
         <v>47.8</v>
       </c>
       <c r="BP448" s="11">
-        <v>55.9</v>
+        <v>56.05</v>
       </c>
       <c r="BQ448" s="25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="BR448" s="11">
         <v>2950</v>
@@ -47274,7 +47437,10 @@
       </c>
       <c r="CN448" s="3"/>
     </row>
-    <row r="449" spans="6:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="8">
+        <v>43714</v>
+      </c>
       <c r="F449" s="26">
         <v>54987</v>
       </c>
@@ -47332,17 +47498,17 @@
       <c r="AT449" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU449" s="158">
+      <c r="AU449" s="146">
         <v>55.11</v>
       </c>
       <c r="AV449" s="11">
         <v>47.8</v>
       </c>
       <c r="BP449" s="11">
-        <v>55.9</v>
+        <v>56.05</v>
       </c>
       <c r="BQ449" s="25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="BR449" s="11">
         <v>2950</v>
@@ -47361,7 +47527,10 @@
       </c>
       <c r="CN449" s="3"/>
     </row>
-    <row r="450" spans="6:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="8">
+        <v>43714</v>
+      </c>
       <c r="F450" s="26">
         <v>54988</v>
       </c>
@@ -47419,17 +47588,17 @@
       <c r="AT450" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU450" s="158">
+      <c r="AU450" s="146">
         <v>55.11</v>
       </c>
       <c r="AV450" s="11">
         <v>47.8</v>
       </c>
       <c r="BP450" s="11">
-        <v>55.9</v>
+        <v>56.05</v>
       </c>
       <c r="BQ450" s="25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="BR450" s="11">
         <v>2950</v>
@@ -47448,7 +47617,10 @@
       </c>
       <c r="CN450" s="3"/>
     </row>
-    <row r="451" spans="6:92" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:92" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="8">
+        <v>43714</v>
+      </c>
       <c r="F451" s="26">
         <v>54989</v>
       </c>
@@ -47464,13 +47636,13 @@
       <c r="J451" s="99">
         <v>1800</v>
       </c>
-      <c r="K451" s="150" t="s">
+      <c r="K451" s="143" t="s">
         <v>962</v>
       </c>
       <c r="L451" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="M451" s="159" t="s">
+      <c r="M451" s="147" t="s">
         <v>967</v>
       </c>
       <c r="O451" s="37">
@@ -47509,17 +47681,17 @@
       <c r="AT451" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU451" s="158">
+      <c r="AU451" s="146">
         <v>55.11</v>
       </c>
       <c r="AV451" s="11">
         <v>47.8</v>
       </c>
       <c r="BP451" s="11">
-        <v>55.9</v>
+        <v>56.05</v>
       </c>
       <c r="BQ451" s="25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="BR451" s="11">
         <v>2950</v>
@@ -47538,7 +47710,10 @@
       </c>
       <c r="CN451" s="3"/>
     </row>
-    <row r="452" spans="6:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="8">
+        <v>43714</v>
+      </c>
       <c r="F452" s="26">
         <v>54990</v>
       </c>
@@ -47596,17 +47771,17 @@
       <c r="AT452" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU452" s="158">
+      <c r="AU452" s="146">
         <v>55.11</v>
       </c>
       <c r="AV452" s="11">
         <v>47.8</v>
       </c>
       <c r="BP452" s="11">
-        <v>55.9</v>
+        <v>56.05</v>
       </c>
       <c r="BQ452" s="25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="BR452" s="11">
         <v>2950</v>
@@ -47625,7 +47800,10 @@
       </c>
       <c r="CN452" s="3"/>
     </row>
-    <row r="453" spans="6:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="8">
+        <v>43714</v>
+      </c>
       <c r="F453" s="26">
         <v>54991</v>
       </c>
@@ -47683,17 +47861,17 @@
       <c r="AT453" s="11">
         <v>49.31</v>
       </c>
-      <c r="AU453" s="158">
+      <c r="AU453" s="146">
         <v>55.11</v>
       </c>
       <c r="AV453" s="11">
         <v>47.8</v>
       </c>
       <c r="BP453" s="11">
-        <v>55.9</v>
+        <v>56.05</v>
       </c>
       <c r="BQ453" s="25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="BR453" s="11">
         <v>2950</v>
@@ -47712,131 +47890,2885 @@
       </c>
       <c r="CN453" s="3"/>
     </row>
-    <row r="454" spans="6:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="CN454" s="3"/>
-    </row>
-    <row r="455" spans="6:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:92" s="129" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="124"/>
+      <c r="B454" s="125"/>
+      <c r="C454" s="125"/>
+      <c r="D454" s="126"/>
+      <c r="E454" s="126"/>
+      <c r="F454" s="127"/>
+      <c r="G454" s="127"/>
+      <c r="H454" s="127"/>
+      <c r="I454" s="127"/>
+      <c r="J454" s="127"/>
+      <c r="K454" s="128"/>
+      <c r="L454" s="128"/>
+      <c r="M454" s="128"/>
+      <c r="O454" s="130"/>
+      <c r="P454" s="125"/>
+      <c r="Q454" s="125"/>
+      <c r="R454" s="131"/>
+      <c r="S454" s="131"/>
+      <c r="T454" s="131"/>
+      <c r="U454" s="131"/>
+      <c r="V454" s="131"/>
+      <c r="W454" s="131"/>
+      <c r="X454" s="128"/>
+      <c r="Y454" s="131"/>
+      <c r="Z454" s="131"/>
+      <c r="AA454" s="131"/>
+      <c r="AB454" s="131"/>
+      <c r="AC454" s="131"/>
+      <c r="AD454" s="131"/>
+      <c r="AE454" s="131"/>
+      <c r="AF454" s="131"/>
+      <c r="AG454" s="131"/>
+      <c r="AH454" s="131"/>
+      <c r="AI454" s="131"/>
+      <c r="AJ454" s="131"/>
+      <c r="AK454" s="131"/>
+      <c r="AL454" s="131"/>
+      <c r="AM454" s="131"/>
+      <c r="AN454" s="131"/>
+      <c r="AO454" s="131"/>
+      <c r="AP454" s="131"/>
+      <c r="AQ454" s="125"/>
+      <c r="AR454" s="131"/>
+      <c r="AS454" s="131"/>
+      <c r="AT454" s="131"/>
+      <c r="AU454" s="131"/>
+      <c r="AV454" s="131"/>
+      <c r="AW454" s="131"/>
+      <c r="AX454" s="131"/>
+      <c r="AY454" s="128"/>
+      <c r="AZ454" s="131"/>
+      <c r="BA454" s="131"/>
+      <c r="BB454" s="131"/>
+      <c r="BC454" s="131"/>
+      <c r="BD454" s="131"/>
+      <c r="BE454" s="131"/>
+      <c r="BF454" s="131"/>
+      <c r="BG454" s="131"/>
+      <c r="BH454" s="131"/>
+      <c r="BI454" s="131"/>
+      <c r="BJ454" s="131"/>
+      <c r="BK454" s="131"/>
+      <c r="BL454" s="131"/>
+      <c r="BM454" s="131"/>
+      <c r="BN454" s="131"/>
+      <c r="BO454" s="131"/>
+      <c r="BP454" s="131"/>
+      <c r="BQ454" s="125"/>
+      <c r="BR454" s="131"/>
+      <c r="BS454" s="131"/>
+      <c r="BT454" s="131"/>
+      <c r="BU454" s="131"/>
+      <c r="BV454" s="131"/>
+      <c r="BW454" s="131"/>
+      <c r="BX454" s="128"/>
+      <c r="BY454" s="128"/>
+    </row>
+    <row r="455" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D455" s="144"/>
+      <c r="E455" s="144"/>
+      <c r="K455" s="145"/>
+      <c r="L455" s="148" t="s">
+        <v>979</v>
+      </c>
+      <c r="M455" s="87" t="s">
+        <v>976</v>
+      </c>
+      <c r="X455" s="87"/>
+      <c r="AU455" s="149"/>
+      <c r="AY455" s="87"/>
+      <c r="BX455" s="145"/>
+      <c r="BY455" s="145"/>
       <c r="CN455" s="3"/>
     </row>
-    <row r="456" spans="6:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:92" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F456" s="26">
+        <v>55000</v>
+      </c>
+      <c r="G456" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H456" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I456" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J456" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K456" s="67" t="s">
+        <v>977</v>
+      </c>
+      <c r="L456" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="M456" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="O456" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P456" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q456" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R456" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S456" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T456" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U456" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X456" s="87" t="s">
+        <v>974</v>
+      </c>
+      <c r="AP456" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ456" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR456" s="11">
+        <v>2950</v>
+      </c>
+      <c r="AS456" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT456" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU456" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV456" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="AY456" s="87" t="s">
+        <v>975</v>
+      </c>
+      <c r="BP456" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ456" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR456" s="11">
+        <v>2950</v>
+      </c>
+      <c r="BS456" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT456" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU456" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV456" s="11">
+        <v>45.58</v>
+      </c>
+      <c r="BY456" s="72" t="s">
+        <v>973</v>
+      </c>
       <c r="CN456" s="3"/>
     </row>
-    <row r="457" spans="6:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F457" s="26">
+        <v>55001</v>
+      </c>
+      <c r="G457" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H457" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I457" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J457" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K457" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L457" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M457" s="3"/>
+      <c r="O457" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P457" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q457" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R457" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S457" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T457" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U457" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP457" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ457" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR457" s="11">
+        <v>2950</v>
+      </c>
+      <c r="AS457" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT457" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU457" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV457" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP457" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ457" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR457" s="11">
+        <v>2950</v>
+      </c>
+      <c r="BS457" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT457" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU457" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV457" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN457" s="3"/>
     </row>
-    <row r="458" spans="6:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A458" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F458" s="26">
+        <v>55002</v>
+      </c>
+      <c r="G458" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H458" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I458" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J458" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K458" s="67" t="s">
+        <v>986</v>
+      </c>
+      <c r="L458" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M458" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="O458" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P458" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q458" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R458" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S458" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T458" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U458" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP458" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ458" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR458" s="11">
+        <v>2950</v>
+      </c>
+      <c r="AS458" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT458" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU458" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV458" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP458" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ458" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR458" s="11">
+        <v>2950</v>
+      </c>
+      <c r="BS458" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT458" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU458" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV458" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN458" s="3"/>
     </row>
-    <row r="459" spans="6:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A459" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F459" s="26">
+        <v>55003</v>
+      </c>
+      <c r="G459" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H459" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I459" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J459" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K459" s="67" t="s">
+        <v>980</v>
+      </c>
+      <c r="L459" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="O459" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P459" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q459" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R459" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S459" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T459" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U459" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP459" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ459" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR459" s="11">
+        <v>2951</v>
+      </c>
+      <c r="AS459" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT459" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU459" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV459" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP459" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ459" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR459" s="11">
+        <v>2951</v>
+      </c>
+      <c r="BS459" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT459" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU459" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV459" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN459" s="3"/>
     </row>
-    <row r="460" spans="6:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A460" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F460" s="26">
+        <v>55004</v>
+      </c>
+      <c r="G460" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H460" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I460" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J460" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K460" s="67" t="s">
+        <v>983</v>
+      </c>
+      <c r="L460" s="145" t="s">
+        <v>982</v>
+      </c>
+      <c r="M460" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="O460" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P460" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q460" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R460" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S460" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T460" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U460" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP460" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ460" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR460" s="11">
+        <v>2951</v>
+      </c>
+      <c r="AS460" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT460" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU460" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV460" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP460" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ460" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR460" s="11">
+        <v>2951</v>
+      </c>
+      <c r="BS460" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT460" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU460" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV460" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN460" s="3"/>
     </row>
-    <row r="461" spans="6:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F461" s="26">
+        <v>55005</v>
+      </c>
+      <c r="G461" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H461" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I461" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J461" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K461" s="67" t="s">
+        <v>987</v>
+      </c>
+      <c r="L461" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="O461" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P461" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q461" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R461" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S461" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T461" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U461" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP461" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ461" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR461" s="11">
+        <v>2951</v>
+      </c>
+      <c r="AS461" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT461" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU461" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV461" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP461" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ461" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR461" s="11">
+        <v>2951</v>
+      </c>
+      <c r="BS461" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT461" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU461" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV461" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN461" s="3"/>
     </row>
-    <row r="462" spans="6:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F462" s="26">
+        <v>55006</v>
+      </c>
+      <c r="G462" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H462" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I462" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J462" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K462" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L462" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="O462" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P462" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q462" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R462" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S462" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T462" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U462" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP462" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ462" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR462" s="11">
+        <v>2951</v>
+      </c>
+      <c r="AS462" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT462" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU462" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV462" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP462" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ462" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR462" s="11">
+        <v>2951</v>
+      </c>
+      <c r="BS462" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT462" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU462" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV462" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN462" s="3"/>
     </row>
-    <row r="463" spans="6:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F463" s="26">
+        <v>55007</v>
+      </c>
+      <c r="G463" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H463" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I463" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J463" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K463" s="145" t="s">
+        <v>521</v>
+      </c>
+      <c r="L463" s="145" t="s">
+        <v>981</v>
+      </c>
+      <c r="O463" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P463" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q463" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R463" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S463" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T463" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U463" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP463" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ463" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR463" s="11">
+        <v>2951</v>
+      </c>
+      <c r="AS463" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT463" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU463" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV463" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP463" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ463" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR463" s="11">
+        <v>2951</v>
+      </c>
+      <c r="BS463" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT463" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU463" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV463" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN463" s="3"/>
     </row>
-    <row r="464" spans="6:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F464" s="26">
+        <v>55008</v>
+      </c>
+      <c r="G464" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H464" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I464" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J464" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K464" s="145" t="s">
+        <v>521</v>
+      </c>
+      <c r="L464" s="145" t="s">
+        <v>989</v>
+      </c>
+      <c r="O464" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P464" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q464" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R464" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S464" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T464" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U464" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP464" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ464" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR464" s="11">
+        <v>2951</v>
+      </c>
+      <c r="AS464" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT464" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU464" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV464" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP464" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ464" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR464" s="11">
+        <v>2951</v>
+      </c>
+      <c r="BS464" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT464" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU464" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV464" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN464" s="3"/>
     </row>
-    <row r="465" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F465" s="26">
+        <v>55009</v>
+      </c>
+      <c r="G465" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H465" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I465" s="99">
+        <v>500</v>
+      </c>
+      <c r="J465" s="99">
+        <v>700</v>
+      </c>
+      <c r="K465" s="67" t="s">
+        <v>951</v>
+      </c>
+      <c r="L465" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O465" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P465" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q465" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R465" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S465" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T465" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U465" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP465" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ465" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR465" s="11">
+        <v>2951</v>
+      </c>
+      <c r="AS465" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT465" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU465" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV465" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP465" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ465" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR465" s="11">
+        <v>2951</v>
+      </c>
+      <c r="BS465" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT465" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU465" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV465" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN465" s="3"/>
     </row>
-    <row r="466" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F466" s="26">
+        <v>55010</v>
+      </c>
+      <c r="G466" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H466" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I466" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J466" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K466" s="67" t="s">
+        <v>991</v>
+      </c>
+      <c r="L466" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="O466" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P466" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q466" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R466" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S466" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T466" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U466" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP466" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ466" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR466" s="11">
+        <v>2946.1</v>
+      </c>
+      <c r="AS466" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT466" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU466" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV466" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP466" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ466" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR466" s="11">
+        <v>2945.9</v>
+      </c>
+      <c r="BS466" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT466" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU466" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV466" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN466" s="3"/>
     </row>
-    <row r="467" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F467" s="26">
+        <v>55011</v>
+      </c>
+      <c r="G467" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H467" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I467" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J467" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K467" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L467" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="O467" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P467" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q467" s="25">
+        <v>3060</v>
+      </c>
+      <c r="R467" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S467" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T467" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U467" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X467" s="145"/>
+      <c r="AP467" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ467" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR467" s="11">
+        <v>2946.1</v>
+      </c>
+      <c r="AS467" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT467" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU467" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV467" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="AY467" s="145"/>
+      <c r="BP467" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ467" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR467" s="11">
+        <v>2945.9</v>
+      </c>
+      <c r="BS467" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT467" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU467" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV467" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN467" s="3"/>
     </row>
-    <row r="468" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="8">
+        <v>43718</v>
+      </c>
+      <c r="D468" s="144"/>
+      <c r="E468" s="144"/>
+      <c r="F468" s="26">
+        <v>55012</v>
+      </c>
+      <c r="G468" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H468" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I468" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J468" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K468" s="145"/>
+      <c r="L468" s="145" t="s">
+        <v>981</v>
+      </c>
+      <c r="M468" s="145"/>
+      <c r="Q468" s="25">
+        <v>3060</v>
+      </c>
+      <c r="X468" s="145"/>
+      <c r="AU468" s="149"/>
+      <c r="AY468" s="145"/>
+      <c r="BX468" s="145"/>
+      <c r="BY468" s="145"/>
       <c r="CN468" s="3"/>
     </row>
-    <row r="469" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F469" s="26">
+        <v>55013</v>
+      </c>
+      <c r="G469" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H469" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I469" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J469" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K469" s="67" t="s">
+        <v>995</v>
+      </c>
+      <c r="L469" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="O469" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P469" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q469" s="102">
+        <v>3006</v>
+      </c>
+      <c r="R469" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S469" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T469" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U469" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X469" s="145"/>
+      <c r="AP469" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ469" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR469" s="11">
+        <v>2946.1</v>
+      </c>
+      <c r="AS469" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT469" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU469" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV469" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="AY469" s="145"/>
+      <c r="BP469" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ469" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR469" s="11">
+        <v>2945.9</v>
+      </c>
+      <c r="BS469" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT469" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU469" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV469" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN469" s="3"/>
     </row>
-    <row r="470" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F470" s="26">
+        <v>55014</v>
+      </c>
+      <c r="G470" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H470" s="100">
+        <v>700</v>
+      </c>
+      <c r="I470" s="100">
+        <v>700</v>
+      </c>
+      <c r="J470" s="99">
+        <v>1200</v>
+      </c>
+      <c r="K470" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="O470" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P470" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q470" s="102">
+        <v>3006</v>
+      </c>
+      <c r="R470" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S470" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T470" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U470" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X470" s="145"/>
+      <c r="AP470" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ470" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR470" s="11">
+        <v>2946.1</v>
+      </c>
+      <c r="AS470" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT470" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU470" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV470" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="AY470" s="145"/>
+      <c r="BP470" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ470" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR470" s="11">
+        <v>2945.9</v>
+      </c>
+      <c r="BS470" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT470" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU470" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV470" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN470" s="3"/>
     </row>
-    <row r="471" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F471" s="26">
+        <v>55015</v>
+      </c>
+      <c r="G471" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H471" s="99">
+        <v>700</v>
+      </c>
+      <c r="I471" s="99">
+        <v>700</v>
+      </c>
+      <c r="J471" s="99">
+        <v>1200</v>
+      </c>
+      <c r="K471" s="67" t="s">
+        <v>996</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="O471" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P471" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q471" s="102">
+        <v>3006</v>
+      </c>
+      <c r="R471" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S471" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T471" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U471" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X471" s="145"/>
+      <c r="AP471" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ471" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR471" s="149">
+        <v>3006</v>
+      </c>
+      <c r="AS471" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT471" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU471" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV471" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP471" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ471" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR471" s="149">
+        <v>3006</v>
+      </c>
+      <c r="BS471" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT471" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU471" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV471" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN471" s="3"/>
     </row>
-    <row r="472" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F472" s="26">
+        <v>55016</v>
+      </c>
+      <c r="G472" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H472" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I472" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J472" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K472" s="67" t="s">
+        <v>997</v>
+      </c>
+      <c r="L472" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O472" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P472" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q472" s="102">
+        <v>3006</v>
+      </c>
+      <c r="R472" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S472" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T472" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U472" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X472" s="145"/>
+      <c r="AP472" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ472" s="25">
+        <v>90</v>
+      </c>
+      <c r="AS472" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT472" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU472" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV472" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP472" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ472" s="25">
+        <v>180</v>
+      </c>
+      <c r="BS472" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT472" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU472" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV472" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN472" s="3"/>
     </row>
-    <row r="473" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F473" s="26">
+        <v>55017</v>
+      </c>
+      <c r="G473" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H473" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I473" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J473" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K473" s="145" t="s">
+        <v>997</v>
+      </c>
+      <c r="L473" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O473" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P473" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q473" s="102">
+        <v>3006</v>
+      </c>
+      <c r="R473" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S473" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T473" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U473" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X473" s="145"/>
+      <c r="AP473" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ473" s="25">
+        <v>90</v>
+      </c>
+      <c r="AS473" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT473" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU473" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV473" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP473" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ473" s="25">
+        <v>180</v>
+      </c>
+      <c r="BS473" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT473" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU473" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV473" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN473" s="3"/>
     </row>
-    <row r="474" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="8">
+        <v>43718</v>
+      </c>
+      <c r="F474" s="26">
+        <v>55018</v>
+      </c>
+      <c r="G474" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H474" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I474" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J474" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K474" s="145" t="s">
+        <v>997</v>
+      </c>
+      <c r="L474" s="145" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O474" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P474" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q474" s="102">
+        <v>3006</v>
+      </c>
+      <c r="R474" s="11">
+        <v>49.85</v>
+      </c>
+      <c r="S474" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T474" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U474" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X474" s="145"/>
+      <c r="AP474" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ474" s="25">
+        <v>90</v>
+      </c>
+      <c r="AS474" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT474" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU474" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV474" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP474" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ474" s="25">
+        <v>180</v>
+      </c>
+      <c r="BS474" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT474" s="11">
+        <v>56.39</v>
+      </c>
+      <c r="BU474" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV474" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN474" s="3"/>
     </row>
-    <row r="475" spans="92:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="CN475" s="3"/>
-    </row>
-    <row r="476" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:92" s="78" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="73"/>
+      <c r="B475" s="74"/>
+      <c r="C475" s="74"/>
+      <c r="D475" s="75"/>
+      <c r="E475" s="75"/>
+      <c r="F475" s="76"/>
+      <c r="G475" s="76"/>
+      <c r="H475" s="76"/>
+      <c r="I475" s="76"/>
+      <c r="J475" s="76"/>
+      <c r="K475" s="77"/>
+      <c r="L475" s="77"/>
+      <c r="M475" s="77"/>
+      <c r="O475" s="79"/>
+      <c r="P475" s="74"/>
+      <c r="Q475" s="74"/>
+      <c r="R475" s="80"/>
+      <c r="S475" s="80"/>
+      <c r="T475" s="80"/>
+      <c r="U475" s="80"/>
+      <c r="V475" s="80"/>
+      <c r="W475" s="80"/>
+      <c r="X475" s="77"/>
+      <c r="Y475" s="80"/>
+      <c r="Z475" s="80"/>
+      <c r="AA475" s="80"/>
+      <c r="AB475" s="80"/>
+      <c r="AC475" s="80"/>
+      <c r="AD475" s="80"/>
+      <c r="AE475" s="80"/>
+      <c r="AF475" s="80"/>
+      <c r="AG475" s="80"/>
+      <c r="AH475" s="80"/>
+      <c r="AI475" s="80"/>
+      <c r="AJ475" s="80"/>
+      <c r="AK475" s="80"/>
+      <c r="AL475" s="80"/>
+      <c r="AM475" s="80"/>
+      <c r="AN475" s="80"/>
+      <c r="AO475" s="80"/>
+      <c r="AP475" s="80"/>
+      <c r="AQ475" s="74"/>
+      <c r="AR475" s="80"/>
+      <c r="AS475" s="80"/>
+      <c r="AT475" s="80"/>
+      <c r="AU475" s="80"/>
+      <c r="AV475" s="80"/>
+      <c r="AW475" s="80"/>
+      <c r="AX475" s="80"/>
+      <c r="AY475" s="77"/>
+      <c r="AZ475" s="80"/>
+      <c r="BA475" s="80"/>
+      <c r="BB475" s="80"/>
+      <c r="BC475" s="80"/>
+      <c r="BD475" s="80"/>
+      <c r="BE475" s="80"/>
+      <c r="BF475" s="80"/>
+      <c r="BG475" s="80"/>
+      <c r="BH475" s="80"/>
+      <c r="BI475" s="80"/>
+      <c r="BJ475" s="80"/>
+      <c r="BK475" s="80"/>
+      <c r="BL475" s="80"/>
+      <c r="BM475" s="80"/>
+      <c r="BN475" s="80"/>
+      <c r="BO475" s="80"/>
+      <c r="BP475" s="80"/>
+      <c r="BQ475" s="74"/>
+      <c r="BR475" s="80"/>
+      <c r="BS475" s="80"/>
+      <c r="BT475" s="80"/>
+      <c r="BU475" s="80"/>
+      <c r="BV475" s="80"/>
+      <c r="BW475" s="80"/>
+      <c r="BX475" s="77"/>
+      <c r="BY475" s="77"/>
+    </row>
+    <row r="476" spans="1:92" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="8">
+        <v>43721</v>
+      </c>
+      <c r="L476" s="87" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M476" s="87" t="s">
+        <v>1002</v>
+      </c>
       <c r="CN476" s="3"/>
     </row>
-    <row r="477" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E477" s="19">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F477" s="26">
+        <v>55104</v>
+      </c>
+      <c r="G477" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H477" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I477" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J477" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K477" s="67" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L477" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M477" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="O477" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P477" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q477" s="25">
+        <v>3004.1</v>
+      </c>
+      <c r="R477" s="149">
+        <v>51.23</v>
+      </c>
+      <c r="S477" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T477" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U477" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X477" s="87" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AP477" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ477" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR477" s="11">
+        <v>3004</v>
+      </c>
+      <c r="AS477" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT477" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU477" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV477" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP477" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ477" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR477" s="11">
+        <v>3004</v>
+      </c>
+      <c r="BS477" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT477" s="11">
+        <v>56.42</v>
+      </c>
+      <c r="BU477" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV477" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN477" s="3"/>
     </row>
-    <row r="478" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F478" s="26">
+        <v>55105</v>
+      </c>
+      <c r="G478" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H478" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I478" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J478" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K478" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L478" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="O478" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P478" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q478" s="25">
+        <v>3004.1</v>
+      </c>
+      <c r="R478" s="149">
+        <v>51.23</v>
+      </c>
+      <c r="S478" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T478" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U478" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP478" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ478" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR478" s="11">
+        <v>3004</v>
+      </c>
+      <c r="AS478" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT478" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU478" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV478" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP478" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ478" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR478" s="11">
+        <v>3004</v>
+      </c>
+      <c r="BS478" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT478" s="11">
+        <v>56.42</v>
+      </c>
+      <c r="BU478" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV478" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN478" s="3"/>
     </row>
-    <row r="479" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F479" s="26">
+        <v>55106</v>
+      </c>
+      <c r="G479" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H479" s="26">
+        <v>0</v>
+      </c>
+      <c r="I479" s="26">
+        <v>0</v>
+      </c>
+      <c r="J479" s="26">
+        <v>0</v>
+      </c>
+      <c r="K479" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L479" s="145" t="s">
+        <v>533</v>
+      </c>
+      <c r="O479" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P479" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q479" s="25">
+        <v>3004.1</v>
+      </c>
+      <c r="R479" s="149">
+        <v>51.23</v>
+      </c>
+      <c r="S479" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T479" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U479" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP479" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ479" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR479" s="11">
+        <v>3004</v>
+      </c>
+      <c r="AS479" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT479" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU479" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV479" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP479" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ479" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR479" s="11">
+        <v>3004</v>
+      </c>
+      <c r="BS479" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT479" s="11">
+        <v>56.42</v>
+      </c>
+      <c r="BU479" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV479" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN479" s="3"/>
     </row>
-    <row r="480" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D480" s="152"/>
+      <c r="E480" s="152"/>
+      <c r="F480" s="26">
+        <v>55107</v>
+      </c>
+      <c r="K480" s="153"/>
+      <c r="L480" s="153"/>
+      <c r="M480" s="153"/>
+      <c r="R480" s="149"/>
+      <c r="X480" s="153"/>
+      <c r="AU480" s="149"/>
+      <c r="AY480" s="153"/>
+      <c r="BX480" s="153"/>
+      <c r="BY480" s="153"/>
       <c r="CN480" s="3"/>
     </row>
-    <row r="481" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F481" s="26">
+        <v>55108</v>
+      </c>
+      <c r="G481" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H481" s="100">
+        <v>500</v>
+      </c>
+      <c r="I481" s="99">
+        <v>500</v>
+      </c>
+      <c r="J481" s="99">
+        <v>500</v>
+      </c>
+      <c r="K481" s="67" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L481" s="145" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O481" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P481" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q481" s="25">
+        <v>3006</v>
+      </c>
+      <c r="R481" s="149">
+        <v>51.23</v>
+      </c>
+      <c r="S481" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T481" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U481" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X481" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AP481" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ481" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR481" s="11">
+        <v>3006</v>
+      </c>
+      <c r="AS481" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT481" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU481" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV481" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP481" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ481" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR481" s="11">
+        <v>3006</v>
+      </c>
+      <c r="BS481" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT481" s="11">
+        <v>56.42</v>
+      </c>
+      <c r="BU481" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV481" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN481" s="3"/>
     </row>
-    <row r="482" spans="92:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F482" s="26">
+        <v>55109</v>
+      </c>
+      <c r="G482" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H482" s="100">
+        <v>500</v>
+      </c>
+      <c r="I482" s="99">
+        <v>500</v>
+      </c>
+      <c r="J482" s="99">
+        <v>500</v>
+      </c>
+      <c r="K482" s="145" t="s">
+        <v>521</v>
+      </c>
+      <c r="L482" s="145" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M482" s="145" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O482" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P482" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q482" s="25">
+        <v>3006</v>
+      </c>
+      <c r="R482" s="149">
+        <v>51.23</v>
+      </c>
+      <c r="S482" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T482" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U482" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP482" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ482" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR482" s="11">
+        <v>3006</v>
+      </c>
+      <c r="AS482" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT482" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU482" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV482" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP482" s="11">
+        <v>56.05</v>
+      </c>
+      <c r="BQ482" s="25">
+        <v>180</v>
+      </c>
+      <c r="BR482" s="11">
+        <v>3006</v>
+      </c>
+      <c r="BS482" s="11">
+        <v>57.08</v>
+      </c>
+      <c r="BT482" s="11">
+        <v>56.42</v>
+      </c>
+      <c r="BU482" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV482" s="11">
+        <v>45.58</v>
+      </c>
       <c r="CN482" s="3"/>
     </row>
-    <row r="483" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F483" s="26">
+        <v>55110</v>
+      </c>
+      <c r="G483" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H483" s="100">
+        <v>500</v>
+      </c>
+      <c r="I483" s="99">
+        <v>500</v>
+      </c>
+      <c r="J483" s="99">
+        <v>500</v>
+      </c>
+      <c r="K483" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L483" s="145" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M483" s="145" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O483" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P483" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q483" s="25">
+        <v>3006</v>
+      </c>
+      <c r="R483" s="149">
+        <v>51.23</v>
+      </c>
+      <c r="S483" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T483" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U483" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="X483" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AP483" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ483" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR483" s="11">
+        <v>3006</v>
+      </c>
+      <c r="AS483" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT483" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU483" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV483" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP483" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="BQ483" s="25">
+        <v>90</v>
+      </c>
+      <c r="BR483" s="11">
+        <v>3006</v>
+      </c>
+      <c r="BS483" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="BT483" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="BU483" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="BV483" s="11">
+        <v>47.8</v>
+      </c>
       <c r="CN483" s="3"/>
     </row>
-    <row r="484" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:92" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F484" s="26">
+        <v>55111</v>
+      </c>
+      <c r="H484" s="100">
+        <v>500</v>
+      </c>
+      <c r="I484" s="99">
+        <v>500</v>
+      </c>
+      <c r="J484" s="99">
+        <v>500</v>
+      </c>
+      <c r="K484" s="145" t="s">
+        <v>521</v>
+      </c>
+      <c r="L484" s="145" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M484" s="150" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O484" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P484" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q484" s="25">
+        <v>3006</v>
+      </c>
+      <c r="R484" s="149">
+        <v>51.23</v>
+      </c>
+      <c r="S484" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T484" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U484" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP484" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ484" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR484" s="11">
+        <v>3006</v>
+      </c>
+      <c r="AS484" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT484" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU484" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV484" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP484" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="BQ484" s="25">
+        <v>90</v>
+      </c>
+      <c r="BR484" s="11">
+        <v>3006</v>
+      </c>
+      <c r="BS484" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="BT484" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="BU484" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="BV484" s="11">
+        <v>47.8</v>
+      </c>
       <c r="CN484" s="3"/>
     </row>
-    <row r="485" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F485" s="26">
+        <v>55112</v>
+      </c>
+      <c r="H485" s="100">
+        <v>500</v>
+      </c>
+      <c r="I485" s="99">
+        <v>500</v>
+      </c>
+      <c r="J485" s="99">
+        <v>500</v>
+      </c>
+      <c r="K485" s="145" t="s">
+        <v>521</v>
+      </c>
+      <c r="L485" s="145" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M485" s="151" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O485" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P485" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q485" s="25">
+        <v>3006</v>
+      </c>
+      <c r="R485" s="149">
+        <v>51.23</v>
+      </c>
+      <c r="S485" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T485" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U485" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP485" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ485" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR485" s="11">
+        <v>3006</v>
+      </c>
+      <c r="AS485" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT485" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU485" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV485" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP485" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="BQ485" s="25">
+        <v>90</v>
+      </c>
+      <c r="BR485" s="11">
+        <v>3006</v>
+      </c>
+      <c r="BS485" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="BT485" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="BU485" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="BV485" s="11">
+        <v>47.8</v>
+      </c>
       <c r="CN485" s="3"/>
     </row>
-    <row r="486" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F486" s="26">
+        <v>55113</v>
+      </c>
+      <c r="H486" s="100">
+        <v>500</v>
+      </c>
+      <c r="I486" s="99">
+        <v>500</v>
+      </c>
+      <c r="J486" s="99">
+        <v>500</v>
+      </c>
+      <c r="K486" s="145" t="s">
+        <v>521</v>
+      </c>
+      <c r="L486" s="145" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M486" s="151" t="s">
+        <v>1017</v>
+      </c>
+      <c r="O486" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P486" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q486" s="25">
+        <v>3006</v>
+      </c>
+      <c r="R486" s="149">
+        <v>51.23</v>
+      </c>
+      <c r="S486" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T486" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U486" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP486" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ486" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR486" s="11">
+        <v>3006</v>
+      </c>
+      <c r="AS486" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT486" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU486" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV486" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP486" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="BQ486" s="25">
+        <v>90</v>
+      </c>
+      <c r="BR486" s="11">
+        <v>3006</v>
+      </c>
+      <c r="BS486" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="BT486" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="BU486" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="BV486" s="11">
+        <v>47.8</v>
+      </c>
       <c r="CN486" s="3"/>
     </row>
-    <row r="487" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F487" s="26">
+        <v>55114</v>
+      </c>
+      <c r="H487" s="100">
+        <v>500</v>
+      </c>
+      <c r="I487" s="99">
+        <v>500</v>
+      </c>
+      <c r="J487" s="99">
+        <v>500</v>
+      </c>
+      <c r="K487" s="145" t="s">
+        <v>521</v>
+      </c>
+      <c r="L487" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M487" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O487" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P487" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q487" s="25">
+        <v>3006</v>
+      </c>
+      <c r="R487" s="149">
+        <v>51.23</v>
+      </c>
+      <c r="S487" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T487" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U487" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP487" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ487" s="25">
+        <v>90</v>
+      </c>
+      <c r="AR487" s="11">
+        <v>3006</v>
+      </c>
+      <c r="AS487" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT487" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU487" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV487" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP487" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="BQ487" s="25">
+        <v>90</v>
+      </c>
+      <c r="BR487" s="11">
+        <v>3006</v>
+      </c>
+      <c r="BS487" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="BT487" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="BU487" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="BV487" s="11">
+        <v>47.8</v>
+      </c>
       <c r="CN487" s="3"/>
     </row>
-    <row r="488" spans="92:92" x14ac:dyDescent="0.3">
-      <c r="CN488" s="3"/>
-    </row>
-    <row r="489" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:92" s="78" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="73"/>
+      <c r="B488" s="74"/>
+      <c r="C488" s="74"/>
+      <c r="D488" s="75"/>
+      <c r="E488" s="75"/>
+      <c r="F488" s="76"/>
+      <c r="G488" s="76"/>
+      <c r="H488" s="76"/>
+      <c r="I488" s="76"/>
+      <c r="J488" s="76"/>
+      <c r="K488" s="77"/>
+      <c r="L488" s="77"/>
+      <c r="M488" s="77"/>
+      <c r="O488" s="79"/>
+      <c r="P488" s="74"/>
+      <c r="Q488" s="74"/>
+      <c r="R488" s="80"/>
+      <c r="S488" s="80"/>
+      <c r="T488" s="80"/>
+      <c r="U488" s="80"/>
+      <c r="V488" s="80"/>
+      <c r="W488" s="80"/>
+      <c r="X488" s="77"/>
+      <c r="Y488" s="80"/>
+      <c r="Z488" s="80"/>
+      <c r="AA488" s="80"/>
+      <c r="AB488" s="80"/>
+      <c r="AC488" s="80"/>
+      <c r="AD488" s="80"/>
+      <c r="AE488" s="80"/>
+      <c r="AF488" s="80"/>
+      <c r="AG488" s="80"/>
+      <c r="AH488" s="80"/>
+      <c r="AI488" s="80"/>
+      <c r="AJ488" s="80"/>
+      <c r="AK488" s="80"/>
+      <c r="AL488" s="80"/>
+      <c r="AM488" s="80"/>
+      <c r="AN488" s="80"/>
+      <c r="AO488" s="80"/>
+      <c r="AP488" s="80"/>
+      <c r="AQ488" s="74"/>
+      <c r="AR488" s="80"/>
+      <c r="AS488" s="80"/>
+      <c r="AT488" s="80"/>
+      <c r="AU488" s="80"/>
+      <c r="AV488" s="80"/>
+      <c r="AW488" s="80"/>
+      <c r="AX488" s="80"/>
+      <c r="AY488" s="77"/>
+      <c r="AZ488" s="80"/>
+      <c r="BA488" s="80"/>
+      <c r="BB488" s="80"/>
+      <c r="BC488" s="80"/>
+      <c r="BD488" s="80"/>
+      <c r="BE488" s="80"/>
+      <c r="BF488" s="80"/>
+      <c r="BG488" s="80"/>
+      <c r="BH488" s="80"/>
+      <c r="BI488" s="80"/>
+      <c r="BJ488" s="80"/>
+      <c r="BK488" s="80"/>
+      <c r="BL488" s="80"/>
+      <c r="BM488" s="80"/>
+      <c r="BN488" s="80"/>
+      <c r="BO488" s="80"/>
+      <c r="BP488" s="80"/>
+      <c r="BQ488" s="74"/>
+      <c r="BR488" s="80"/>
+      <c r="BS488" s="80"/>
+      <c r="BT488" s="80"/>
+      <c r="BU488" s="80"/>
+      <c r="BV488" s="80"/>
+      <c r="BW488" s="80"/>
+      <c r="BX488" s="77"/>
+      <c r="BY488" s="77"/>
+    </row>
+    <row r="489" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M489" s="1" t="s">
+        <v>1023</v>
+      </c>
       <c r="CN489" s="3"/>
     </row>
-    <row r="490" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="CN490" s="3"/>
     </row>
-    <row r="491" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="CN491" s="3"/>
     </row>
-    <row r="492" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="CN492" s="3"/>
     </row>
-    <row r="493" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:92" x14ac:dyDescent="0.3">
       <c r="CN493" s="3"/>
     </row>
-    <row r="494" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:92" x14ac:dyDescent="0.3">
       <c r="CN494" s="3"/>
     </row>
-    <row r="495" spans="92:92" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:92" x14ac:dyDescent="0.3">
       <c r="CN495" s="3"/>
+    </row>
+    <row r="496" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CN496" s="3"/>
+    </row>
+    <row r="497" spans="92:92" x14ac:dyDescent="0.3">
+      <c r="CN497" s="3"/>
+    </row>
+    <row r="498" spans="92:92" x14ac:dyDescent="0.3">
+      <c r="CN498" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:CN33"/>
@@ -48213,7 +51145,7 @@
       <c r="G18" s="84"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="82"/>
@@ -48222,7 +51154,7 @@
       <c r="G19" s="84"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="82"/>

--- a/WEST_C4_ICRH_Logbook.xlsx
+++ b/WEST_C4_ICRH_Logbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="14805" windowHeight="6615" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="14808" windowHeight="6612" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5625" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5703" uniqueCount="1159">
   <si>
     <t>Direction de la Recherche Fondamentale
 Institut de Recherche sur la Fusion par confinement Magnétique
@@ -3720,6 +3720,117 @@
       </rPr>
       <t xml:space="preserve"> Cu increase -&gt; loss LH --&gt; disruption</t>
     </r>
+  </si>
+  <si>
+    <t>creneaux séparés IC et LH pour caractériser les sources d'impuretés</t>
+  </si>
+  <si>
+    <t>110
+(+1m+50cm)</t>
+  </si>
+  <si>
+    <t>Q2 et Q1 OK. Q1 125°. Bout de flux, pas Q4 ni de LH (pas d'autorisation)</t>
+  </si>
+  <si>
+    <t>Correction de phase Q1 55 --&gt; 110°. On avance les créneaux de puissance dans le temps (2.5s)</t>
+  </si>
+  <si>
+    <t>le controleur de Q2 fonctionne à nouveau ! On règle Q1C1. A nouveau un problème de tension V3 qui disparait sur Q1 pendant 50 ms, après au saut de phase? (vu à l'aqui rapide)</t>
+  </si>
+  <si>
+    <t>90
+(+1m+50cm)</t>
+  </si>
+  <si>
+    <t>on modifie les capas de Q1 et Q4. On rajoute le fond de LH. On modifie la phase de Q1</t>
+  </si>
+  <si>
+    <t>Phase Q1 286° !??</t>
+  </si>
+  <si>
+    <t>reprise du 55202 avec les trois antennes ensemble.</t>
+  </si>
+  <si>
+    <t>Q1 phase 260° !  Q4 démarre plus tard à cause du défaut vide. Petite montée de Rc à cause LH sauf sur Q4</t>
+  </si>
+  <si>
+    <t>repeat sans le chapeau LH</t>
+  </si>
+  <si>
+    <t>70
+(+1m+50cm)</t>
+  </si>
+  <si>
+    <t>Nice ! Q1 :130°</t>
+  </si>
+  <si>
+    <t>All antennes ensemble sur background LH, on éteind les antennes progressivement (Q2, Q1, Q4)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Q2 OK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mais disrupte pendant LH</t>
+    </r>
+  </si>
+  <si>
+    <t>augmente le N2 au départ</t>
+  </si>
+  <si>
+    <t>OK, mais elles limitent toutes sur le Rc trop bas &lt; 1 Ohm. Q1 150° puis 250°… Crash MHD</t>
+  </si>
+  <si>
+    <t>idem, crash MHD</t>
+  </si>
+  <si>
+    <t>cght prg : scan de phase Q4</t>
+  </si>
+  <si>
+    <t>sans N2</t>
+  </si>
+  <si>
+    <t>pire encore. Q1 change de phase</t>
+  </si>
+  <si>
+    <t>scan phase Q2</t>
+  </si>
+  <si>
+    <t>OK. Limite à la fin. Pas effet sur Prad</t>
+  </si>
+  <si>
+    <t>Prad augmente quand la phase tend vers 0. Densité pas constante</t>
+  </si>
+  <si>
+    <t>repeat avec densité + constante</t>
+  </si>
+  <si>
+    <t>DVIS1 HS</t>
+  </si>
+  <si>
+    <t>phase complètement incontrollée</t>
+  </si>
+  <si>
+    <t>cght prg : USN et max puissance ICRH</t>
+  </si>
+  <si>
+    <t>up to 4 MW then plasma collapse. Too fast ??</t>
+  </si>
+  <si>
+    <t>slower power rampup</t>
+  </si>
+  <si>
+    <t>early disuption</t>
+  </si>
+  <si>
+    <t>REMETTRE LES TENSION MAX à 28 kV ???</t>
   </si>
 </sst>
 </file>
@@ -4730,106 +4841,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4841,46 +4886,7 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4899,6 +4905,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4925,31 +4937,130 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4972,7 +5083,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5098,11 +5209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104017280"/>
-        <c:axId val="104039552"/>
+        <c:axId val="165690752"/>
+        <c:axId val="165717120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104017280"/>
+        <c:axId val="165690752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5112,12 +5223,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104039552"/>
+        <c:crossAx val="165717120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104039552"/>
+        <c:axId val="165717120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5128,7 +5239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104017280"/>
+        <c:crossAx val="165690752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5628,21 +5739,21 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="61.42578125" customWidth="1"/>
-    <col min="15" max="15" width="62.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="14" max="14" width="61.44140625" customWidth="1"/>
+    <col min="15" max="15" width="62.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="116.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="116.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="158"/>
       <c r="B1" s="159"/>
       <c r="C1" s="160"/>
@@ -5663,34 +5774,34 @@
       <c r="N1" s="165"/>
       <c r="O1" s="166"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="112" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>563</v>
       </c>
       <c r="F5" s="110">
         <f>COUNTIF('Pulse list'!G:G,"Y")+COUNTIF('Pulse list'!G:G,"N")</f>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>564</v>
       </c>
       <c r="F6">
         <f>COUNTIF('Pulse list'!G:G, "Y")</f>
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="H6" t="s">
         <v>565</v>
       </c>
       <c r="I6" s="111">
         <f>F6/F5*100</f>
-        <v>64.887640449438194</v>
+        <v>65.86021505376344</v>
       </c>
     </row>
   </sheetData>
@@ -5712,470 +5823,470 @@
   </sheetPr>
   <dimension ref="A1:CO573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="G525" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="G507" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="F392" sqref="F392"/>
-      <selection pane="bottomRight" activeCell="K533" sqref="K533"/>
+      <selection pane="bottomRight" activeCell="A508" sqref="A508"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="8" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="11.88671875" style="25" customWidth="1"/>
     <col min="4" max="4" width="19" style="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="19"/>
-    <col min="6" max="10" width="11.5703125" style="26"/>
-    <col min="11" max="11" width="48.42578125" style="67" customWidth="1"/>
-    <col min="12" max="12" width="68.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="53.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="37" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="12.85546875" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="11.5703125" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="23" width="11.5703125" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="46.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="40" width="11.5703125" style="11" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="41" max="41" width="7.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="11.5703125" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="43" max="43" width="11.5703125" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="50" width="11.5703125" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="55.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="66" width="11.5703125" style="11" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="67" max="67" width="6.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="11.5703125" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="11.5703125" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="75" width="11.5703125" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="11.28515625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="77" max="77" width="59.85546875" style="72" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="91" width="11.5703125" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="92" max="92" width="11.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="11.5703125" style="7"/>
-    <col min="94" max="16384" width="11.5703125" style="3"/>
+    <col min="5" max="5" width="11.5546875" style="19"/>
+    <col min="6" max="10" width="11.5546875" style="26"/>
+    <col min="11" max="11" width="48.44140625" style="67" customWidth="1"/>
+    <col min="12" max="12" width="68.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="53.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="37" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="12.88671875" style="25" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="11.5546875" style="25" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="23" width="11.5546875" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="46.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="40" width="11.5546875" style="11" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="41" max="41" width="7.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.5546875" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="43" width="11.5546875" style="25" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="50" width="11.5546875" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="55.88671875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="66" width="11.5546875" style="11" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="67" max="67" width="6.88671875" style="18" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="11.5546875" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="11.5546875" style="25" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="75" width="11.5546875" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="11.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="77" max="77" width="59.88671875" style="72" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="91" width="11.5546875" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="92" max="92" width="11.88671875" style="7" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="11.5546875" style="7"/>
+    <col min="94" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
       <c r="K1" s="72"/>
       <c r="L1" s="72"/>
       <c r="M1" s="72"/>
-      <c r="N1" s="185" t="s">
+      <c r="N1" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="218" t="s">
+      <c r="O1" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="218"/>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="218"/>
-      <c r="AB1" s="218"/>
-      <c r="AC1" s="218"/>
-      <c r="AD1" s="218"/>
-      <c r="AE1" s="218"/>
-      <c r="AF1" s="218"/>
-      <c r="AG1" s="218"/>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="218"/>
-      <c r="AJ1" s="218"/>
-      <c r="AK1" s="218"/>
-      <c r="AL1" s="218"/>
-      <c r="AM1" s="218"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="183"/>
+      <c r="AD1" s="183"/>
+      <c r="AE1" s="183"/>
+      <c r="AF1" s="183"/>
+      <c r="AG1" s="183"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="183"/>
+      <c r="AJ1" s="183"/>
+      <c r="AK1" s="183"/>
+      <c r="AL1" s="183"/>
+      <c r="AM1" s="183"/>
       <c r="AN1" s="12"/>
-      <c r="AO1" s="229" t="s">
+      <c r="AO1" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="192" t="s">
+      <c r="AP1" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="AQ1" s="192"/>
-      <c r="AR1" s="192"/>
-      <c r="AS1" s="192"/>
-      <c r="AT1" s="192"/>
-      <c r="AU1" s="192"/>
-      <c r="AV1" s="192"/>
-      <c r="AW1" s="192"/>
-      <c r="AX1" s="192"/>
-      <c r="AY1" s="192"/>
-      <c r="AZ1" s="192"/>
-      <c r="BA1" s="192"/>
-      <c r="BB1" s="192"/>
-      <c r="BC1" s="192"/>
-      <c r="BD1" s="192"/>
-      <c r="BE1" s="192"/>
-      <c r="BF1" s="192"/>
-      <c r="BG1" s="192"/>
-      <c r="BH1" s="192"/>
-      <c r="BI1" s="192"/>
-      <c r="BJ1" s="192"/>
-      <c r="BK1" s="192"/>
-      <c r="BL1" s="192"/>
-      <c r="BM1" s="192"/>
-      <c r="BN1" s="192"/>
-      <c r="BO1" s="229" t="s">
+      <c r="AQ1" s="219"/>
+      <c r="AR1" s="219"/>
+      <c r="AS1" s="219"/>
+      <c r="AT1" s="219"/>
+      <c r="AU1" s="219"/>
+      <c r="AV1" s="219"/>
+      <c r="AW1" s="219"/>
+      <c r="AX1" s="219"/>
+      <c r="AY1" s="219"/>
+      <c r="AZ1" s="219"/>
+      <c r="BA1" s="219"/>
+      <c r="BB1" s="219"/>
+      <c r="BC1" s="219"/>
+      <c r="BD1" s="219"/>
+      <c r="BE1" s="219"/>
+      <c r="BF1" s="219"/>
+      <c r="BG1" s="219"/>
+      <c r="BH1" s="219"/>
+      <c r="BI1" s="219"/>
+      <c r="BJ1" s="219"/>
+      <c r="BK1" s="219"/>
+      <c r="BL1" s="219"/>
+      <c r="BM1" s="219"/>
+      <c r="BN1" s="219"/>
+      <c r="BO1" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="BP1" s="219" t="s">
+      <c r="BP1" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="BQ1" s="219"/>
-      <c r="BR1" s="219"/>
-      <c r="BS1" s="219"/>
-      <c r="BT1" s="219"/>
-      <c r="BU1" s="219"/>
-      <c r="BV1" s="219"/>
-      <c r="BW1" s="219"/>
-      <c r="BX1" s="219"/>
-      <c r="BY1" s="219"/>
-      <c r="BZ1" s="219"/>
-      <c r="CA1" s="219"/>
-      <c r="CB1" s="219"/>
-      <c r="CC1" s="219"/>
-      <c r="CD1" s="219"/>
-      <c r="CE1" s="219"/>
-      <c r="CF1" s="219"/>
-      <c r="CG1" s="219"/>
-      <c r="CH1" s="219"/>
-      <c r="CI1" s="219"/>
-      <c r="CJ1" s="219"/>
-      <c r="CK1" s="219"/>
-      <c r="CL1" s="219"/>
-      <c r="CM1" s="219"/>
-      <c r="CN1" s="219"/>
-    </row>
-    <row r="2" spans="1:93" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BQ1" s="184"/>
+      <c r="BR1" s="184"/>
+      <c r="BS1" s="184"/>
+      <c r="BT1" s="184"/>
+      <c r="BU1" s="184"/>
+      <c r="BV1" s="184"/>
+      <c r="BW1" s="184"/>
+      <c r="BX1" s="184"/>
+      <c r="BY1" s="184"/>
+      <c r="BZ1" s="184"/>
+      <c r="CA1" s="184"/>
+      <c r="CB1" s="184"/>
+      <c r="CC1" s="184"/>
+      <c r="CD1" s="184"/>
+      <c r="CE1" s="184"/>
+      <c r="CF1" s="184"/>
+      <c r="CG1" s="184"/>
+      <c r="CH1" s="184"/>
+      <c r="CI1" s="184"/>
+      <c r="CJ1" s="184"/>
+      <c r="CK1" s="184"/>
+      <c r="CL1" s="184"/>
+      <c r="CM1" s="184"/>
+      <c r="CN1" s="184"/>
+    </row>
+    <row r="2" spans="1:93" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
       <c r="K2" s="72"/>
       <c r="L2" s="72"/>
       <c r="M2" s="72"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="230" t="s">
+      <c r="N2" s="232"/>
+      <c r="O2" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="231" t="s">
+      <c r="P2" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="231" t="s">
+      <c r="Q2" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="220" t="s">
+      <c r="R2" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="179" t="s">
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="199" t="s">
         <v>375</v>
       </c>
-      <c r="W2" s="179" t="s">
+      <c r="W2" s="199" t="s">
         <v>376</v>
       </c>
-      <c r="X2" s="207" t="s">
+      <c r="X2" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="210" t="s">
+      <c r="Y2" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="222" t="s">
+      <c r="Z2" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="220"/>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="220"/>
-      <c r="AJ2" s="220"/>
-      <c r="AK2" s="220"/>
-      <c r="AL2" s="220"/>
-      <c r="AM2" s="221"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="185"/>
+      <c r="AJ2" s="185"/>
+      <c r="AK2" s="185"/>
+      <c r="AL2" s="185"/>
+      <c r="AM2" s="186"/>
       <c r="AN2" s="12"/>
-      <c r="AO2" s="229"/>
-      <c r="AP2" s="199" t="s">
+      <c r="AO2" s="196"/>
+      <c r="AP2" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="AQ2" s="200" t="s">
+      <c r="AQ2" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="AR2" s="199" t="s">
+      <c r="AR2" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="193" t="s">
+      <c r="AS2" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="193"/>
-      <c r="AU2" s="193"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="201" t="s">
+      <c r="AT2" s="189"/>
+      <c r="AU2" s="189"/>
+      <c r="AV2" s="190"/>
+      <c r="AW2" s="179" t="s">
         <v>375</v>
       </c>
-      <c r="AX2" s="201" t="s">
+      <c r="AX2" s="179" t="s">
         <v>376</v>
       </c>
-      <c r="AY2" s="213" t="s">
+      <c r="AY2" s="210" t="s">
         <v>66</v>
       </c>
-      <c r="AZ2" s="201" t="s">
+      <c r="AZ2" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="BA2" s="223" t="s">
+      <c r="BA2" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" s="193"/>
-      <c r="BC2" s="193"/>
-      <c r="BD2" s="193"/>
-      <c r="BE2" s="193"/>
-      <c r="BF2" s="193"/>
-      <c r="BG2" s="193"/>
-      <c r="BH2" s="193"/>
-      <c r="BI2" s="193"/>
-      <c r="BJ2" s="193"/>
-      <c r="BK2" s="193"/>
-      <c r="BL2" s="193"/>
-      <c r="BM2" s="193"/>
-      <c r="BN2" s="194"/>
-      <c r="BO2" s="229"/>
-      <c r="BP2" s="216" t="s">
+      <c r="BB2" s="189"/>
+      <c r="BC2" s="189"/>
+      <c r="BD2" s="189"/>
+      <c r="BE2" s="189"/>
+      <c r="BF2" s="189"/>
+      <c r="BG2" s="189"/>
+      <c r="BH2" s="189"/>
+      <c r="BI2" s="189"/>
+      <c r="BJ2" s="189"/>
+      <c r="BK2" s="189"/>
+      <c r="BL2" s="189"/>
+      <c r="BM2" s="189"/>
+      <c r="BN2" s="190"/>
+      <c r="BO2" s="196"/>
+      <c r="BP2" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="BQ2" s="217" t="s">
+      <c r="BQ2" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" s="217" t="s">
+      <c r="BR2" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="BS2" s="224" t="s">
+      <c r="BS2" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="BT2" s="224"/>
-      <c r="BU2" s="224"/>
-      <c r="BV2" s="225"/>
-      <c r="BW2" s="233" t="s">
+      <c r="BT2" s="191"/>
+      <c r="BU2" s="191"/>
+      <c r="BV2" s="192"/>
+      <c r="BW2" s="168" t="s">
         <v>375</v>
       </c>
-      <c r="BX2" s="233" t="s">
+      <c r="BX2" s="168" t="s">
         <v>376</v>
       </c>
-      <c r="BY2" s="233" t="s">
+      <c r="BY2" s="168" t="s">
         <v>466</v>
       </c>
-      <c r="BZ2" s="236" t="s">
+      <c r="BZ2" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="CA2" s="226" t="s">
+      <c r="CA2" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="CB2" s="227"/>
-      <c r="CC2" s="227"/>
-      <c r="CD2" s="227"/>
-      <c r="CE2" s="227"/>
-      <c r="CF2" s="227"/>
-      <c r="CG2" s="227"/>
-      <c r="CH2" s="227"/>
-      <c r="CI2" s="227"/>
-      <c r="CJ2" s="227"/>
-      <c r="CK2" s="227"/>
-      <c r="CL2" s="227"/>
-      <c r="CM2" s="227"/>
-      <c r="CN2" s="228"/>
-    </row>
-    <row r="3" spans="1:93" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="188" t="s">
+      <c r="CB2" s="194"/>
+      <c r="CC2" s="194"/>
+      <c r="CD2" s="194"/>
+      <c r="CE2" s="194"/>
+      <c r="CF2" s="194"/>
+      <c r="CG2" s="194"/>
+      <c r="CH2" s="194"/>
+      <c r="CI2" s="194"/>
+      <c r="CJ2" s="194"/>
+      <c r="CK2" s="194"/>
+      <c r="CL2" s="194"/>
+      <c r="CM2" s="194"/>
+      <c r="CN2" s="195"/>
+    </row>
+    <row r="3" spans="1:93" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="217" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="182" t="s">
+      <c r="E3" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="186" t="s">
+      <c r="F3" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="174" t="s">
+      <c r="G3" s="227" t="s">
         <v>560</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="227" t="s">
         <v>407</v>
       </c>
-      <c r="J3" s="174" t="s">
+      <c r="J3" s="227" t="s">
         <v>408</v>
       </c>
-      <c r="K3" s="176" t="s">
+      <c r="K3" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="176" t="s">
+      <c r="L3" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="176" t="s">
+      <c r="M3" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="185"/>
-      <c r="O3" s="230"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="231"/>
-      <c r="R3" s="205" t="s">
+      <c r="N3" s="232"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="184" t="s">
+      <c r="S3" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="184" t="s">
+      <c r="T3" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="184" t="s">
+      <c r="U3" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="208"/>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="178" t="s">
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="178"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="178" t="s">
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="178"/>
-      <c r="AJ3" s="178"/>
-      <c r="AK3" s="178"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="178"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
       <c r="AN3" s="13"/>
-      <c r="AO3" s="229"/>
-      <c r="AP3" s="199"/>
-      <c r="AQ3" s="200"/>
-      <c r="AR3" s="199"/>
-      <c r="AS3" s="195" t="s">
+      <c r="AO3" s="196"/>
+      <c r="AP3" s="222"/>
+      <c r="AQ3" s="223"/>
+      <c r="AR3" s="222"/>
+      <c r="AS3" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="AT3" s="197" t="s">
+      <c r="AT3" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="AU3" s="197" t="s">
+      <c r="AU3" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="AV3" s="197" t="s">
+      <c r="AV3" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="AW3" s="202"/>
-      <c r="AX3" s="202"/>
-      <c r="AY3" s="214"/>
-      <c r="AZ3" s="202"/>
-      <c r="BA3" s="204" t="s">
+      <c r="AW3" s="180"/>
+      <c r="AX3" s="180"/>
+      <c r="AY3" s="211"/>
+      <c r="AZ3" s="180"/>
+      <c r="BA3" s="224" t="s">
         <v>16</v>
       </c>
-      <c r="BB3" s="204"/>
-      <c r="BC3" s="204"/>
-      <c r="BD3" s="204"/>
-      <c r="BE3" s="204"/>
-      <c r="BF3" s="204"/>
-      <c r="BG3" s="204"/>
-      <c r="BH3" s="204" t="s">
+      <c r="BB3" s="224"/>
+      <c r="BC3" s="224"/>
+      <c r="BD3" s="224"/>
+      <c r="BE3" s="224"/>
+      <c r="BF3" s="224"/>
+      <c r="BG3" s="224"/>
+      <c r="BH3" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="BI3" s="204"/>
-      <c r="BJ3" s="204"/>
-      <c r="BK3" s="204"/>
-      <c r="BL3" s="204"/>
-      <c r="BM3" s="204"/>
-      <c r="BN3" s="204"/>
-      <c r="BO3" s="229"/>
-      <c r="BP3" s="216"/>
-      <c r="BQ3" s="217"/>
-      <c r="BR3" s="217"/>
-      <c r="BS3" s="239" t="s">
+      <c r="BI3" s="224"/>
+      <c r="BJ3" s="224"/>
+      <c r="BK3" s="224"/>
+      <c r="BL3" s="224"/>
+      <c r="BM3" s="224"/>
+      <c r="BN3" s="224"/>
+      <c r="BO3" s="196"/>
+      <c r="BP3" s="182"/>
+      <c r="BQ3" s="171"/>
+      <c r="BR3" s="171"/>
+      <c r="BS3" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="BT3" s="168" t="s">
+      <c r="BT3" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="BU3" s="168" t="s">
+      <c r="BU3" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="BV3" s="168" t="s">
+      <c r="BV3" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="BW3" s="234"/>
-      <c r="BX3" s="234"/>
-      <c r="BY3" s="234"/>
-      <c r="BZ3" s="237"/>
-      <c r="CA3" s="232" t="s">
+      <c r="BW3" s="169"/>
+      <c r="BX3" s="169"/>
+      <c r="BY3" s="169"/>
+      <c r="BZ3" s="173"/>
+      <c r="CA3" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="CB3" s="232"/>
-      <c r="CC3" s="232"/>
-      <c r="CD3" s="232"/>
-      <c r="CE3" s="232"/>
-      <c r="CF3" s="232"/>
-      <c r="CG3" s="232"/>
-      <c r="CH3" s="232" t="s">
+      <c r="CB3" s="167"/>
+      <c r="CC3" s="167"/>
+      <c r="CD3" s="167"/>
+      <c r="CE3" s="167"/>
+      <c r="CF3" s="167"/>
+      <c r="CG3" s="167"/>
+      <c r="CH3" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="CI3" s="232"/>
-      <c r="CJ3" s="232"/>
-      <c r="CK3" s="232"/>
-      <c r="CL3" s="232"/>
-      <c r="CM3" s="232"/>
-      <c r="CN3" s="232"/>
+      <c r="CI3" s="167"/>
+      <c r="CJ3" s="167"/>
+      <c r="CK3" s="167"/>
+      <c r="CL3" s="167"/>
+      <c r="CM3" s="167"/>
+      <c r="CN3" s="167"/>
       <c r="CO3" s="7"/>
     </row>
-    <row r="4" spans="1:93" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
-      <c r="B4" s="191"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="230"/>
-      <c r="P4" s="231"/>
-      <c r="Q4" s="231"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="181"/>
-      <c r="U4" s="181"/>
-      <c r="V4" s="181"/>
-      <c r="W4" s="181"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="212"/>
+    <row r="4" spans="1:93" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="214"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="230"/>
+      <c r="L4" s="230"/>
+      <c r="M4" s="230"/>
+      <c r="N4" s="232"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="201"/>
+      <c r="T4" s="201"/>
+      <c r="U4" s="201"/>
+      <c r="V4" s="201"/>
+      <c r="W4" s="201"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="207"/>
       <c r="Z4" s="69" t="s">
         <v>9</v>
       </c>
@@ -6219,18 +6330,18 @@
         <v>15</v>
       </c>
       <c r="AN4" s="13"/>
-      <c r="AO4" s="229"/>
-      <c r="AP4" s="199"/>
-      <c r="AQ4" s="200"/>
-      <c r="AR4" s="199"/>
-      <c r="AS4" s="196"/>
-      <c r="AT4" s="198"/>
-      <c r="AU4" s="198"/>
-      <c r="AV4" s="198"/>
-      <c r="AW4" s="203"/>
-      <c r="AX4" s="203"/>
-      <c r="AY4" s="215"/>
-      <c r="AZ4" s="203"/>
+      <c r="AO4" s="196"/>
+      <c r="AP4" s="222"/>
+      <c r="AQ4" s="223"/>
+      <c r="AR4" s="222"/>
+      <c r="AS4" s="221"/>
+      <c r="AT4" s="209"/>
+      <c r="AU4" s="209"/>
+      <c r="AV4" s="209"/>
+      <c r="AW4" s="181"/>
+      <c r="AX4" s="181"/>
+      <c r="AY4" s="212"/>
+      <c r="AZ4" s="181"/>
       <c r="BA4" s="68" t="s">
         <v>9</v>
       </c>
@@ -6273,18 +6384,18 @@
       <c r="BN4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="BO4" s="229"/>
-      <c r="BP4" s="216"/>
-      <c r="BQ4" s="217"/>
-      <c r="BR4" s="217"/>
-      <c r="BS4" s="240"/>
-      <c r="BT4" s="169"/>
-      <c r="BU4" s="169"/>
-      <c r="BV4" s="169"/>
-      <c r="BW4" s="235"/>
-      <c r="BX4" s="235"/>
-      <c r="BY4" s="235"/>
-      <c r="BZ4" s="238"/>
+      <c r="BO4" s="196"/>
+      <c r="BP4" s="182"/>
+      <c r="BQ4" s="171"/>
+      <c r="BR4" s="171"/>
+      <c r="BS4" s="176"/>
+      <c r="BT4" s="178"/>
+      <c r="BU4" s="178"/>
+      <c r="BV4" s="178"/>
+      <c r="BW4" s="170"/>
+      <c r="BX4" s="170"/>
+      <c r="BY4" s="170"/>
+      <c r="BZ4" s="174"/>
       <c r="CA4" s="70" t="s">
         <v>9</v>
       </c>
@@ -6329,7 +6440,7 @@
       </c>
       <c r="CO4" s="7"/>
     </row>
-    <row r="5" spans="1:93" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>43651</v>
       </c>
@@ -6339,7 +6450,7 @@
       <c r="C5" s="32">
         <v>70</v>
       </c>
-      <c r="D5" s="171" t="s">
+      <c r="D5" s="237" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="20">
@@ -6358,7 +6469,7 @@
       <c r="L5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="173" t="s">
+      <c r="M5" s="239" t="s">
         <v>125</v>
       </c>
       <c r="N5" s="6"/>
@@ -6544,7 +6655,7 @@
       </c>
       <c r="CO5" s="6"/>
     </row>
-    <row r="6" spans="1:93" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>43651</v>
       </c>
@@ -6554,7 +6665,7 @@
       <c r="C6" s="32">
         <v>70</v>
       </c>
-      <c r="D6" s="172"/>
+      <c r="D6" s="238"/>
       <c r="F6" s="33">
         <v>54291</v>
       </c>
@@ -6566,7 +6677,7 @@
       <c r="L6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="170"/>
+      <c r="M6" s="236"/>
       <c r="N6" s="6"/>
       <c r="O6" s="36" t="s">
         <v>47</v>
@@ -6675,7 +6786,7 @@
       <c r="BY6" s="72"/>
       <c r="CO6" s="6"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <v>43651</v>
       </c>
@@ -6685,7 +6796,7 @@
       <c r="C7" s="32">
         <v>70</v>
       </c>
-      <c r="D7" s="172"/>
+      <c r="D7" s="238"/>
       <c r="E7" s="20">
         <v>0.43442129629629633</v>
       </c>
@@ -6695,7 +6806,7 @@
       <c r="L7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="170"/>
+      <c r="M7" s="236"/>
       <c r="O7" s="36" t="s">
         <v>47</v>
       </c>
@@ -6767,7 +6878,7 @@
       <c r="BX7" s="9"/>
       <c r="CN7" s="3"/>
     </row>
-    <row r="8" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>43651</v>
       </c>
@@ -6777,14 +6888,14 @@
       <c r="C8" s="32">
         <v>70</v>
       </c>
-      <c r="D8" s="172"/>
+      <c r="D8" s="238"/>
       <c r="F8" s="26" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="170"/>
+      <c r="M8" s="236"/>
       <c r="O8" s="36" t="s">
         <v>47</v>
       </c>
@@ -6856,7 +6967,7 @@
       <c r="BX8" s="9"/>
       <c r="CN8" s="3"/>
     </row>
-    <row r="9" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>43651</v>
       </c>
@@ -6866,7 +6977,7 @@
       <c r="C9" s="32">
         <v>70</v>
       </c>
-      <c r="D9" s="172"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="19">
         <v>0.5625</v>
       </c>
@@ -6879,7 +6990,7 @@
       <c r="L9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="170" t="s">
+      <c r="M9" s="236" t="s">
         <v>127</v>
       </c>
       <c r="O9" s="37">
@@ -6950,7 +7061,7 @@
       <c r="BX9" s="11"/>
       <c r="CN9" s="3"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>43651</v>
       </c>
@@ -6960,7 +7071,7 @@
       <c r="C10" s="32">
         <v>70</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="238"/>
       <c r="E10" s="19">
         <v>0.56666666666666665</v>
       </c>
@@ -6970,7 +7081,7 @@
       <c r="L10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="170"/>
+      <c r="M10" s="236"/>
       <c r="O10" s="37">
         <v>55.5</v>
       </c>
@@ -7039,7 +7150,7 @@
       <c r="BX10" s="11"/>
       <c r="CN10" s="3"/>
     </row>
-    <row r="11" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>43651</v>
       </c>
@@ -7049,7 +7160,7 @@
       <c r="C11" s="32">
         <v>70</v>
       </c>
-      <c r="D11" s="172"/>
+      <c r="D11" s="238"/>
       <c r="F11" s="26" t="s">
         <v>47</v>
       </c>
@@ -7059,7 +7170,7 @@
       <c r="L11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="170"/>
+      <c r="M11" s="236"/>
       <c r="O11" s="37">
         <v>55.5</v>
       </c>
@@ -7128,7 +7239,7 @@
       <c r="BX11" s="11"/>
       <c r="CN11" s="3"/>
     </row>
-    <row r="12" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>43651</v>
       </c>
@@ -7138,7 +7249,7 @@
       <c r="C12" s="32">
         <v>70</v>
       </c>
-      <c r="D12" s="172"/>
+      <c r="D12" s="238"/>
       <c r="E12" s="19">
         <v>0.5708333333333333</v>
       </c>
@@ -7148,7 +7259,7 @@
       <c r="L12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="170"/>
+      <c r="M12" s="236"/>
       <c r="O12" s="37">
         <v>55.5</v>
       </c>
@@ -7217,7 +7328,7 @@
       <c r="BX12" s="11"/>
       <c r="CN12" s="3"/>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>43651</v>
       </c>
@@ -7227,7 +7338,7 @@
       <c r="C13" s="32">
         <v>70</v>
       </c>
-      <c r="D13" s="172"/>
+      <c r="D13" s="238"/>
       <c r="E13" s="19">
         <v>0.57986111111111105</v>
       </c>
@@ -7237,7 +7348,7 @@
       <c r="L13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="170"/>
+      <c r="M13" s="236"/>
       <c r="O13" s="37">
         <v>55.5</v>
       </c>
@@ -7306,7 +7417,7 @@
       <c r="BX13" s="11"/>
       <c r="CN13" s="3"/>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>43651</v>
       </c>
@@ -7316,7 +7427,7 @@
       <c r="C14" s="32">
         <v>70</v>
       </c>
-      <c r="D14" s="172"/>
+      <c r="D14" s="238"/>
       <c r="E14" s="19">
         <v>0.59693287037037035</v>
       </c>
@@ -7326,7 +7437,7 @@
       <c r="L14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="170"/>
+      <c r="M14" s="236"/>
       <c r="O14" s="37">
         <v>55.5</v>
       </c>
@@ -7395,7 +7506,7 @@
       <c r="BX14" s="11"/>
       <c r="CN14" s="3"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A15" s="35">
         <v>43651</v>
       </c>
@@ -7405,7 +7516,7 @@
       <c r="C15" s="32">
         <v>70</v>
       </c>
-      <c r="D15" s="172"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="19">
         <v>0.60347222222222219</v>
       </c>
@@ -7418,7 +7529,7 @@
       <c r="L15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="170"/>
+      <c r="M15" s="236"/>
       <c r="O15" s="37">
         <v>55.5</v>
       </c>
@@ -7487,7 +7598,7 @@
       <c r="BX15" s="11"/>
       <c r="CN15" s="3"/>
     </row>
-    <row r="16" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>43651</v>
       </c>
@@ -7497,7 +7608,7 @@
       <c r="C16" s="32">
         <v>70</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="19">
         <v>0.6045949074074074</v>
       </c>
@@ -7510,7 +7621,7 @@
       <c r="L16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="170"/>
+      <c r="M16" s="236"/>
       <c r="O16" s="37">
         <v>55.5</v>
       </c>
@@ -7579,7 +7690,7 @@
       <c r="BX16" s="11"/>
       <c r="CN16" s="3"/>
     </row>
-    <row r="17" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
         <v>43651</v>
       </c>
@@ -7589,7 +7700,7 @@
       <c r="C17" s="32">
         <v>70</v>
       </c>
-      <c r="D17" s="172"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="19">
         <v>0.60625000000000007</v>
       </c>
@@ -7602,7 +7713,7 @@
       <c r="L17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="170"/>
+      <c r="M17" s="236"/>
       <c r="O17" s="37">
         <v>55.5</v>
       </c>
@@ -7671,7 +7782,7 @@
       <c r="BX17" s="11"/>
       <c r="CN17" s="3"/>
     </row>
-    <row r="18" spans="1:92" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>43651</v>
       </c>
@@ -7681,7 +7792,7 @@
       <c r="C18" s="32">
         <v>70</v>
       </c>
-      <c r="D18" s="172"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="19">
         <v>0.6069444444444444</v>
       </c>
@@ -7691,7 +7802,7 @@
       <c r="L18" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="170"/>
+      <c r="M18" s="236"/>
       <c r="O18" s="37">
         <v>55.5</v>
       </c>
@@ -7761,7 +7872,7 @@
       <c r="BX18" s="11"/>
       <c r="CN18" s="3"/>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>43651</v>
       </c>
@@ -7771,7 +7882,7 @@
       <c r="C19" s="32">
         <v>70</v>
       </c>
-      <c r="D19" s="172"/>
+      <c r="D19" s="238"/>
       <c r="F19" s="26">
         <v>54304</v>
       </c>
@@ -7847,7 +7958,7 @@
       <c r="BX19" s="11"/>
       <c r="CN19" s="3"/>
     </row>
-    <row r="20" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="35">
         <v>43651</v>
       </c>
@@ -7857,7 +7968,7 @@
       <c r="C20" s="32">
         <v>70</v>
       </c>
-      <c r="D20" s="172"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="19">
         <v>0.6333333333333333</v>
       </c>
@@ -7870,7 +7981,7 @@
       <c r="L20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="170" t="s">
+      <c r="M20" s="236" t="s">
         <v>126</v>
       </c>
       <c r="O20" s="37">
@@ -7944,7 +8055,7 @@
       <c r="BX20" s="11"/>
       <c r="CN20" s="3"/>
     </row>
-    <row r="21" spans="1:92" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:92" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="35">
         <v>43651</v>
       </c>
@@ -7954,7 +8065,7 @@
       <c r="C21" s="32">
         <v>70</v>
       </c>
-      <c r="D21" s="172"/>
+      <c r="D21" s="238"/>
       <c r="E21" s="19">
         <v>0.6381944444444444</v>
       </c>
@@ -7967,7 +8078,7 @@
       <c r="L21" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="170"/>
+      <c r="M21" s="236"/>
       <c r="O21" s="37">
         <v>55.5</v>
       </c>
@@ -8039,7 +8150,7 @@
       <c r="BX21" s="11"/>
       <c r="CN21" s="3"/>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A22" s="35">
         <v>43651</v>
       </c>
@@ -8049,7 +8160,7 @@
       <c r="C22" s="32">
         <v>70</v>
       </c>
-      <c r="D22" s="172"/>
+      <c r="D22" s="238"/>
       <c r="E22" s="19">
         <v>0.64027777777777783</v>
       </c>
@@ -8062,7 +8173,7 @@
       <c r="L22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="170"/>
+      <c r="M22" s="236"/>
       <c r="O22" s="37">
         <v>55.5</v>
       </c>
@@ -8134,7 +8245,7 @@
       <c r="BX22" s="11"/>
       <c r="CN22" s="3"/>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A23" s="35">
         <v>43651</v>
       </c>
@@ -8144,7 +8255,7 @@
       <c r="C23" s="32">
         <v>70</v>
       </c>
-      <c r="D23" s="172"/>
+      <c r="D23" s="238"/>
       <c r="E23" s="19">
         <v>0.64342592592592596</v>
       </c>
@@ -8154,7 +8265,7 @@
       <c r="L23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M23" s="170"/>
+      <c r="M23" s="236"/>
       <c r="O23" s="37">
         <v>55.5</v>
       </c>
@@ -8223,7 +8334,7 @@
       <c r="BX23" s="11"/>
       <c r="CN23" s="3"/>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>43651</v>
       </c>
@@ -8233,7 +8344,7 @@
       <c r="C24" s="32">
         <v>70</v>
       </c>
-      <c r="D24" s="172"/>
+      <c r="D24" s="238"/>
       <c r="E24" s="19">
         <v>0.64374999999999993</v>
       </c>
@@ -8243,7 +8354,7 @@
       <c r="L24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M24" s="170"/>
+      <c r="M24" s="236"/>
       <c r="O24" s="37">
         <v>55.5</v>
       </c>
@@ -8312,7 +8423,7 @@
       <c r="BX24" s="11"/>
       <c r="CN24" s="3"/>
     </row>
-    <row r="25" spans="1:92" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="35">
         <v>43651</v>
       </c>
@@ -8322,7 +8433,7 @@
       <c r="C25" s="32">
         <v>70</v>
       </c>
-      <c r="D25" s="172"/>
+      <c r="D25" s="238"/>
       <c r="E25" s="19">
         <v>0.65486111111111112</v>
       </c>
@@ -8332,7 +8443,7 @@
       <c r="K25" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="170" t="s">
+      <c r="M25" s="236" t="s">
         <v>126</v>
       </c>
       <c r="O25" s="37">
@@ -8406,7 +8517,7 @@
       <c r="BX25" s="11"/>
       <c r="CN25" s="3"/>
     </row>
-    <row r="26" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
         <v>43651</v>
       </c>
@@ -8416,7 +8527,7 @@
       <c r="C26" s="32">
         <v>70</v>
       </c>
-      <c r="D26" s="172"/>
+      <c r="D26" s="238"/>
       <c r="E26" s="19">
         <v>0.65535879629629623</v>
       </c>
@@ -8429,7 +8540,7 @@
       <c r="L26" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="170"/>
+      <c r="M26" s="236"/>
       <c r="O26" s="37">
         <v>55.5</v>
       </c>
@@ -8499,7 +8610,7 @@
       <c r="BX26" s="11"/>
       <c r="CN26" s="3"/>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A27" s="35">
         <v>43651</v>
       </c>
@@ -8509,7 +8620,7 @@
       <c r="C27" s="32">
         <v>70</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="238"/>
       <c r="E27" s="19">
         <v>0.68888888888888899</v>
       </c>
@@ -8522,7 +8633,7 @@
       <c r="L27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="170" t="s">
+      <c r="M27" s="236" t="s">
         <v>124</v>
       </c>
       <c r="O27" s="37" t="s">
@@ -8593,7 +8704,7 @@
       <c r="BX27" s="11"/>
       <c r="CN27" s="3"/>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A28" s="35">
         <v>43651</v>
       </c>
@@ -8603,7 +8714,7 @@
       <c r="C28" s="32">
         <v>70</v>
       </c>
-      <c r="D28" s="172"/>
+      <c r="D28" s="238"/>
       <c r="E28" s="19">
         <v>0.69027777777777777</v>
       </c>
@@ -8616,7 +8727,7 @@
       <c r="L28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M28" s="170"/>
+      <c r="M28" s="236"/>
       <c r="O28" s="37" t="s">
         <v>47</v>
       </c>
@@ -8685,7 +8796,7 @@
       <c r="BX28" s="11"/>
       <c r="CN28" s="3"/>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A29" s="35">
         <v>43651</v>
       </c>
@@ -8695,7 +8806,7 @@
       <c r="C29" s="32">
         <v>70</v>
       </c>
-      <c r="D29" s="172"/>
+      <c r="D29" s="238"/>
       <c r="E29" s="19">
         <v>0.69354166666666661</v>
       </c>
@@ -8705,7 +8816,7 @@
       <c r="L29" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="M29" s="170"/>
+      <c r="M29" s="236"/>
       <c r="O29" s="37" t="s">
         <v>47</v>
       </c>
@@ -8777,7 +8888,7 @@
       </c>
       <c r="CN29" s="3"/>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
         <v>43651</v>
       </c>
@@ -8787,7 +8898,7 @@
       <c r="C30" s="32">
         <v>70</v>
       </c>
-      <c r="D30" s="172"/>
+      <c r="D30" s="238"/>
       <c r="E30" s="19">
         <v>0.69444444444444453</v>
       </c>
@@ -8800,7 +8911,7 @@
       <c r="L30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M30" s="170" t="s">
+      <c r="M30" s="236" t="s">
         <v>125</v>
       </c>
       <c r="O30" s="37" t="s">
@@ -8874,7 +8985,7 @@
       </c>
       <c r="CN30" s="3"/>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>43651</v>
       </c>
@@ -8884,7 +8995,7 @@
       <c r="C31" s="32">
         <v>70</v>
       </c>
-      <c r="D31" s="172"/>
+      <c r="D31" s="238"/>
       <c r="E31" s="19">
         <v>0.71458333333333324</v>
       </c>
@@ -8897,7 +9008,7 @@
       <c r="L31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M31" s="170"/>
+      <c r="M31" s="236"/>
       <c r="O31" s="37" t="s">
         <v>47</v>
       </c>
@@ -8966,7 +9077,7 @@
       <c r="BX31" s="11"/>
       <c r="CN31" s="3"/>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A32" s="35">
         <v>43651</v>
       </c>
@@ -8976,7 +9087,7 @@
       <c r="C32" s="32">
         <v>70</v>
       </c>
-      <c r="D32" s="172"/>
+      <c r="D32" s="238"/>
       <c r="E32" s="19">
         <v>0.71666666666666667</v>
       </c>
@@ -8989,7 +9100,7 @@
       <c r="L32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M32" s="170"/>
+      <c r="M32" s="236"/>
       <c r="O32" s="37" t="s">
         <v>47</v>
       </c>
@@ -9058,7 +9169,7 @@
       <c r="BX32" s="11"/>
       <c r="CN32" s="3"/>
     </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A33" s="35">
         <v>43651</v>
       </c>
@@ -9068,7 +9179,7 @@
       <c r="C33" s="32">
         <v>70</v>
       </c>
-      <c r="D33" s="172"/>
+      <c r="D33" s="238"/>
       <c r="E33" s="19">
         <v>0.72013888888888899</v>
       </c>
@@ -9081,7 +9192,7 @@
       <c r="L33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M33" s="170"/>
+      <c r="M33" s="236"/>
       <c r="O33" s="37" t="s">
         <v>47</v>
       </c>
@@ -9142,7 +9253,7 @@
       <c r="BX33" s="11"/>
       <c r="CN33" s="3"/>
     </row>
-    <row r="34" spans="1:93" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:93" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -9221,7 +9332,7 @@
       <c r="BY34" s="43"/>
       <c r="CO34" s="7"/>
     </row>
-    <row r="35" spans="1:93" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:93" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>43655</v>
       </c>
@@ -9231,7 +9342,7 @@
       <c r="C35" s="25">
         <v>70</v>
       </c>
-      <c r="D35" s="167" t="s">
+      <c r="D35" s="235" t="s">
         <v>193</v>
       </c>
       <c r="E35" s="19">
@@ -9321,7 +9432,7 @@
       <c r="BX35" s="9"/>
       <c r="CN35" s="3"/>
     </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>43655</v>
       </c>
@@ -9331,7 +9442,7 @@
       <c r="C36" s="25">
         <v>70</v>
       </c>
-      <c r="D36" s="167"/>
+      <c r="D36" s="235"/>
       <c r="E36" s="19">
         <v>0.38194444444444442</v>
       </c>
@@ -9389,7 +9500,7 @@
       <c r="BX36" s="9"/>
       <c r="CN36" s="3"/>
     </row>
-    <row r="37" spans="1:93" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:93" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>43655</v>
       </c>
@@ -9399,7 +9510,7 @@
       <c r="C37" s="25">
         <v>70</v>
       </c>
-      <c r="D37" s="167"/>
+      <c r="D37" s="235"/>
       <c r="E37" s="19">
         <v>0.39930555555555558</v>
       </c>
@@ -9460,7 +9571,7 @@
       <c r="BX37" s="9"/>
       <c r="CN37" s="3"/>
     </row>
-    <row r="38" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>43655</v>
       </c>
@@ -9470,7 +9581,7 @@
       <c r="C38" s="25">
         <v>70</v>
       </c>
-      <c r="D38" s="167"/>
+      <c r="D38" s="235"/>
       <c r="E38" s="19">
         <v>0.40416666666666662</v>
       </c>
@@ -9528,7 +9639,7 @@
       <c r="BX38" s="9"/>
       <c r="CN38" s="3"/>
     </row>
-    <row r="39" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>43655</v>
       </c>
@@ -9538,7 +9649,7 @@
       <c r="C39" s="25">
         <v>70</v>
       </c>
-      <c r="D39" s="167"/>
+      <c r="D39" s="235"/>
       <c r="E39" s="19">
         <v>0.52555555555555555</v>
       </c>
@@ -9623,7 +9734,7 @@
       <c r="BX39" s="9"/>
       <c r="CN39" s="3"/>
     </row>
-    <row r="40" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>43655</v>
       </c>
@@ -9633,7 +9744,7 @@
       <c r="C40" s="25">
         <v>70</v>
       </c>
-      <c r="D40" s="167"/>
+      <c r="D40" s="235"/>
       <c r="E40" s="19">
         <v>0.52688657407407413</v>
       </c>
@@ -9715,7 +9826,7 @@
       <c r="BX40" s="9"/>
       <c r="CN40" s="3"/>
     </row>
-    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>43655</v>
       </c>
@@ -9725,7 +9836,7 @@
       <c r="C41" s="25">
         <v>70</v>
       </c>
-      <c r="D41" s="167"/>
+      <c r="D41" s="235"/>
       <c r="E41" s="19">
         <v>0.5270717592592592</v>
       </c>
@@ -9807,7 +9918,7 @@
       <c r="BX41" s="9"/>
       <c r="CN41" s="3"/>
     </row>
-    <row r="42" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>43655</v>
       </c>
@@ -9817,7 +9928,7 @@
       <c r="C42" s="25">
         <v>70</v>
       </c>
-      <c r="D42" s="167"/>
+      <c r="D42" s="235"/>
       <c r="F42" s="26" t="s">
         <v>47</v>
       </c>
@@ -9896,7 +10007,7 @@
       <c r="BX42" s="9"/>
       <c r="CN42" s="3"/>
     </row>
-    <row r="43" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>43655</v>
       </c>
@@ -9906,7 +10017,7 @@
       <c r="C43" s="25">
         <v>70</v>
       </c>
-      <c r="D43" s="167"/>
+      <c r="D43" s="235"/>
       <c r="F43" s="26" t="s">
         <v>47</v>
       </c>
@@ -9982,7 +10093,7 @@
       <c r="BX43" s="9"/>
       <c r="CN43" s="3"/>
     </row>
-    <row r="44" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>43655</v>
       </c>
@@ -9992,7 +10103,7 @@
       <c r="C44" s="25">
         <v>70</v>
       </c>
-      <c r="D44" s="167"/>
+      <c r="D44" s="235"/>
       <c r="E44" s="19">
         <v>0.5625</v>
       </c>
@@ -10075,7 +10186,7 @@
       <c r="BX44" s="9"/>
       <c r="CN44" s="3"/>
     </row>
-    <row r="45" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43655</v>
       </c>
@@ -10085,7 +10196,7 @@
       <c r="C45" s="25">
         <v>70</v>
       </c>
-      <c r="D45" s="167"/>
+      <c r="D45" s="235"/>
       <c r="E45" s="19">
         <v>0.56319444444444444</v>
       </c>
@@ -10164,7 +10275,7 @@
       <c r="BX45" s="9"/>
       <c r="CN45" s="3"/>
     </row>
-    <row r="46" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>43655</v>
       </c>
@@ -10174,7 +10285,7 @@
       <c r="C46" s="25">
         <v>70</v>
       </c>
-      <c r="D46" s="167"/>
+      <c r="D46" s="235"/>
       <c r="E46" s="19">
         <v>0.56666666666666665</v>
       </c>
@@ -10259,7 +10370,7 @@
       <c r="BX46" s="9"/>
       <c r="CN46" s="3"/>
     </row>
-    <row r="47" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43655</v>
       </c>
@@ -10269,7 +10380,7 @@
       <c r="C47" s="25">
         <v>70</v>
       </c>
-      <c r="D47" s="167"/>
+      <c r="D47" s="235"/>
       <c r="E47" s="19">
         <v>0.56874999999999998</v>
       </c>
@@ -10348,7 +10459,7 @@
       <c r="BX47" s="9"/>
       <c r="CN47" s="3"/>
     </row>
-    <row r="48" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>43655</v>
       </c>
@@ -10358,7 +10469,7 @@
       <c r="C48" s="25">
         <v>70</v>
       </c>
-      <c r="D48" s="167"/>
+      <c r="D48" s="235"/>
       <c r="E48" s="19">
         <v>0.5756944444444444</v>
       </c>
@@ -10440,7 +10551,7 @@
       <c r="BX48" s="9"/>
       <c r="CN48" s="3"/>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>43655</v>
       </c>
@@ -10450,7 +10561,7 @@
       <c r="C49" s="25">
         <v>70</v>
       </c>
-      <c r="D49" s="167"/>
+      <c r="D49" s="235"/>
       <c r="E49" s="19">
         <v>0.57777777777777783</v>
       </c>
@@ -10532,7 +10643,7 @@
       <c r="BX49" s="9"/>
       <c r="CN49" s="3"/>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>43655</v>
       </c>
@@ -10542,7 +10653,7 @@
       <c r="C50" s="25">
         <v>70</v>
       </c>
-      <c r="D50" s="167"/>
+      <c r="D50" s="235"/>
       <c r="E50" s="19">
         <v>0.58124999999999993</v>
       </c>
@@ -10624,7 +10735,7 @@
       <c r="BX50" s="9"/>
       <c r="CN50" s="3"/>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>43655</v>
       </c>
@@ -10634,7 +10745,7 @@
       <c r="C51" s="25">
         <v>70</v>
       </c>
-      <c r="D51" s="167"/>
+      <c r="D51" s="235"/>
       <c r="F51" s="26" t="s">
         <v>47</v>
       </c>
@@ -10710,7 +10821,7 @@
       <c r="BX51" s="9"/>
       <c r="CN51" s="3"/>
     </row>
-    <row r="52" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>43655</v>
       </c>
@@ -10720,7 +10831,7 @@
       <c r="C52" s="25">
         <v>70</v>
       </c>
-      <c r="D52" s="167"/>
+      <c r="D52" s="235"/>
       <c r="F52" s="26" t="s">
         <v>47</v>
       </c>
@@ -10796,7 +10907,7 @@
       <c r="BX52" s="9"/>
       <c r="CN52" s="3"/>
     </row>
-    <row r="53" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>43655</v>
       </c>
@@ -10806,7 +10917,7 @@
       <c r="C53" s="25">
         <v>70</v>
       </c>
-      <c r="D53" s="167"/>
+      <c r="D53" s="235"/>
       <c r="F53" s="26" t="s">
         <v>47</v>
       </c>
@@ -10885,7 +10996,7 @@
       <c r="BX53" s="9"/>
       <c r="CN53" s="3"/>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>43655</v>
       </c>
@@ -10895,7 +11006,7 @@
       <c r="C54" s="25">
         <v>70</v>
       </c>
-      <c r="D54" s="167"/>
+      <c r="D54" s="235"/>
       <c r="E54" s="19">
         <v>0.65486111111111112</v>
       </c>
@@ -10977,7 +11088,7 @@
       <c r="BX54" s="9"/>
       <c r="CN54" s="3"/>
     </row>
-    <row r="55" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>43655</v>
       </c>
@@ -10987,7 +11098,7 @@
       <c r="C55" s="25">
         <v>70</v>
       </c>
-      <c r="D55" s="167"/>
+      <c r="D55" s="235"/>
       <c r="F55" s="26" t="s">
         <v>47</v>
       </c>
@@ -11066,7 +11177,7 @@
       <c r="BX55" s="9"/>
       <c r="CN55" s="3"/>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>43655</v>
       </c>
@@ -11076,7 +11187,7 @@
       <c r="C56" s="25">
         <v>70</v>
       </c>
-      <c r="D56" s="167"/>
+      <c r="D56" s="235"/>
       <c r="F56" s="26" t="s">
         <v>47</v>
       </c>
@@ -11152,7 +11263,7 @@
       <c r="BX56" s="9"/>
       <c r="CN56" s="3"/>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>43655</v>
       </c>
@@ -11162,7 +11273,7 @@
       <c r="C57" s="25">
         <v>70</v>
       </c>
-      <c r="D57" s="167"/>
+      <c r="D57" s="235"/>
       <c r="E57" s="19">
         <v>0.70347222222222217</v>
       </c>
@@ -11247,7 +11358,7 @@
       <c r="BX57" s="9"/>
       <c r="CN57" s="3"/>
     </row>
-    <row r="58" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>43655</v>
       </c>
@@ -11257,7 +11368,7 @@
       <c r="C58" s="25">
         <v>70</v>
       </c>
-      <c r="D58" s="167"/>
+      <c r="D58" s="235"/>
       <c r="F58" s="26" t="s">
         <v>47</v>
       </c>
@@ -11333,7 +11444,7 @@
       <c r="BX58" s="9"/>
       <c r="CN58" s="3"/>
     </row>
-    <row r="59" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>43655</v>
       </c>
@@ -11343,7 +11454,7 @@
       <c r="C59" s="25">
         <v>70</v>
       </c>
-      <c r="D59" s="167"/>
+      <c r="D59" s="235"/>
       <c r="F59" s="26" t="s">
         <v>47</v>
       </c>
@@ -11419,7 +11530,7 @@
       <c r="BX59" s="9"/>
       <c r="CN59" s="3"/>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>43655</v>
       </c>
@@ -11429,7 +11540,7 @@
       <c r="C60" s="25">
         <v>70</v>
       </c>
-      <c r="D60" s="167"/>
+      <c r="D60" s="235"/>
       <c r="E60" s="19">
         <v>0.75</v>
       </c>
@@ -11511,7 +11622,7 @@
       <c r="BX60" s="9"/>
       <c r="CN60" s="3"/>
     </row>
-    <row r="61" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>43655</v>
       </c>
@@ -11521,7 +11632,7 @@
       <c r="C61" s="25">
         <v>70</v>
       </c>
-      <c r="D61" s="167"/>
+      <c r="D61" s="235"/>
       <c r="E61" s="19">
         <v>0.75208333333333333</v>
       </c>
@@ -11603,7 +11714,7 @@
       <c r="BX61" s="9"/>
       <c r="CN61" s="3"/>
     </row>
-    <row r="62" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>43655</v>
       </c>
@@ -11613,7 +11724,7 @@
       <c r="C62" s="25">
         <v>70</v>
       </c>
-      <c r="D62" s="167"/>
+      <c r="D62" s="235"/>
       <c r="E62" s="19">
         <v>0.75624999999999998</v>
       </c>
@@ -11695,7 +11806,7 @@
       <c r="BX62" s="9"/>
       <c r="CN62" s="3"/>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>43655</v>
       </c>
@@ -11705,7 +11816,7 @@
       <c r="C63" s="25">
         <v>70</v>
       </c>
-      <c r="D63" s="167"/>
+      <c r="D63" s="235"/>
       <c r="E63" s="19">
         <v>0.75902777777777775</v>
       </c>
@@ -11787,7 +11898,7 @@
       <c r="BX63" s="9"/>
       <c r="CN63" s="3"/>
     </row>
-    <row r="64" spans="1:92" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:92" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>43655</v>
       </c>
@@ -11797,7 +11908,7 @@
       <c r="C64" s="25">
         <v>70</v>
       </c>
-      <c r="D64" s="167"/>
+      <c r="D64" s="235"/>
       <c r="E64" s="19">
         <v>0.76250000000000007</v>
       </c>
@@ -11879,7 +11990,7 @@
       <c r="BX64" s="9"/>
       <c r="CN64" s="3"/>
     </row>
-    <row r="65" spans="1:93" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:93" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>43655</v>
       </c>
@@ -11889,7 +12000,7 @@
       <c r="C65" s="25">
         <v>70</v>
       </c>
-      <c r="D65" s="167"/>
+      <c r="D65" s="235"/>
       <c r="E65" s="19">
         <v>0.76736111111111116</v>
       </c>
@@ -11971,7 +12082,7 @@
       <c r="BX65" s="9"/>
       <c r="CN65" s="3"/>
     </row>
-    <row r="66" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>43655</v>
       </c>
@@ -11981,7 +12092,7 @@
       <c r="C66" s="25">
         <v>70</v>
       </c>
-      <c r="D66" s="167"/>
+      <c r="D66" s="235"/>
       <c r="E66" s="19">
         <v>0.76848379629629626</v>
       </c>
@@ -12060,7 +12171,7 @@
       <c r="BX66" s="9"/>
       <c r="CN66" s="3"/>
     </row>
-    <row r="67" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>43655</v>
       </c>
@@ -12070,7 +12181,7 @@
       <c r="C67" s="25">
         <v>70</v>
       </c>
-      <c r="D67" s="167"/>
+      <c r="D67" s="235"/>
       <c r="E67" s="19">
         <v>0.7729166666666667</v>
       </c>
@@ -12152,7 +12263,7 @@
       <c r="BX67" s="9"/>
       <c r="CN67" s="3"/>
     </row>
-    <row r="68" spans="1:93" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:93" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>43655</v>
       </c>
@@ -12162,7 +12273,7 @@
       <c r="C68" s="25">
         <v>70</v>
       </c>
-      <c r="D68" s="167"/>
+      <c r="D68" s="235"/>
       <c r="E68" s="19">
         <v>0.77569444444444446</v>
       </c>
@@ -12247,7 +12358,7 @@
       <c r="BX68" s="9"/>
       <c r="CN68" s="3"/>
     </row>
-    <row r="69" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>43655</v>
       </c>
@@ -12257,7 +12368,7 @@
       <c r="C69" s="25">
         <v>70</v>
       </c>
-      <c r="D69" s="167"/>
+      <c r="D69" s="235"/>
       <c r="E69" s="19">
         <v>0.77638888888888891</v>
       </c>
@@ -12336,7 +12447,7 @@
       <c r="BX69" s="9"/>
       <c r="CN69" s="3"/>
     </row>
-    <row r="70" spans="1:93" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:93" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="O70" s="45"/>
       <c r="P70" s="40"/>
       <c r="Q70" s="40"/>
@@ -12402,7 +12513,7 @@
       <c r="BY70" s="43"/>
       <c r="CO70" s="7"/>
     </row>
-    <row r="71" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:93" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="47">
         <v>43656</v>
       </c>
@@ -12412,7 +12523,7 @@
       <c r="C71" s="48">
         <v>70</v>
       </c>
-      <c r="D71" s="167" t="s">
+      <c r="D71" s="235" t="s">
         <v>193</v>
       </c>
       <c r="E71" s="49">
@@ -12476,7 +12587,7 @@
       <c r="BX71" s="11"/>
       <c r="CN71" s="3"/>
     </row>
-    <row r="72" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A72" s="47">
         <v>43656</v>
       </c>
@@ -12486,7 +12597,7 @@
       <c r="C72" s="48">
         <v>70</v>
       </c>
-      <c r="D72" s="167"/>
+      <c r="D72" s="235"/>
       <c r="E72" s="19">
         <v>0.35138888888888892</v>
       </c>
@@ -12547,7 +12658,7 @@
       <c r="BX72" s="11"/>
       <c r="CN72" s="3"/>
     </row>
-    <row r="73" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="47">
         <v>43656</v>
       </c>
@@ -12557,7 +12668,7 @@
       <c r="C73" s="48">
         <v>70</v>
       </c>
-      <c r="D73" s="167"/>
+      <c r="D73" s="235"/>
       <c r="E73" s="19">
         <v>0.3520833333333333</v>
       </c>
@@ -12618,7 +12729,7 @@
       <c r="BX73" s="11"/>
       <c r="CN73" s="3"/>
     </row>
-    <row r="74" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A74" s="47">
         <v>43656</v>
       </c>
@@ -12628,7 +12739,7 @@
       <c r="C74" s="48">
         <v>70</v>
       </c>
-      <c r="D74" s="167"/>
+      <c r="D74" s="235"/>
       <c r="E74" s="19">
         <v>0.36527777777777781</v>
       </c>
@@ -12689,7 +12800,7 @@
       <c r="BX74" s="11"/>
       <c r="CN74" s="3"/>
     </row>
-    <row r="75" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="47">
         <v>43656</v>
       </c>
@@ -12699,7 +12810,7 @@
       <c r="C75" s="48">
         <v>70</v>
       </c>
-      <c r="D75" s="167"/>
+      <c r="D75" s="235"/>
       <c r="E75" s="19">
         <v>0.37222222222222223</v>
       </c>
@@ -12760,7 +12871,7 @@
       <c r="BX75" s="11"/>
       <c r="CN75" s="3"/>
     </row>
-    <row r="76" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="47">
         <v>43656</v>
       </c>
@@ -12770,7 +12881,7 @@
       <c r="C76" s="48">
         <v>70</v>
       </c>
-      <c r="D76" s="167"/>
+      <c r="D76" s="235"/>
       <c r="F76" s="26" t="s">
         <v>47</v>
       </c>
@@ -12828,7 +12939,7 @@
       <c r="BX76" s="11"/>
       <c r="CN76" s="3"/>
     </row>
-    <row r="77" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="47">
         <v>43656</v>
       </c>
@@ -12838,7 +12949,7 @@
       <c r="C77" s="48">
         <v>70</v>
       </c>
-      <c r="D77" s="167"/>
+      <c r="D77" s="235"/>
       <c r="E77" s="19">
         <v>0.38819444444444445</v>
       </c>
@@ -12899,7 +13010,7 @@
       <c r="BX77" s="11"/>
       <c r="CN77" s="3"/>
     </row>
-    <row r="78" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A78" s="47">
         <v>43656</v>
       </c>
@@ -12909,7 +13020,7 @@
       <c r="C78" s="48">
         <v>70</v>
       </c>
-      <c r="D78" s="167"/>
+      <c r="D78" s="235"/>
       <c r="E78" s="19">
         <v>0.4069444444444445</v>
       </c>
@@ -12973,7 +13084,7 @@
       <c r="BX78" s="11"/>
       <c r="CN78" s="3"/>
     </row>
-    <row r="79" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A79" s="47">
         <v>43656</v>
       </c>
@@ -12983,7 +13094,7 @@
       <c r="C79" s="48">
         <v>70</v>
       </c>
-      <c r="D79" s="167"/>
+      <c r="D79" s="235"/>
       <c r="E79" s="19">
         <v>0.41250000000000003</v>
       </c>
@@ -13044,7 +13155,7 @@
       <c r="BX79" s="11"/>
       <c r="CN79" s="3"/>
     </row>
-    <row r="80" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="47">
         <v>43656</v>
       </c>
@@ -13054,7 +13165,7 @@
       <c r="C80" s="48">
         <v>70</v>
       </c>
-      <c r="D80" s="167"/>
+      <c r="D80" s="235"/>
       <c r="E80" s="19">
         <v>0.4145833333333333</v>
       </c>
@@ -13115,7 +13226,7 @@
       <c r="BX80" s="11"/>
       <c r="CN80" s="3"/>
     </row>
-    <row r="81" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A81" s="47">
         <v>43656</v>
       </c>
@@ -13125,7 +13236,7 @@
       <c r="C81" s="48">
         <v>70</v>
       </c>
-      <c r="D81" s="167"/>
+      <c r="D81" s="235"/>
       <c r="E81" s="19">
         <v>0.41805555555555557</v>
       </c>
@@ -13186,7 +13297,7 @@
       <c r="BX81" s="11"/>
       <c r="CN81" s="3"/>
     </row>
-    <row r="82" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A82" s="47">
         <v>43656</v>
       </c>
@@ -13196,7 +13307,7 @@
       <c r="C82" s="48">
         <v>70</v>
       </c>
-      <c r="D82" s="167"/>
+      <c r="D82" s="235"/>
       <c r="E82" s="19">
         <v>0.4201388888888889</v>
       </c>
@@ -13257,7 +13368,7 @@
       <c r="BX82" s="11"/>
       <c r="CN82" s="3"/>
     </row>
-    <row r="83" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A83" s="47">
         <v>43656</v>
       </c>
@@ -13267,7 +13378,7 @@
       <c r="C83" s="48">
         <v>70</v>
       </c>
-      <c r="D83" s="167"/>
+      <c r="D83" s="235"/>
       <c r="E83" s="19">
         <v>0.43124999999999997</v>
       </c>
@@ -13328,7 +13439,7 @@
       <c r="BX83" s="11"/>
       <c r="CN83" s="3"/>
     </row>
-    <row r="84" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A84" s="47">
         <v>43656</v>
       </c>
@@ -13338,7 +13449,7 @@
       <c r="C84" s="48">
         <v>70</v>
       </c>
-      <c r="D84" s="167"/>
+      <c r="D84" s="235"/>
       <c r="E84" s="19">
         <v>0.4597222222222222</v>
       </c>
@@ -13399,7 +13510,7 @@
       <c r="BX84" s="11"/>
       <c r="CN84" s="3"/>
     </row>
-    <row r="85" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A85" s="47">
         <v>43656</v>
       </c>
@@ -13409,7 +13520,7 @@
       <c r="C85" s="48">
         <v>70</v>
       </c>
-      <c r="D85" s="167"/>
+      <c r="D85" s="235"/>
       <c r="E85" s="19" t="s">
         <v>222</v>
       </c>
@@ -13467,7 +13578,7 @@
       <c r="BX85" s="11"/>
       <c r="CN85" s="3"/>
     </row>
-    <row r="86" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A86" s="47">
         <v>43656</v>
       </c>
@@ -13477,7 +13588,7 @@
       <c r="C86" s="48">
         <v>70</v>
       </c>
-      <c r="D86" s="167"/>
+      <c r="D86" s="235"/>
       <c r="E86" s="19">
         <v>0.47013888888888888</v>
       </c>
@@ -13538,7 +13649,7 @@
       <c r="BX86" s="11"/>
       <c r="CN86" s="3"/>
     </row>
-    <row r="87" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A87" s="47">
         <v>43656</v>
       </c>
@@ -13548,7 +13659,7 @@
       <c r="C87" s="48">
         <v>70</v>
       </c>
-      <c r="D87" s="167"/>
+      <c r="D87" s="235"/>
       <c r="E87" s="19">
         <v>0.47291666666666665</v>
       </c>
@@ -13609,7 +13720,7 @@
       <c r="BX87" s="11"/>
       <c r="CN87" s="3"/>
     </row>
-    <row r="88" spans="1:92" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:92" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="47">
         <v>43656</v>
       </c>
@@ -13619,7 +13730,7 @@
       <c r="C88" s="48">
         <v>70</v>
       </c>
-      <c r="D88" s="167"/>
+      <c r="D88" s="235"/>
       <c r="E88" s="53">
         <v>0.47569444444444442</v>
       </c>
@@ -13686,7 +13797,7 @@
       <c r="BX88" s="11"/>
       <c r="CN88" s="3"/>
     </row>
-    <row r="89" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="47">
         <v>43656</v>
       </c>
@@ -13759,7 +13870,7 @@
       <c r="BX89" s="11"/>
       <c r="CN89" s="3"/>
     </row>
-    <row r="90" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:92" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="47">
         <v>43656</v>
       </c>
@@ -13803,7 +13914,7 @@
       <c r="BX90" s="11"/>
       <c r="CN90" s="3"/>
     </row>
-    <row r="91" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:92" x14ac:dyDescent="0.3">
       <c r="E91" s="19">
         <v>0.55972222222222223</v>
       </c>
@@ -13820,7 +13931,7 @@
       <c r="BX91" s="11"/>
       <c r="CN91" s="3"/>
     </row>
-    <row r="92" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A92" s="47">
         <v>43656</v>
       </c>
@@ -13873,7 +13984,7 @@
       <c r="BX92" s="11"/>
       <c r="CN92" s="3"/>
     </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A93" s="47">
         <v>43656</v>
       </c>
@@ -13922,7 +14033,7 @@
       <c r="BX93" s="11"/>
       <c r="CN93" s="3"/>
     </row>
-    <row r="94" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A94" s="47">
         <v>43656</v>
       </c>
@@ -13969,7 +14080,7 @@
       <c r="BX94" s="11"/>
       <c r="CN94" s="3"/>
     </row>
-    <row r="95" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A95" s="47">
         <v>43656</v>
       </c>
@@ -14020,7 +14131,7 @@
       <c r="BX95" s="11"/>
       <c r="CN95" s="3"/>
     </row>
-    <row r="96" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:92" x14ac:dyDescent="0.3">
       <c r="D96" s="54"/>
       <c r="E96" s="54">
         <v>0.60972222222222217</v>
@@ -14062,7 +14173,7 @@
       <c r="BX96" s="11"/>
       <c r="CN96" s="3"/>
     </row>
-    <row r="97" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D97" s="54"/>
       <c r="E97" s="54">
         <v>0.62013888888888891</v>
@@ -14104,7 +14215,7 @@
       <c r="BX97" s="11"/>
       <c r="CN97" s="3"/>
     </row>
-    <row r="98" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.3">
       <c r="D98" s="54"/>
       <c r="E98" s="54"/>
       <c r="F98" s="26" t="s">
@@ -14122,7 +14233,7 @@
       <c r="BX98" s="11"/>
       <c r="CN98" s="3"/>
     </row>
-    <row r="99" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:93" ht="15" x14ac:dyDescent="0.25">
       <c r="E99" s="19">
         <v>0.63194444444444442</v>
       </c>
@@ -14139,7 +14250,7 @@
       <c r="BX99" s="11"/>
       <c r="CN99" s="3"/>
     </row>
-    <row r="100" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.3">
       <c r="E100" s="19">
         <v>0.6381944444444444</v>
       </c>
@@ -14156,7 +14267,7 @@
       <c r="BX100" s="11"/>
       <c r="CN100" s="3"/>
     </row>
-    <row r="101" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:93" x14ac:dyDescent="0.3">
       <c r="E101" s="19">
         <v>0.65277777777777779</v>
       </c>
@@ -14173,7 +14284,7 @@
       <c r="BX101" s="11"/>
       <c r="CN101" s="3"/>
     </row>
-    <row r="102" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:93" x14ac:dyDescent="0.3">
       <c r="E102" s="19">
         <v>0.67222222222222217</v>
       </c>
@@ -14190,7 +14301,7 @@
       <c r="BX102" s="11"/>
       <c r="CN102" s="3"/>
     </row>
-    <row r="103" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F103" s="26" t="s">
         <v>47</v>
       </c>
@@ -14204,7 +14315,7 @@
       <c r="BX103" s="11"/>
       <c r="CN103" s="3"/>
     </row>
-    <row r="104" spans="1:93" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:93" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F104" s="26" t="s">
         <v>47</v>
       </c>
@@ -14218,7 +14329,7 @@
       <c r="BX104" s="11"/>
       <c r="CN104" s="3"/>
     </row>
-    <row r="105" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F105" s="26" t="s">
         <v>47</v>
       </c>
@@ -14229,7 +14340,7 @@
       <c r="BX105" s="11"/>
       <c r="CN105" s="3"/>
     </row>
-    <row r="106" spans="1:93" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:93" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="40"/>
       <c r="C106" s="40"/>
@@ -14308,7 +14419,7 @@
       <c r="BY106" s="43"/>
       <c r="CO106" s="7"/>
     </row>
-    <row r="107" spans="1:93" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:93" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>43657</v>
       </c>
@@ -14360,7 +14471,7 @@
       </c>
       <c r="CN107" s="3"/>
     </row>
-    <row r="108" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:93" x14ac:dyDescent="0.3">
       <c r="E108" s="19">
         <v>0.37708333333333338</v>
       </c>
@@ -14397,7 +14508,7 @@
       <c r="BX108" s="11"/>
       <c r="CN108" s="3"/>
     </row>
-    <row r="109" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F109" s="26" t="s">
         <v>47</v>
       </c>
@@ -14429,7 +14540,7 @@
       <c r="BX109" s="11"/>
       <c r="CN109" s="3"/>
     </row>
-    <row r="110" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:93" x14ac:dyDescent="0.3">
       <c r="E110" s="19">
         <v>0.40972222222222227</v>
       </c>
@@ -14463,7 +14574,7 @@
       <c r="BX110" s="11"/>
       <c r="CN110" s="3"/>
     </row>
-    <row r="111" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:93" x14ac:dyDescent="0.3">
       <c r="E111" s="19">
         <v>0.41319444444444442</v>
       </c>
@@ -14497,7 +14608,7 @@
       <c r="BX111" s="11"/>
       <c r="CN111" s="3"/>
     </row>
-    <row r="112" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F112" s="26" t="s">
         <v>47</v>
       </c>
@@ -14530,7 +14641,7 @@
       </c>
       <c r="CN112" s="3"/>
     </row>
-    <row r="113" spans="5:92" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:92" x14ac:dyDescent="0.3">
       <c r="E113" s="19">
         <v>0.43194444444444446</v>
       </c>
@@ -14563,7 +14674,7 @@
       <c r="BX113" s="9"/>
       <c r="CN113" s="3"/>
     </row>
-    <row r="114" spans="5:92" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:92" x14ac:dyDescent="0.3">
       <c r="E114" s="19">
         <v>0.44305555555555554</v>
       </c>
@@ -14600,7 +14711,7 @@
       <c r="BX114" s="11"/>
       <c r="CN114" s="3"/>
     </row>
-    <row r="115" spans="5:92" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:92" ht="15" x14ac:dyDescent="0.25">
       <c r="E115" s="19">
         <v>0.44444444444444442</v>
       </c>
@@ -14634,7 +14745,7 @@
       <c r="BX115" s="11"/>
       <c r="CN115" s="3"/>
     </row>
-    <row r="116" spans="5:92" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:92" x14ac:dyDescent="0.3">
       <c r="F116" s="26" t="s">
         <v>47</v>
       </c>
@@ -14668,7 +14779,7 @@
       <c r="BX116" s="11"/>
       <c r="CN116" s="3"/>
     </row>
-    <row r="117" spans="5:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E117" s="19">
         <v>0.4513888888888889</v>
       </c>
@@ -14702,7 +14813,7 @@
       <c r="BX117" s="11"/>
       <c r="CN117" s="3"/>
     </row>
-    <row r="118" spans="5:92" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:92" x14ac:dyDescent="0.3">
       <c r="E118" s="19">
         <v>0.45277777777777778</v>
       </c>
@@ -14739,7 +14850,7 @@
       <c r="BX118" s="11"/>
       <c r="CN118" s="3"/>
     </row>
-    <row r="119" spans="5:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E119" s="19">
         <v>0.45416666666666666</v>
       </c>
@@ -14773,7 +14884,7 @@
       <c r="BX119" s="11"/>
       <c r="CN119" s="3"/>
     </row>
-    <row r="120" spans="5:92" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:92" x14ac:dyDescent="0.3">
       <c r="E120" s="19">
         <v>0.4597222222222222</v>
       </c>
@@ -14807,7 +14918,7 @@
       <c r="BX120" s="11"/>
       <c r="CN120" s="3"/>
     </row>
-    <row r="121" spans="5:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E121" s="19">
         <v>0.46458333333333335</v>
       </c>
@@ -14841,7 +14952,7 @@
       <c r="BX121" s="11"/>
       <c r="CN121" s="3"/>
     </row>
-    <row r="122" spans="5:92" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:92" x14ac:dyDescent="0.3">
       <c r="E122" s="19">
         <v>0.46666666666666662</v>
       </c>
@@ -14875,7 +14986,7 @@
       <c r="BX122" s="11"/>
       <c r="CN122" s="3"/>
     </row>
-    <row r="123" spans="5:92" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:92" x14ac:dyDescent="0.3">
       <c r="E123" s="19">
         <v>0.4680555555555555</v>
       </c>
@@ -14912,7 +15023,7 @@
       <c r="BX123" s="11"/>
       <c r="CN123" s="3"/>
     </row>
-    <row r="124" spans="5:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F124" s="26" t="s">
         <v>47</v>
       </c>
@@ -14946,7 +15057,7 @@
       <c r="BX124" s="11"/>
       <c r="CN124" s="3"/>
     </row>
-    <row r="125" spans="5:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F125" s="26" t="s">
         <v>47</v>
       </c>
@@ -14977,7 +15088,7 @@
       <c r="BX125" s="11"/>
       <c r="CN125" s="3"/>
     </row>
-    <row r="126" spans="5:92" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:92" ht="15" x14ac:dyDescent="0.25">
       <c r="E126" s="19">
         <v>0.50277777777777777</v>
       </c>
@@ -15011,7 +15122,7 @@
       <c r="BX126" s="11"/>
       <c r="CN126" s="3"/>
     </row>
-    <row r="127" spans="5:92" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:92" ht="15" x14ac:dyDescent="0.25">
       <c r="E127" s="19">
         <v>0.50347222222222221</v>
       </c>
@@ -15045,7 +15156,7 @@
       <c r="BX127" s="11"/>
       <c r="CN127" s="3"/>
     </row>
-    <row r="128" spans="5:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E128" s="19">
         <v>0.51388888888888895</v>
       </c>
@@ -15082,7 +15193,7 @@
       <c r="BX128" s="11"/>
       <c r="CN128" s="3"/>
     </row>
-    <row r="129" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:93" x14ac:dyDescent="0.3">
       <c r="E129" s="19">
         <v>0.56041666666666667</v>
       </c>
@@ -15119,7 +15230,7 @@
       <c r="BX129" s="11"/>
       <c r="CN129" s="3"/>
     </row>
-    <row r="130" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:93" ht="15" x14ac:dyDescent="0.25">
       <c r="F130" s="26" t="s">
         <v>47</v>
       </c>
@@ -15127,7 +15238,7 @@
       <c r="BX130" s="11"/>
       <c r="CN130" s="3"/>
     </row>
-    <row r="131" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:93" x14ac:dyDescent="0.3">
       <c r="E131" s="19">
         <v>0.57777777777777783</v>
       </c>
@@ -15141,8 +15252,8 @@
       <c r="BX131" s="11"/>
       <c r="CN131" s="3"/>
     </row>
-    <row r="132" spans="1:93" ht="45" x14ac:dyDescent="0.25">
-      <c r="D132" s="167" t="s">
+    <row r="132" spans="1:93" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D132" s="235" t="s">
         <v>299</v>
       </c>
       <c r="E132" s="19">
@@ -15185,8 +15296,8 @@
       <c r="BX132" s="11"/>
       <c r="CN132" s="3"/>
     </row>
-    <row r="133" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D133" s="167"/>
+    <row r="133" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="D133" s="235"/>
       <c r="F133" s="26" t="s">
         <v>47</v>
       </c>
@@ -15195,7 +15306,7 @@
       <c r="BX133" s="11"/>
       <c r="CN133" s="3"/>
     </row>
-    <row r="134" spans="1:93" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:93" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>43657</v>
       </c>
@@ -15205,7 +15316,7 @@
       <c r="C134" s="25">
         <v>70</v>
       </c>
-      <c r="D134" s="167"/>
+      <c r="D134" s="235"/>
       <c r="F134" s="26">
         <v>54363</v>
       </c>
@@ -15249,7 +15360,7 @@
       <c r="BX134" s="11"/>
       <c r="CN134" s="3"/>
     </row>
-    <row r="135" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>43657</v>
       </c>
@@ -15259,7 +15370,7 @@
       <c r="C135" s="25">
         <v>70</v>
       </c>
-      <c r="D135" s="167"/>
+      <c r="D135" s="235"/>
       <c r="F135" s="26">
         <v>54368</v>
       </c>
@@ -15306,7 +15417,7 @@
       <c r="BX135" s="11"/>
       <c r="CN135" s="3"/>
     </row>
-    <row r="136" spans="1:93" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:93" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>43657</v>
       </c>
@@ -15316,7 +15427,7 @@
       <c r="C136" s="25">
         <v>70</v>
       </c>
-      <c r="D136" s="167"/>
+      <c r="D136" s="235"/>
       <c r="F136" s="26">
         <v>54370</v>
       </c>
@@ -15366,7 +15477,7 @@
       <c r="BX136" s="11"/>
       <c r="CN136" s="3"/>
     </row>
-    <row r="137" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>43657</v>
       </c>
@@ -15376,7 +15487,7 @@
       <c r="C137" s="25">
         <v>70</v>
       </c>
-      <c r="D137" s="167"/>
+      <c r="D137" s="235"/>
       <c r="F137" s="26">
         <v>54371</v>
       </c>
@@ -15423,7 +15534,7 @@
       <c r="BX137" s="11"/>
       <c r="CN137" s="3"/>
     </row>
-    <row r="138" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>43657</v>
       </c>
@@ -15433,7 +15544,7 @@
       <c r="C138" s="25">
         <v>70</v>
       </c>
-      <c r="D138" s="167"/>
+      <c r="D138" s="235"/>
       <c r="F138" s="26">
         <v>54372</v>
       </c>
@@ -15480,7 +15591,7 @@
       <c r="BX138" s="11"/>
       <c r="CN138" s="3"/>
     </row>
-    <row r="139" spans="1:93" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:93" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>43657</v>
       </c>
@@ -15490,7 +15601,7 @@
       <c r="C139" s="25">
         <v>70</v>
       </c>
-      <c r="D139" s="167"/>
+      <c r="D139" s="235"/>
       <c r="F139" s="26">
         <v>54373</v>
       </c>
@@ -15538,7 +15649,7 @@
       <c r="BX139" s="11"/>
       <c r="CN139" s="3"/>
     </row>
-    <row r="140" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>43657</v>
       </c>
@@ -15548,7 +15659,7 @@
       <c r="C140" s="25">
         <v>70</v>
       </c>
-      <c r="D140" s="167"/>
+      <c r="D140" s="235"/>
       <c r="F140" s="26">
         <v>54374</v>
       </c>
@@ -15595,7 +15706,7 @@
       <c r="BX140" s="11"/>
       <c r="CN140" s="3"/>
     </row>
-    <row r="141" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>43657</v>
       </c>
@@ -15605,7 +15716,7 @@
       <c r="C141" s="25">
         <v>70</v>
       </c>
-      <c r="D141" s="167"/>
+      <c r="D141" s="235"/>
       <c r="F141" s="26">
         <v>54375</v>
       </c>
@@ -15652,11 +15763,11 @@
       <c r="BX141" s="11"/>
       <c r="CN141" s="3"/>
     </row>
-    <row r="142" spans="1:93" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:93" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="39"/>
       <c r="B142" s="40"/>
       <c r="C142" s="40"/>
-      <c r="D142" s="167"/>
+      <c r="D142" s="235"/>
       <c r="E142" s="41"/>
       <c r="F142" s="42"/>
       <c r="G142" s="42"/>
@@ -15731,7 +15842,7 @@
       <c r="BY142" s="43"/>
       <c r="CO142" s="7"/>
     </row>
-    <row r="143" spans="1:93" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:93" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>43657</v>
       </c>
@@ -15741,7 +15852,7 @@
       <c r="C143" s="25">
         <v>70</v>
       </c>
-      <c r="D143" s="167"/>
+      <c r="D143" s="235"/>
       <c r="F143" s="26">
         <v>54384</v>
       </c>
@@ -15791,7 +15902,7 @@
       <c r="BX143" s="11"/>
       <c r="CN143" s="3"/>
     </row>
-    <row r="144" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>43657</v>
       </c>
@@ -15801,7 +15912,7 @@
       <c r="C144" s="25">
         <v>70</v>
       </c>
-      <c r="D144" s="167"/>
+      <c r="D144" s="235"/>
       <c r="F144" s="26">
         <v>54386</v>
       </c>
@@ -15846,7 +15957,7 @@
       <c r="BX144" s="11"/>
       <c r="CN144" s="3"/>
     </row>
-    <row r="145" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>43657</v>
       </c>
@@ -15856,7 +15967,7 @@
       <c r="C145" s="25">
         <v>70</v>
       </c>
-      <c r="D145" s="167"/>
+      <c r="D145" s="235"/>
       <c r="E145" s="56"/>
       <c r="F145" s="26">
         <v>54387</v>
@@ -15907,7 +16018,7 @@
       <c r="BX145" s="11"/>
       <c r="CN145" s="3"/>
     </row>
-    <row r="146" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>43657</v>
       </c>
@@ -15917,7 +16028,7 @@
       <c r="C146" s="25">
         <v>70</v>
       </c>
-      <c r="D146" s="167"/>
+      <c r="D146" s="235"/>
       <c r="E146" s="56"/>
       <c r="F146" s="26">
         <v>54388</v>
@@ -15968,7 +16079,7 @@
       <c r="BX146" s="11"/>
       <c r="CN146" s="3"/>
     </row>
-    <row r="147" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>43657</v>
       </c>
@@ -15978,7 +16089,7 @@
       <c r="C147" s="25">
         <v>70</v>
       </c>
-      <c r="D147" s="167"/>
+      <c r="D147" s="235"/>
       <c r="E147" s="56"/>
       <c r="F147" s="26">
         <v>54389</v>
@@ -16029,7 +16140,7 @@
       <c r="BX147" s="11"/>
       <c r="CN147" s="3"/>
     </row>
-    <row r="148" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>43657</v>
       </c>
@@ -16039,7 +16150,7 @@
       <c r="C148" s="25">
         <v>70</v>
       </c>
-      <c r="D148" s="167"/>
+      <c r="D148" s="235"/>
       <c r="F148" s="26">
         <v>54390</v>
       </c>
@@ -16086,7 +16197,7 @@
       <c r="BX148" s="11"/>
       <c r="CN148" s="3"/>
     </row>
-    <row r="149" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>43657</v>
       </c>
@@ -16096,7 +16207,7 @@
       <c r="C149" s="25">
         <v>70</v>
       </c>
-      <c r="D149" s="167"/>
+      <c r="D149" s="235"/>
       <c r="F149" s="26">
         <v>54391</v>
       </c>
@@ -16140,7 +16251,7 @@
       <c r="BX149" s="11"/>
       <c r="CN149" s="3"/>
     </row>
-    <row r="150" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>43657</v>
       </c>
@@ -16150,7 +16261,7 @@
       <c r="C150" s="25">
         <v>70</v>
       </c>
-      <c r="D150" s="167"/>
+      <c r="D150" s="235"/>
       <c r="F150" s="26">
         <v>54394</v>
       </c>
@@ -16198,7 +16309,7 @@
       <c r="BX150" s="11"/>
       <c r="CN150" s="3"/>
     </row>
-    <row r="151" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>43657</v>
       </c>
@@ -16208,7 +16319,7 @@
       <c r="C151" s="25">
         <v>70</v>
       </c>
-      <c r="D151" s="167"/>
+      <c r="D151" s="235"/>
       <c r="F151" s="26">
         <v>54395</v>
       </c>
@@ -16257,8 +16368,8 @@
       <c r="BX151" s="11"/>
       <c r="CN151" s="3"/>
     </row>
-    <row r="152" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="D152" s="167"/>
+    <row r="152" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="D152" s="235"/>
       <c r="F152" s="26">
         <v>54396</v>
       </c>
@@ -16301,8 +16412,8 @@
       <c r="BX152" s="11"/>
       <c r="CN152" s="3"/>
     </row>
-    <row r="153" spans="1:92" ht="45" x14ac:dyDescent="0.25">
-      <c r="D153" s="167"/>
+    <row r="153" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D153" s="235"/>
       <c r="E153" s="19">
         <v>0.70277777777777783</v>
       </c>
@@ -16340,8 +16451,8 @@
       <c r="BX153" s="11"/>
       <c r="CN153" s="3"/>
     </row>
-    <row r="154" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="D154" s="167"/>
+    <row r="154" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="D154" s="235"/>
       <c r="E154" s="19">
         <v>0.7090277777777777</v>
       </c>
@@ -16379,7 +16490,7 @@
       <c r="BX154" s="11"/>
       <c r="CN154" s="3"/>
     </row>
-    <row r="155" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>43657</v>
       </c>
@@ -16389,7 +16500,7 @@
       <c r="C155" s="25">
         <v>70</v>
       </c>
-      <c r="D155" s="167"/>
+      <c r="D155" s="235"/>
       <c r="F155" s="26">
         <v>54397</v>
       </c>
@@ -16439,7 +16550,7 @@
       <c r="BX155" s="11"/>
       <c r="CN155" s="3"/>
     </row>
-    <row r="156" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>43657</v>
       </c>
@@ -16449,7 +16560,7 @@
       <c r="C156" s="25">
         <v>70</v>
       </c>
-      <c r="D156" s="167"/>
+      <c r="D156" s="235"/>
       <c r="F156" s="26">
         <v>54398</v>
       </c>
@@ -16494,7 +16605,7 @@
       <c r="BX156" s="11"/>
       <c r="CN156" s="3"/>
     </row>
-    <row r="157" spans="1:92" s="129" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:92" s="129" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="124"/>
       <c r="B157" s="125"/>
       <c r="C157" s="125"/>
@@ -16572,7 +16683,7 @@
       <c r="BX157" s="131"/>
       <c r="BY157" s="128"/>
     </row>
-    <row r="158" spans="1:92" s="129" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:92" s="129" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="124"/>
       <c r="B158" s="125"/>
       <c r="C158" s="125"/>
@@ -16650,7 +16761,7 @@
       <c r="BX158" s="131"/>
       <c r="BY158" s="128"/>
     </row>
-    <row r="159" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>43662</v>
       </c>
@@ -16660,7 +16771,7 @@
       <c r="C159" s="25">
         <v>70</v>
       </c>
-      <c r="D159" s="167" t="s">
+      <c r="D159" s="235" t="s">
         <v>412</v>
       </c>
       <c r="E159" s="19">
@@ -16756,7 +16867,7 @@
       </c>
       <c r="CN159" s="3"/>
     </row>
-    <row r="160" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>43662</v>
       </c>
@@ -16766,7 +16877,7 @@
       <c r="C160" s="25">
         <v>70</v>
       </c>
-      <c r="D160" s="167"/>
+      <c r="D160" s="235"/>
       <c r="E160" s="19">
         <v>0.375</v>
       </c>
@@ -16869,7 +16980,7 @@
       </c>
       <c r="CN160" s="3"/>
     </row>
-    <row r="161" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>43662</v>
       </c>
@@ -16879,7 +16990,7 @@
       <c r="C161" s="25">
         <v>70</v>
       </c>
-      <c r="D161" s="167"/>
+      <c r="D161" s="235"/>
       <c r="E161" s="19">
         <v>0.44166666666666665</v>
       </c>
@@ -16976,7 +17087,7 @@
       <c r="BX161" s="11"/>
       <c r="CN161" s="3"/>
     </row>
-    <row r="162" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>43662</v>
       </c>
@@ -16986,7 +17097,7 @@
       <c r="C162" s="25">
         <v>70</v>
       </c>
-      <c r="D162" s="167"/>
+      <c r="D162" s="235"/>
       <c r="E162" s="19">
         <v>0.45902777777777781</v>
       </c>
@@ -17089,7 +17200,7 @@
       </c>
       <c r="CN162" s="3"/>
     </row>
-    <row r="163" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>43662</v>
       </c>
@@ -17099,7 +17210,7 @@
       <c r="C163" s="25">
         <v>70</v>
       </c>
-      <c r="D163" s="167"/>
+      <c r="D163" s="235"/>
       <c r="F163" s="26">
         <v>54405</v>
       </c>
@@ -17210,7 +17321,7 @@
       </c>
       <c r="CN163" s="3"/>
     </row>
-    <row r="164" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>43662</v>
       </c>
@@ -17220,7 +17331,7 @@
       <c r="C164" s="25">
         <v>70</v>
       </c>
-      <c r="D164" s="167"/>
+      <c r="D164" s="235"/>
       <c r="F164" s="26">
         <v>54406</v>
       </c>
@@ -17325,7 +17436,7 @@
       </c>
       <c r="CN164" s="3"/>
     </row>
-    <row r="165" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>43662</v>
       </c>
@@ -17335,7 +17446,7 @@
       <c r="C165" s="25">
         <v>70</v>
       </c>
-      <c r="D165" s="167"/>
+      <c r="D165" s="235"/>
       <c r="F165" s="26">
         <v>54407</v>
       </c>
@@ -17449,7 +17560,7 @@
       </c>
       <c r="CN165" s="3"/>
     </row>
-    <row r="166" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>43662</v>
       </c>
@@ -17459,7 +17570,7 @@
       <c r="C166" s="25">
         <v>70</v>
       </c>
-      <c r="D166" s="167"/>
+      <c r="D166" s="235"/>
       <c r="F166" s="26">
         <v>54408</v>
       </c>
@@ -17570,7 +17681,7 @@
       </c>
       <c r="CN166" s="3"/>
     </row>
-    <row r="167" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>43662</v>
       </c>
@@ -17580,7 +17691,7 @@
       <c r="C167" s="25">
         <v>70</v>
       </c>
-      <c r="D167" s="167"/>
+      <c r="D167" s="235"/>
       <c r="F167" s="26">
         <v>54409</v>
       </c>
@@ -17688,7 +17799,7 @@
       </c>
       <c r="CN167" s="3"/>
     </row>
-    <row r="168" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>43662</v>
       </c>
@@ -17698,7 +17809,7 @@
       <c r="C168" s="25">
         <v>70</v>
       </c>
-      <c r="D168" s="167"/>
+      <c r="D168" s="235"/>
       <c r="F168" s="26">
         <v>54410</v>
       </c>
@@ -17806,7 +17917,7 @@
       </c>
       <c r="CN168" s="3"/>
     </row>
-    <row r="169" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>43662</v>
       </c>
@@ -17816,7 +17927,7 @@
       <c r="C169" s="25">
         <v>70</v>
       </c>
-      <c r="D169" s="167"/>
+      <c r="D169" s="235"/>
       <c r="F169" s="26">
         <v>54411</v>
       </c>
@@ -17930,7 +18041,7 @@
       </c>
       <c r="CN169" s="3"/>
     </row>
-    <row r="170" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>43662</v>
       </c>
@@ -17940,7 +18051,7 @@
       <c r="C170" s="25">
         <v>70</v>
       </c>
-      <c r="D170" s="167"/>
+      <c r="D170" s="235"/>
       <c r="F170" s="26">
         <v>54412</v>
       </c>
@@ -18091,7 +18202,7 @@
       <c r="BX170" s="11"/>
       <c r="CN170" s="3"/>
     </row>
-    <row r="171" spans="1:93" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:93" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>43662</v>
       </c>
@@ -18101,7 +18212,7 @@
       <c r="C171" s="25">
         <v>70</v>
       </c>
-      <c r="D171" s="167"/>
+      <c r="D171" s="235"/>
       <c r="F171" s="26">
         <v>54413</v>
       </c>
@@ -18257,7 +18368,7 @@
       </c>
       <c r="CN171" s="3"/>
     </row>
-    <row r="172" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>43662</v>
       </c>
@@ -18267,7 +18378,7 @@
       <c r="C172" s="25">
         <v>70</v>
       </c>
-      <c r="D172" s="167"/>
+      <c r="D172" s="235"/>
       <c r="F172" s="26">
         <v>54414</v>
       </c>
@@ -18425,7 +18536,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="173" spans="1:93" s="97" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:93" s="97" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="88">
         <v>43662</v>
       </c>
@@ -18435,7 +18546,7 @@
       <c r="C173" s="89">
         <v>70</v>
       </c>
-      <c r="D173" s="167"/>
+      <c r="D173" s="235"/>
       <c r="E173" s="90"/>
       <c r="F173" s="91">
         <v>54415</v>
@@ -18791,7 +18902,7 @@
       </c>
       <c r="CN175" s="3"/>
     </row>
-    <row r="176" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F176" s="26">
         <v>54418</v>
       </c>
@@ -18984,7 +19095,7 @@
       <c r="BY177" s="77"/>
       <c r="CO177" s="7"/>
     </row>
-    <row r="178" spans="1:93" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:93" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>43663</v>
       </c>
@@ -18994,7 +19105,7 @@
       <c r="C178" s="25">
         <v>70</v>
       </c>
-      <c r="D178" s="167" t="s">
+      <c r="D178" s="235" t="s">
         <v>424</v>
       </c>
       <c r="E178" s="19">
@@ -19152,7 +19263,7 @@
       </c>
       <c r="CN178" s="3"/>
     </row>
-    <row r="179" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>43663</v>
       </c>
@@ -19162,7 +19273,7 @@
       <c r="C179" s="25">
         <v>70</v>
       </c>
-      <c r="D179" s="167"/>
+      <c r="D179" s="235"/>
       <c r="E179" s="19">
         <v>0.46527777777777773</v>
       </c>
@@ -19270,7 +19381,7 @@
       </c>
       <c r="CN179" s="3"/>
     </row>
-    <row r="180" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>43663</v>
       </c>
@@ -19280,7 +19391,7 @@
       <c r="C180" s="25">
         <v>70</v>
       </c>
-      <c r="D180" s="167"/>
+      <c r="D180" s="235"/>
       <c r="E180" s="19">
         <v>0.47152777777777777</v>
       </c>
@@ -19382,7 +19493,7 @@
       </c>
       <c r="CN180" s="3"/>
     </row>
-    <row r="181" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>43663</v>
       </c>
@@ -19392,7 +19503,7 @@
       <c r="C181" s="25">
         <v>70</v>
       </c>
-      <c r="D181" s="167"/>
+      <c r="D181" s="235"/>
       <c r="E181" s="19">
         <v>0.48472222222222222</v>
       </c>
@@ -19500,7 +19611,7 @@
       </c>
       <c r="CN181" s="3"/>
     </row>
-    <row r="182" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>43663</v>
       </c>
@@ -19510,7 +19621,7 @@
       <c r="C182" s="25">
         <v>70</v>
       </c>
-      <c r="D182" s="167"/>
+      <c r="D182" s="235"/>
       <c r="E182" s="19">
         <v>0.64583333333333337</v>
       </c>
@@ -19612,7 +19723,7 @@
       </c>
       <c r="CN182" s="3"/>
     </row>
-    <row r="183" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>43663</v>
       </c>
@@ -19622,7 +19733,7 @@
       <c r="C183" s="25">
         <v>70</v>
       </c>
-      <c r="D183" s="167"/>
+      <c r="D183" s="235"/>
       <c r="E183" s="19">
         <v>0.65833333333333333</v>
       </c>
@@ -19719,7 +19830,7 @@
       </c>
       <c r="CN183" s="3"/>
     </row>
-    <row r="184" spans="1:93" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:93" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>43663</v>
       </c>
@@ -19729,7 +19840,7 @@
       <c r="C184" s="25">
         <v>70</v>
       </c>
-      <c r="D184" s="167"/>
+      <c r="D184" s="235"/>
       <c r="E184" s="19">
         <v>0.6791666666666667</v>
       </c>
@@ -19837,7 +19948,7 @@
       </c>
       <c r="CN184" s="3"/>
     </row>
-    <row r="185" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>43663</v>
       </c>
@@ -19847,7 +19958,7 @@
       <c r="C185" s="25">
         <v>70</v>
       </c>
-      <c r="D185" s="167"/>
+      <c r="D185" s="235"/>
       <c r="E185" s="19">
         <v>0.69166666666666676</v>
       </c>
@@ -19952,7 +20063,7 @@
       </c>
       <c r="CN185" s="3"/>
     </row>
-    <row r="186" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>43663</v>
       </c>
@@ -19962,7 +20073,7 @@
       <c r="C186" s="25">
         <v>70</v>
       </c>
-      <c r="D186" s="167"/>
+      <c r="D186" s="235"/>
       <c r="E186" s="19">
         <v>0.70347222222222217</v>
       </c>
@@ -20053,7 +20164,7 @@
       <c r="BX186" s="11"/>
       <c r="CN186" s="3"/>
     </row>
-    <row r="187" spans="1:93" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:93" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>43663</v>
       </c>
@@ -20063,7 +20174,7 @@
       <c r="C187" s="25">
         <v>70</v>
       </c>
-      <c r="D187" s="167"/>
+      <c r="D187" s="235"/>
       <c r="F187" s="26">
         <v>54433</v>
       </c>
@@ -20163,7 +20274,7 @@
       <c r="BX187" s="11"/>
       <c r="CN187" s="3"/>
     </row>
-    <row r="188" spans="1:93" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:93" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>43663</v>
       </c>
@@ -20173,7 +20284,7 @@
       <c r="C188" s="25">
         <v>70</v>
       </c>
-      <c r="D188" s="167"/>
+      <c r="D188" s="235"/>
       <c r="F188" s="26">
         <v>54434</v>
       </c>
@@ -20278,7 +20389,7 @@
       </c>
       <c r="CN188" s="3"/>
     </row>
-    <row r="189" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>43663</v>
       </c>
@@ -20288,7 +20399,7 @@
       <c r="C189" s="25">
         <v>70</v>
       </c>
-      <c r="D189" s="167"/>
+      <c r="D189" s="235"/>
       <c r="F189" s="26">
         <v>54435</v>
       </c>
@@ -20385,7 +20496,7 @@
       </c>
       <c r="CN189" s="3"/>
     </row>
-    <row r="190" spans="1:93" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:93" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>43663</v>
       </c>
@@ -20395,7 +20506,7 @@
       <c r="C190" s="25">
         <v>70</v>
       </c>
-      <c r="D190" s="167"/>
+      <c r="D190" s="235"/>
       <c r="F190" s="26">
         <v>54436</v>
       </c>
@@ -20619,7 +20730,7 @@
       <c r="BY191" s="77"/>
       <c r="CO191" s="7"/>
     </row>
-    <row r="192" spans="1:93" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:93" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>43664</v>
       </c>
@@ -20629,7 +20740,7 @@
       <c r="C192" s="25">
         <v>70</v>
       </c>
-      <c r="D192" s="167" t="s">
+      <c r="D192" s="235" t="s">
         <v>465</v>
       </c>
       <c r="E192" s="19">
@@ -20745,7 +20856,7 @@
       </c>
       <c r="CN192" s="3"/>
     </row>
-    <row r="193" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>43664</v>
       </c>
@@ -20755,7 +20866,7 @@
       <c r="C193" s="25">
         <v>70</v>
       </c>
-      <c r="D193" s="167"/>
+      <c r="D193" s="235"/>
       <c r="E193" s="71">
         <v>0.3756944444444445</v>
       </c>
@@ -20879,7 +20990,7 @@
       </c>
       <c r="CN193" s="3"/>
     </row>
-    <row r="194" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>43664</v>
       </c>
@@ -20889,7 +21000,7 @@
       <c r="C194" s="25">
         <v>70</v>
       </c>
-      <c r="D194" s="167"/>
+      <c r="D194" s="235"/>
       <c r="E194" s="71">
         <v>0.4055555555555555</v>
       </c>
@@ -21013,7 +21124,7 @@
       </c>
       <c r="CN194" s="3"/>
     </row>
-    <row r="195" spans="1:92" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:92" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>43664</v>
       </c>
@@ -21023,7 +21134,7 @@
       <c r="C195" s="25">
         <v>70</v>
       </c>
-      <c r="D195" s="167"/>
+      <c r="D195" s="235"/>
       <c r="E195" s="71">
         <v>0.42222222222222222</v>
       </c>
@@ -21181,7 +21292,7 @@
       </c>
       <c r="CN195" s="3"/>
     </row>
-    <row r="196" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>43664</v>
       </c>
@@ -21191,7 +21302,7 @@
       <c r="C196" s="25">
         <v>70</v>
       </c>
-      <c r="D196" s="167"/>
+      <c r="D196" s="235"/>
       <c r="E196" s="71">
         <v>0.44236111111111115</v>
       </c>
@@ -21299,7 +21410,7 @@
       </c>
       <c r="CN196" s="3"/>
     </row>
-    <row r="197" spans="1:92" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:92" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>43664</v>
       </c>
@@ -21309,7 +21420,7 @@
       <c r="C197" s="25">
         <v>70</v>
       </c>
-      <c r="D197" s="167"/>
+      <c r="D197" s="235"/>
       <c r="E197" s="71">
         <v>0.46597222222222223</v>
       </c>
@@ -21426,7 +21537,7 @@
       <c r="BY197" s="11"/>
       <c r="CN197" s="3"/>
     </row>
-    <row r="198" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>43664</v>
       </c>
@@ -21436,7 +21547,7 @@
       <c r="C198" s="25">
         <v>70</v>
       </c>
-      <c r="D198" s="167"/>
+      <c r="D198" s="235"/>
       <c r="E198" s="71">
         <v>0.48680555555555555</v>
       </c>
@@ -21547,7 +21658,7 @@
       </c>
       <c r="CN198" s="3"/>
     </row>
-    <row r="199" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>43664</v>
       </c>
@@ -21557,7 +21668,7 @@
       <c r="C199" s="25">
         <v>70</v>
       </c>
-      <c r="D199" s="167"/>
+      <c r="D199" s="235"/>
       <c r="E199" s="71">
         <v>0.50208333333333333</v>
       </c>
@@ -21673,7 +21784,7 @@
       </c>
       <c r="CN199" s="3"/>
     </row>
-    <row r="200" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>43664</v>
       </c>
@@ -21683,7 +21794,7 @@
       <c r="C200" s="25">
         <v>70</v>
       </c>
-      <c r="D200" s="167"/>
+      <c r="D200" s="235"/>
       <c r="E200" s="71">
         <v>0.52638888888888891</v>
       </c>
@@ -21799,7 +21910,7 @@
       </c>
       <c r="CN200" s="3"/>
     </row>
-    <row r="201" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>43664</v>
       </c>
@@ -21809,7 +21920,7 @@
       <c r="C201" s="25">
         <v>70</v>
       </c>
-      <c r="D201" s="167"/>
+      <c r="D201" s="235"/>
       <c r="E201" s="71">
         <v>0.54375000000000007</v>
       </c>
@@ -21923,7 +22034,7 @@
       </c>
       <c r="CN201" s="3"/>
     </row>
-    <row r="202" spans="1:92" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:92" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>43664</v>
       </c>
@@ -21933,7 +22044,7 @@
       <c r="C202" s="25">
         <v>70</v>
       </c>
-      <c r="D202" s="167"/>
+      <c r="D202" s="235"/>
       <c r="E202" s="71">
         <v>0.56388888888888888</v>
       </c>
@@ -22091,7 +22202,7 @@
       </c>
       <c r="CN202" s="3"/>
     </row>
-    <row r="203" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>43664</v>
       </c>
@@ -22101,7 +22212,7 @@
       <c r="C203" s="25">
         <v>70</v>
       </c>
-      <c r="D203" s="167"/>
+      <c r="D203" s="235"/>
       <c r="E203" s="71">
         <v>0.58263888888888882</v>
       </c>
@@ -22260,7 +22371,7 @@
       </c>
       <c r="CN203" s="3"/>
     </row>
-    <row r="204" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>43664</v>
       </c>
@@ -22270,7 +22381,7 @@
       <c r="C204" s="25">
         <v>70</v>
       </c>
-      <c r="D204" s="167"/>
+      <c r="D204" s="235"/>
       <c r="E204" s="71">
         <v>0.60347222222222219</v>
       </c>
@@ -22420,7 +22531,7 @@
       </c>
       <c r="CN204" s="3"/>
     </row>
-    <row r="205" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>43664</v>
       </c>
@@ -22430,7 +22541,7 @@
       <c r="C205" s="25">
         <v>70</v>
       </c>
-      <c r="D205" s="167"/>
+      <c r="D205" s="235"/>
       <c r="E205" s="71">
         <v>0.62430555555555556</v>
       </c>
@@ -22584,7 +22695,7 @@
       <c r="BY205" s="11"/>
       <c r="CN205" s="3"/>
     </row>
-    <row r="206" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>43664</v>
       </c>
@@ -22594,7 +22705,7 @@
       <c r="C206" s="25">
         <v>70</v>
       </c>
-      <c r="D206" s="167"/>
+      <c r="D206" s="235"/>
       <c r="E206" s="71">
         <v>0.65208333333333335</v>
       </c>
@@ -22754,7 +22865,7 @@
       </c>
       <c r="CN206" s="3"/>
     </row>
-    <row r="207" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>43664</v>
       </c>
@@ -22764,7 +22875,7 @@
       <c r="C207" s="25">
         <v>70</v>
       </c>
-      <c r="D207" s="167"/>
+      <c r="D207" s="235"/>
       <c r="E207" s="71">
         <v>0.67222222222222217</v>
       </c>
@@ -22872,7 +22983,7 @@
       <c r="BY207" s="11"/>
       <c r="CN207" s="3"/>
     </row>
-    <row r="208" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>43664</v>
       </c>
@@ -22882,7 +22993,7 @@
       <c r="C208" s="25">
         <v>70</v>
       </c>
-      <c r="D208" s="167"/>
+      <c r="D208" s="235"/>
       <c r="E208" s="71">
         <v>0.68819444444444444</v>
       </c>
@@ -22980,7 +23091,7 @@
       <c r="BY208" s="11"/>
       <c r="CN208" s="3"/>
     </row>
-    <row r="209" spans="1:93" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:93" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>43664</v>
       </c>
@@ -22990,7 +23101,7 @@
       <c r="C209" s="25">
         <v>70</v>
       </c>
-      <c r="D209" s="167"/>
+      <c r="D209" s="235"/>
       <c r="E209" s="19">
         <v>0.70277777777777783</v>
       </c>
@@ -23089,7 +23200,7 @@
       </c>
       <c r="CN209" s="3"/>
     </row>
-    <row r="210" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>43664</v>
       </c>
@@ -23099,7 +23210,7 @@
       <c r="C210" s="25">
         <v>70</v>
       </c>
-      <c r="D210" s="167"/>
+      <c r="D210" s="235"/>
       <c r="E210" s="19">
         <v>0.71805555555555556</v>
       </c>
@@ -23207,7 +23318,7 @@
       </c>
       <c r="CN210" s="3"/>
     </row>
-    <row r="211" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>43664</v>
       </c>
@@ -23217,7 +23328,7 @@
       <c r="C211" s="25">
         <v>70</v>
       </c>
-      <c r="D211" s="167"/>
+      <c r="D211" s="235"/>
       <c r="E211" s="71">
         <v>0.72986111111111107</v>
       </c>
@@ -23322,7 +23433,7 @@
       </c>
       <c r="CN211" s="3"/>
     </row>
-    <row r="212" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>43664</v>
       </c>
@@ -23332,7 +23443,7 @@
       <c r="C212" s="25">
         <v>70</v>
       </c>
-      <c r="D212" s="167"/>
+      <c r="D212" s="235"/>
       <c r="E212" s="71">
         <v>0.74930555555555556</v>
       </c>
@@ -23443,7 +23554,7 @@
       </c>
       <c r="CN212" s="3"/>
     </row>
-    <row r="213" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>43664</v>
       </c>
@@ -23453,7 +23564,7 @@
       <c r="C213" s="25">
         <v>70</v>
       </c>
-      <c r="D213" s="167"/>
+      <c r="D213" s="235"/>
       <c r="E213" s="71">
         <v>0.76597222222222217</v>
       </c>
@@ -23564,7 +23675,7 @@
       </c>
       <c r="CN213" s="3"/>
     </row>
-    <row r="214" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>43664</v>
       </c>
@@ -23574,7 +23685,7 @@
       <c r="C214" s="25">
         <v>70</v>
       </c>
-      <c r="D214" s="167"/>
+      <c r="D214" s="235"/>
       <c r="E214" s="71"/>
       <c r="F214" s="26">
         <v>54461</v>
@@ -23677,7 +23788,7 @@
       </c>
       <c r="CN214" s="3"/>
     </row>
-    <row r="215" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>43664</v>
       </c>
@@ -23687,7 +23798,7 @@
       <c r="C215" s="25">
         <v>70</v>
       </c>
-      <c r="D215" s="167"/>
+      <c r="D215" s="235"/>
       <c r="E215" s="71"/>
       <c r="F215" s="26">
         <v>54462</v>
@@ -23877,7 +23988,7 @@
       <c r="BY216" s="77"/>
       <c r="CO216" s="7"/>
     </row>
-    <row r="217" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>43665</v>
       </c>
@@ -23887,7 +23998,7 @@
       <c r="C217" s="25">
         <v>70</v>
       </c>
-      <c r="D217" s="167" t="s">
+      <c r="D217" s="235" t="s">
         <v>699</v>
       </c>
       <c r="F217" s="26">
@@ -23997,7 +24108,7 @@
       </c>
       <c r="CN217" s="3"/>
     </row>
-    <row r="218" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>43665</v>
       </c>
@@ -24007,7 +24118,7 @@
       <c r="C218" s="25">
         <v>70</v>
       </c>
-      <c r="D218" s="167"/>
+      <c r="D218" s="235"/>
       <c r="E218" s="71"/>
       <c r="F218" s="26">
         <v>54469</v>
@@ -24114,7 +24225,7 @@
       </c>
       <c r="CN218" s="3"/>
     </row>
-    <row r="219" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>43665</v>
       </c>
@@ -24124,7 +24235,7 @@
       <c r="C219" s="25">
         <v>70</v>
       </c>
-      <c r="D219" s="167"/>
+      <c r="D219" s="235"/>
       <c r="E219" s="71"/>
       <c r="F219" s="26">
         <v>54470</v>
@@ -24230,7 +24341,7 @@
       </c>
       <c r="CN219" s="3"/>
     </row>
-    <row r="220" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>43665</v>
       </c>
@@ -24240,7 +24351,7 @@
       <c r="C220" s="25">
         <v>70</v>
       </c>
-      <c r="D220" s="167"/>
+      <c r="D220" s="235"/>
       <c r="E220" s="71"/>
       <c r="F220" s="26">
         <v>54471</v>
@@ -24355,7 +24466,7 @@
       </c>
       <c r="CN220" s="3"/>
     </row>
-    <row r="221" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>43665</v>
       </c>
@@ -24365,7 +24476,7 @@
       <c r="C221" s="25">
         <v>70</v>
       </c>
-      <c r="D221" s="167"/>
+      <c r="D221" s="235"/>
       <c r="E221" s="71"/>
       <c r="F221" s="26">
         <v>54472</v>
@@ -24472,7 +24583,7 @@
       </c>
       <c r="CN221" s="3"/>
     </row>
-    <row r="222" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>43665</v>
       </c>
@@ -24482,7 +24593,7 @@
       <c r="C222" s="25">
         <v>70</v>
       </c>
-      <c r="D222" s="167"/>
+      <c r="D222" s="235"/>
       <c r="E222" s="71"/>
       <c r="F222" s="26">
         <v>54473</v>
@@ -24578,7 +24689,7 @@
       <c r="BX222" s="72"/>
       <c r="CN222" s="3"/>
     </row>
-    <row r="223" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>43665</v>
       </c>
@@ -24588,7 +24699,7 @@
       <c r="C223" s="25">
         <v>70</v>
       </c>
-      <c r="D223" s="167"/>
+      <c r="D223" s="235"/>
       <c r="E223" s="71"/>
       <c r="F223" s="26">
         <v>54474</v>
@@ -24695,7 +24806,7 @@
       </c>
       <c r="CN223" s="3"/>
     </row>
-    <row r="224" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:93" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>43665</v>
       </c>
@@ -24705,7 +24816,7 @@
       <c r="C224" s="25">
         <v>70</v>
       </c>
-      <c r="D224" s="167"/>
+      <c r="D224" s="235"/>
       <c r="E224" s="71">
         <v>0.4909722222222222</v>
       </c>
@@ -24803,7 +24914,7 @@
       <c r="BX224" s="72"/>
       <c r="CN224" s="3"/>
     </row>
-    <row r="225" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>43665</v>
       </c>
@@ -24813,7 +24924,7 @@
       <c r="C225" s="25">
         <v>70</v>
       </c>
-      <c r="D225" s="167"/>
+      <c r="D225" s="235"/>
       <c r="E225" s="71">
         <v>0.5</v>
       </c>
@@ -24913,7 +25024,7 @@
       <c r="BX225" s="72"/>
       <c r="CN225" s="3"/>
     </row>
-    <row r="226" spans="1:92" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:92" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>43665</v>
       </c>
@@ -24923,7 +25034,7 @@
       <c r="C226" s="25">
         <v>70</v>
       </c>
-      <c r="D226" s="167"/>
+      <c r="D226" s="235"/>
       <c r="E226" s="71">
         <v>0.51458333333333328</v>
       </c>
@@ -25023,7 +25134,7 @@
       <c r="BX226" s="72"/>
       <c r="CN226" s="3"/>
     </row>
-    <row r="227" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>43665</v>
       </c>
@@ -25033,7 +25144,7 @@
       <c r="C227" s="25">
         <v>70</v>
       </c>
-      <c r="D227" s="167"/>
+      <c r="D227" s="235"/>
       <c r="E227" s="71"/>
       <c r="F227" s="26">
         <v>54478</v>
@@ -25298,7 +25409,7 @@
       <c r="BX229" s="128"/>
       <c r="BY229" s="128"/>
     </row>
-    <row r="230" spans="1:92" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:92" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>43669</v>
       </c>
@@ -25308,7 +25419,7 @@
       <c r="C230" s="25">
         <v>70</v>
       </c>
-      <c r="D230" s="167" t="s">
+      <c r="D230" s="235" t="s">
         <v>568</v>
       </c>
       <c r="E230" s="71">
@@ -25408,7 +25519,7 @@
       <c r="BX230" s="72"/>
       <c r="CN230" s="3"/>
     </row>
-    <row r="231" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>43669</v>
       </c>
@@ -25418,7 +25529,7 @@
       <c r="C231" s="25">
         <v>70</v>
       </c>
-      <c r="D231" s="167"/>
+      <c r="D231" s="235"/>
       <c r="E231" s="71"/>
       <c r="F231" s="26">
         <v>54504</v>
@@ -25527,7 +25638,7 @@
       </c>
       <c r="CN231" s="3"/>
     </row>
-    <row r="232" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>43669</v>
       </c>
@@ -25537,7 +25648,7 @@
       <c r="C232" s="25">
         <v>70</v>
       </c>
-      <c r="D232" s="167"/>
+      <c r="D232" s="235"/>
       <c r="E232" s="71"/>
       <c r="F232" s="26">
         <v>54505</v>
@@ -25646,7 +25757,7 @@
       </c>
       <c r="CN232" s="3"/>
     </row>
-    <row r="233" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>43669</v>
       </c>
@@ -25656,7 +25767,7 @@
       <c r="C233" s="25">
         <v>70</v>
       </c>
-      <c r="D233" s="167"/>
+      <c r="D233" s="235"/>
       <c r="E233" s="71"/>
       <c r="F233" s="26">
         <v>54506</v>
@@ -25754,7 +25865,7 @@
       <c r="BX233" s="72"/>
       <c r="CN233" s="3"/>
     </row>
-    <row r="234" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>43669</v>
       </c>
@@ -25764,7 +25875,7 @@
       <c r="C234" s="25">
         <v>70</v>
       </c>
-      <c r="D234" s="167"/>
+      <c r="D234" s="235"/>
       <c r="E234" s="71"/>
       <c r="F234" s="26">
         <v>54507</v>
@@ -25860,7 +25971,7 @@
       <c r="BX234" s="72"/>
       <c r="CN234" s="3"/>
     </row>
-    <row r="235" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>43669</v>
       </c>
@@ -25870,7 +25981,7 @@
       <c r="C235" s="25">
         <v>70</v>
       </c>
-      <c r="D235" s="167"/>
+      <c r="D235" s="235"/>
       <c r="E235" s="71"/>
       <c r="F235" s="26">
         <v>54508</v>
@@ -25981,7 +26092,7 @@
       </c>
       <c r="CN235" s="3"/>
     </row>
-    <row r="236" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>43669</v>
       </c>
@@ -25991,7 +26102,7 @@
       <c r="C236" s="25">
         <v>70</v>
       </c>
-      <c r="D236" s="167"/>
+      <c r="D236" s="235"/>
       <c r="E236" s="71"/>
       <c r="F236" s="26">
         <v>54509</v>
@@ -26102,7 +26213,7 @@
       </c>
       <c r="CN236" s="3"/>
     </row>
-    <row r="237" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:92" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>43669</v>
       </c>
@@ -26112,7 +26223,7 @@
       <c r="C237" s="25">
         <v>70</v>
       </c>
-      <c r="D237" s="167"/>
+      <c r="D237" s="235"/>
       <c r="E237" s="71"/>
       <c r="F237" s="26">
         <v>54510</v>
@@ -26210,7 +26321,7 @@
       <c r="BX237" s="72"/>
       <c r="CN237" s="3"/>
     </row>
-    <row r="238" spans="1:92" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:92" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>43669</v>
       </c>
@@ -26220,7 +26331,7 @@
       <c r="C238" s="25">
         <v>70</v>
       </c>
-      <c r="D238" s="167"/>
+      <c r="D238" s="235"/>
       <c r="E238" s="71"/>
       <c r="F238" s="26">
         <v>54511</v>
@@ -26372,7 +26483,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="239" spans="1:92" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:92" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>43669</v>
       </c>
@@ -26382,7 +26493,7 @@
       <c r="C239" s="25">
         <v>70</v>
       </c>
-      <c r="D239" s="167"/>
+      <c r="D239" s="235"/>
       <c r="F239" s="26">
         <v>54512</v>
       </c>
@@ -26537,7 +26648,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="240" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>43669</v>
       </c>
@@ -26547,7 +26658,7 @@
       <c r="C240" s="25">
         <v>70</v>
       </c>
-      <c r="D240" s="167"/>
+      <c r="D240" s="235"/>
       <c r="F240" s="26">
         <v>54513</v>
       </c>
@@ -26655,7 +26766,7 @@
       </c>
       <c r="CN240" s="3"/>
     </row>
-    <row r="241" spans="1:92" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:92" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>43669</v>
       </c>
@@ -26665,7 +26776,7 @@
       <c r="C241" s="25">
         <v>70</v>
       </c>
-      <c r="D241" s="167"/>
+      <c r="D241" s="235"/>
       <c r="F241" s="26">
         <v>54514</v>
       </c>
@@ -26776,7 +26887,7 @@
       </c>
       <c r="CN241" s="3"/>
     </row>
-    <row r="242" spans="1:92" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:92" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>43669</v>
       </c>
@@ -26786,7 +26897,7 @@
       <c r="C242" s="25">
         <v>70</v>
       </c>
-      <c r="D242" s="167"/>
+      <c r="D242" s="235"/>
       <c r="F242" s="26">
         <v>54515</v>
       </c>
@@ -26894,7 +27005,7 @@
       </c>
       <c r="CN242" s="3"/>
     </row>
-    <row r="243" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>43669</v>
       </c>
@@ -26904,7 +27015,7 @@
       <c r="C243" s="25">
         <v>70</v>
       </c>
-      <c r="D243" s="167"/>
+      <c r="D243" s="235"/>
       <c r="F243" s="26">
         <v>54516</v>
       </c>
@@ -27012,7 +27123,7 @@
       </c>
       <c r="CN243" s="3"/>
     </row>
-    <row r="244" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>43669</v>
       </c>
@@ -27022,7 +27133,7 @@
       <c r="C244" s="25">
         <v>70</v>
       </c>
-      <c r="D244" s="167"/>
+      <c r="D244" s="235"/>
       <c r="F244" s="26">
         <v>54517</v>
       </c>
@@ -27130,7 +27241,7 @@
       </c>
       <c r="CN244" s="3"/>
     </row>
-    <row r="245" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>43669</v>
       </c>
@@ -27140,7 +27251,7 @@
       <c r="C245" s="25">
         <v>70</v>
       </c>
-      <c r="D245" s="167"/>
+      <c r="D245" s="235"/>
       <c r="E245" s="113"/>
       <c r="F245" s="26">
         <v>54518</v>
@@ -27255,7 +27366,7 @@
       <c r="BX246" s="77"/>
       <c r="BY246" s="77"/>
     </row>
-    <row r="247" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>43670</v>
       </c>
@@ -27265,7 +27376,7 @@
       <c r="C247" s="25">
         <v>70</v>
       </c>
-      <c r="D247" s="167" t="s">
+      <c r="D247" s="235" t="s">
         <v>668</v>
       </c>
       <c r="F247" s="26">
@@ -27370,7 +27481,7 @@
       <c r="BX247" s="115"/>
       <c r="CN247" s="3"/>
     </row>
-    <row r="248" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>43670</v>
       </c>
@@ -27380,7 +27491,7 @@
       <c r="C248" s="25">
         <v>70</v>
       </c>
-      <c r="D248" s="167"/>
+      <c r="D248" s="235"/>
       <c r="E248" s="116"/>
       <c r="F248" s="26">
         <v>54526</v>
@@ -27490,7 +27601,7 @@
       <c r="BY248" s="117"/>
       <c r="CN248" s="3"/>
     </row>
-    <row r="249" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>43670</v>
       </c>
@@ -27500,7 +27611,7 @@
       <c r="C249" s="25">
         <v>70</v>
       </c>
-      <c r="D249" s="167"/>
+      <c r="D249" s="235"/>
       <c r="F249" s="26">
         <v>54527</v>
       </c>
@@ -27608,7 +27719,7 @@
       </c>
       <c r="CN249" s="3"/>
     </row>
-    <row r="250" spans="1:92" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:92" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>43670</v>
       </c>
@@ -27618,7 +27729,7 @@
       <c r="C250" s="25">
         <v>70</v>
       </c>
-      <c r="D250" s="167"/>
+      <c r="D250" s="235"/>
       <c r="F250" s="26">
         <v>54528</v>
       </c>
@@ -27726,7 +27837,7 @@
       </c>
       <c r="CN250" s="3"/>
     </row>
-    <row r="251" spans="1:92" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:92" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>43670</v>
       </c>
@@ -27736,7 +27847,7 @@
       <c r="C251" s="25">
         <v>70</v>
       </c>
-      <c r="D251" s="167"/>
+      <c r="D251" s="235"/>
       <c r="F251" s="26">
         <v>54529</v>
       </c>
@@ -27844,7 +27955,7 @@
       </c>
       <c r="CN251" s="3"/>
     </row>
-    <row r="252" spans="1:92" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:92" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>43670</v>
       </c>
@@ -27854,7 +27965,7 @@
       <c r="C252" s="25">
         <v>70</v>
       </c>
-      <c r="D252" s="167"/>
+      <c r="D252" s="235"/>
       <c r="F252" s="26">
         <v>54530</v>
       </c>
@@ -27962,7 +28073,7 @@
       </c>
       <c r="CN252" s="3"/>
     </row>
-    <row r="253" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>43670</v>
       </c>
@@ -27972,7 +28083,7 @@
       <c r="C253" s="25">
         <v>70</v>
       </c>
-      <c r="D253" s="167"/>
+      <c r="D253" s="235"/>
       <c r="F253" s="26">
         <v>54531</v>
       </c>
@@ -28074,7 +28185,7 @@
       </c>
       <c r="CN253" s="3"/>
     </row>
-    <row r="254" spans="1:92" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:92" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>43670</v>
       </c>
@@ -28084,7 +28195,7 @@
       <c r="C254" s="25">
         <v>70</v>
       </c>
-      <c r="D254" s="167"/>
+      <c r="D254" s="235"/>
       <c r="F254" s="26">
         <v>54532</v>
       </c>
@@ -28174,7 +28285,7 @@
       </c>
       <c r="CN254" s="3"/>
     </row>
-    <row r="255" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>43670</v>
       </c>
@@ -28184,7 +28295,7 @@
       <c r="C255" s="25">
         <v>70</v>
       </c>
-      <c r="D255" s="167"/>
+      <c r="D255" s="235"/>
       <c r="F255" s="26">
         <v>54533</v>
       </c>
@@ -28286,7 +28397,7 @@
       </c>
       <c r="CN255" s="3"/>
     </row>
-    <row r="256" spans="1:92" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:92" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>43670</v>
       </c>
@@ -28296,7 +28407,7 @@
       <c r="C256" s="25">
         <v>70</v>
       </c>
-      <c r="D256" s="167"/>
+      <c r="D256" s="235"/>
       <c r="F256" s="26">
         <v>54534</v>
       </c>
@@ -28398,7 +28509,7 @@
       </c>
       <c r="CN256" s="3"/>
     </row>
-    <row r="257" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>43670</v>
       </c>
@@ -28408,7 +28519,7 @@
       <c r="C257" s="25">
         <v>70</v>
       </c>
-      <c r="D257" s="167"/>
+      <c r="D257" s="235"/>
       <c r="F257" s="26">
         <v>54535</v>
       </c>
@@ -28507,7 +28618,7 @@
       </c>
       <c r="CN257" s="3"/>
     </row>
-    <row r="258" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>43670</v>
       </c>
@@ -28517,7 +28628,7 @@
       <c r="C258" s="25">
         <v>70</v>
       </c>
-      <c r="D258" s="167"/>
+      <c r="D258" s="235"/>
       <c r="F258" s="26">
         <v>54536</v>
       </c>
@@ -28613,7 +28724,7 @@
       </c>
       <c r="CN258" s="3"/>
     </row>
-    <row r="259" spans="1:92" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:92" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>43670</v>
       </c>
@@ -28623,7 +28734,7 @@
       <c r="C259" s="25">
         <v>70</v>
       </c>
-      <c r="D259" s="167"/>
+      <c r="D259" s="235"/>
       <c r="F259" s="26">
         <v>54537</v>
       </c>
@@ -28722,7 +28833,7 @@
       </c>
       <c r="CN259" s="3"/>
     </row>
-    <row r="260" spans="1:92" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:92" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>43670</v>
       </c>
@@ -28732,7 +28843,7 @@
       <c r="C260" s="25">
         <v>70</v>
       </c>
-      <c r="D260" s="167"/>
+      <c r="D260" s="235"/>
       <c r="F260" s="26">
         <v>54538</v>
       </c>
@@ -28840,7 +28951,7 @@
       </c>
       <c r="CN260" s="3"/>
     </row>
-    <row r="261" spans="1:92" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:92" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>43670</v>
       </c>
@@ -28850,7 +28961,7 @@
       <c r="C261" s="25">
         <v>70</v>
       </c>
-      <c r="D261" s="167"/>
+      <c r="D261" s="235"/>
       <c r="E261" s="116"/>
       <c r="F261" s="26">
         <v>54539</v>
@@ -28958,7 +29069,7 @@
       <c r="BY261" s="117"/>
       <c r="CN261" s="3"/>
     </row>
-    <row r="262" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>43670</v>
       </c>
@@ -28968,7 +29079,7 @@
       <c r="C262" s="25">
         <v>70</v>
       </c>
-      <c r="D262" s="167"/>
+      <c r="D262" s="235"/>
       <c r="F262" s="26">
         <v>54540</v>
       </c>
@@ -29114,7 +29225,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="263" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>43670</v>
       </c>
@@ -29124,7 +29235,7 @@
       <c r="C263" s="25">
         <v>70</v>
       </c>
-      <c r="D263" s="167"/>
+      <c r="D263" s="235"/>
       <c r="E263" s="116"/>
       <c r="F263" s="26">
         <v>54541</v>
@@ -29232,7 +29343,7 @@
       <c r="BY263" s="117"/>
       <c r="CN263" s="3"/>
     </row>
-    <row r="264" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>43670</v>
       </c>
@@ -29242,7 +29353,7 @@
       <c r="C264" s="25">
         <v>70</v>
       </c>
-      <c r="D264" s="167"/>
+      <c r="D264" s="235"/>
       <c r="E264" s="116"/>
       <c r="F264" s="26">
         <v>54543</v>
@@ -29294,7 +29405,7 @@
       <c r="BY264" s="117"/>
       <c r="CN264" s="3"/>
     </row>
-    <row r="265" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>43670</v>
       </c>
@@ -29304,7 +29415,7 @@
       <c r="C265" s="25">
         <v>70</v>
       </c>
-      <c r="D265" s="167"/>
+      <c r="D265" s="235"/>
       <c r="F265" s="3">
         <v>54544</v>
       </c>
@@ -29501,7 +29612,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="266" spans="1:92" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:92" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>43670</v>
       </c>
@@ -29511,7 +29622,7 @@
       <c r="C266" s="25">
         <v>70</v>
       </c>
-      <c r="D266" s="167"/>
+      <c r="D266" s="235"/>
       <c r="F266" s="26">
         <v>54545</v>
       </c>
@@ -29753,7 +29864,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="267" spans="1:92" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:92" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>43670</v>
       </c>
@@ -29763,7 +29874,7 @@
       <c r="C267" s="25">
         <v>70</v>
       </c>
-      <c r="D267" s="167"/>
+      <c r="D267" s="235"/>
       <c r="F267" s="26">
         <v>54546</v>
       </c>
@@ -30092,7 +30203,7 @@
       <c r="BX268" s="77"/>
       <c r="BY268" s="77"/>
     </row>
-    <row r="269" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>43671</v>
       </c>
@@ -30102,7 +30213,7 @@
       <c r="C269" s="25">
         <v>70</v>
       </c>
-      <c r="D269" s="167" t="s">
+      <c r="D269" s="235" t="s">
         <v>700</v>
       </c>
       <c r="F269" s="26">
@@ -30200,7 +30311,7 @@
       </c>
       <c r="CN269" s="3"/>
     </row>
-    <row r="270" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>43671</v>
       </c>
@@ -30210,7 +30321,7 @@
       <c r="C270" s="25">
         <v>70</v>
       </c>
-      <c r="D270" s="167"/>
+      <c r="D270" s="235"/>
       <c r="F270" s="26">
         <v>54555</v>
       </c>
@@ -30294,7 +30405,7 @@
       </c>
       <c r="CN270" s="3"/>
     </row>
-    <row r="271" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>43671</v>
       </c>
@@ -30304,7 +30415,7 @@
       <c r="C271" s="25">
         <v>70</v>
       </c>
-      <c r="D271" s="167"/>
+      <c r="D271" s="235"/>
       <c r="F271" s="26">
         <v>54556</v>
       </c>
@@ -30397,7 +30508,7 @@
       </c>
       <c r="CN271" s="3"/>
     </row>
-    <row r="272" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>43671</v>
       </c>
@@ -30407,7 +30518,7 @@
       <c r="C272" s="25">
         <v>70</v>
       </c>
-      <c r="D272" s="167"/>
+      <c r="D272" s="235"/>
       <c r="F272" s="26">
         <v>54557</v>
       </c>
@@ -30500,7 +30611,7 @@
       </c>
       <c r="CN272" s="3"/>
     </row>
-    <row r="273" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>43671</v>
       </c>
@@ -30510,7 +30621,7 @@
       <c r="C273" s="25">
         <v>70</v>
       </c>
-      <c r="D273" s="167"/>
+      <c r="D273" s="235"/>
       <c r="F273" s="26">
         <v>54558</v>
       </c>
@@ -30603,7 +30714,7 @@
       </c>
       <c r="CN273" s="3"/>
     </row>
-    <row r="274" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>43671</v>
       </c>
@@ -30613,7 +30724,7 @@
       <c r="C274" s="25">
         <v>70</v>
       </c>
-      <c r="D274" s="167"/>
+      <c r="D274" s="235"/>
       <c r="F274" s="26">
         <v>54563</v>
       </c>
@@ -30718,7 +30829,7 @@
       </c>
       <c r="CN274" s="3"/>
     </row>
-    <row r="275" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>43671</v>
       </c>
@@ -30728,7 +30839,7 @@
       <c r="C275" s="25">
         <v>70</v>
       </c>
-      <c r="D275" s="167"/>
+      <c r="D275" s="235"/>
       <c r="F275" s="26">
         <v>54564</v>
       </c>
@@ -30833,7 +30944,7 @@
       </c>
       <c r="CN275" s="3"/>
     </row>
-    <row r="276" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>43671</v>
       </c>
@@ -30843,7 +30954,7 @@
       <c r="C276" s="25">
         <v>70</v>
       </c>
-      <c r="D276" s="167"/>
+      <c r="D276" s="235"/>
       <c r="F276" s="26">
         <v>54565</v>
       </c>
@@ -31064,7 +31175,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="277" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>43671</v>
       </c>
@@ -31074,7 +31185,7 @@
       <c r="C277" s="25">
         <v>70</v>
       </c>
-      <c r="D277" s="167"/>
+      <c r="D277" s="235"/>
       <c r="F277" s="26">
         <v>54566</v>
       </c>
@@ -31295,7 +31406,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="278" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>43671</v>
       </c>
@@ -31305,7 +31416,7 @@
       <c r="C278" s="25">
         <v>70</v>
       </c>
-      <c r="D278" s="167"/>
+      <c r="D278" s="235"/>
       <c r="F278" s="26">
         <v>54567</v>
       </c>
@@ -31526,7 +31637,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="279" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>43671</v>
       </c>
@@ -31536,7 +31647,7 @@
       <c r="C279" s="25">
         <v>70</v>
       </c>
-      <c r="D279" s="167"/>
+      <c r="D279" s="235"/>
       <c r="F279" s="26">
         <v>54568</v>
       </c>
@@ -31763,7 +31874,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="280" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>43671</v>
       </c>
@@ -31773,7 +31884,7 @@
       <c r="C280" s="25">
         <v>70</v>
       </c>
-      <c r="D280" s="167"/>
+      <c r="D280" s="235"/>
       <c r="E280" s="120"/>
       <c r="F280" s="26">
         <v>54569</v>
@@ -31844,7 +31955,7 @@
       <c r="BY280" s="121"/>
       <c r="CN280" s="3"/>
     </row>
-    <row r="281" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>43671</v>
       </c>
@@ -31854,7 +31965,7 @@
       <c r="C281" s="25">
         <v>70</v>
       </c>
-      <c r="D281" s="167"/>
+      <c r="D281" s="235"/>
       <c r="E281" s="120"/>
       <c r="F281" s="26">
         <v>54570</v>
@@ -31923,7 +32034,7 @@
       <c r="BY281" s="121"/>
       <c r="CN281" s="3"/>
     </row>
-    <row r="282" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>43671</v>
       </c>
@@ -31933,7 +32044,7 @@
       <c r="C282" s="25">
         <v>70</v>
       </c>
-      <c r="D282" s="167"/>
+      <c r="D282" s="235"/>
       <c r="F282" s="26">
         <v>54571</v>
       </c>
@@ -32116,7 +32227,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="283" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>43671</v>
       </c>
@@ -32126,7 +32237,7 @@
       <c r="C283" s="25">
         <v>70</v>
       </c>
-      <c r="D283" s="167"/>
+      <c r="D283" s="235"/>
       <c r="E283" s="120"/>
       <c r="F283" s="26">
         <v>54572</v>
@@ -32195,7 +32306,7 @@
       <c r="BY283" s="121"/>
       <c r="CN283" s="3"/>
     </row>
-    <row r="284" spans="1:92" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:92" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>43671</v>
       </c>
@@ -32205,7 +32316,7 @@
       <c r="C284" s="25">
         <v>70</v>
       </c>
-      <c r="D284" s="167"/>
+      <c r="D284" s="235"/>
       <c r="F284" s="26">
         <v>54573</v>
       </c>
@@ -32393,7 +32504,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="285" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>43671</v>
       </c>
@@ -32403,7 +32514,7 @@
       <c r="C285" s="25">
         <v>70</v>
       </c>
-      <c r="D285" s="167"/>
+      <c r="D285" s="235"/>
       <c r="F285" s="26">
         <v>54574</v>
       </c>
@@ -32522,7 +32633,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="286" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>43671</v>
       </c>
@@ -32532,7 +32643,7 @@
       <c r="C286" s="25">
         <v>70</v>
       </c>
-      <c r="D286" s="167"/>
+      <c r="D286" s="235"/>
       <c r="F286" s="26">
         <v>54575</v>
       </c>
@@ -32765,7 +32876,7 @@
       <c r="BX287" s="77"/>
       <c r="BY287" s="77"/>
     </row>
-    <row r="288" spans="1:92" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:92" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>43672</v>
       </c>
@@ -32936,7 +33047,7 @@
       <c r="BX290" s="128"/>
       <c r="BY290" s="128"/>
     </row>
-    <row r="291" spans="1:92" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:92" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>43675</v>
       </c>
@@ -33018,7 +33129,7 @@
       </c>
       <c r="CN292" s="3"/>
     </row>
-    <row r="293" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>43675</v>
       </c>
@@ -33048,7 +33159,7 @@
       </c>
       <c r="CN293" s="3"/>
     </row>
-    <row r="294" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>43675</v>
       </c>
@@ -33078,7 +33189,7 @@
       </c>
       <c r="CN294" s="3"/>
     </row>
-    <row r="295" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:92" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>43675</v>
       </c>
@@ -33311,7 +33422,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="296" spans="1:92" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:92" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>43675</v>
       </c>
@@ -33544,7 +33655,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="297" spans="1:92" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:92" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>43675</v>
       </c>
@@ -33777,7 +33888,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="298" spans="1:92" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:92" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
         <v>43675</v>
       </c>
@@ -34013,7 +34124,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="299" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>43675</v>
       </c>
@@ -34249,7 +34360,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="300" spans="1:92" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:92" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>43675</v>
       </c>
@@ -34504,7 +34615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="301" spans="1:92" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:92" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>43675</v>
       </c>
@@ -35358,7 +35469,7 @@
       <c r="CM304" s="80"/>
       <c r="CN304" s="80"/>
     </row>
-    <row r="305" spans="1:92" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:92" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>43676</v>
       </c>
@@ -35597,7 +35708,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="306" spans="1:92" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:92" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>43676</v>
       </c>
@@ -35806,7 +35917,7 @@
       <c r="BY307" s="135"/>
       <c r="CN307" s="3"/>
     </row>
-    <row r="308" spans="1:92" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:92" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>43676</v>
       </c>
@@ -35970,7 +36081,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="309" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>43676</v>
       </c>
@@ -36134,7 +36245,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="310" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>43676</v>
       </c>
@@ -36221,7 +36332,7 @@
       </c>
       <c r="CN310" s="3"/>
     </row>
-    <row r="311" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>43676</v>
       </c>
@@ -36305,7 +36416,7 @@
       </c>
       <c r="CN311" s="3"/>
     </row>
-    <row r="312" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>43676</v>
       </c>
@@ -36467,7 +36578,7 @@
       </c>
       <c r="CN313" s="3"/>
     </row>
-    <row r="314" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>43676</v>
       </c>
@@ -36548,7 +36659,7 @@
       </c>
       <c r="CN314" s="3"/>
     </row>
-    <row r="315" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>43676</v>
       </c>
@@ -36629,7 +36740,7 @@
       </c>
       <c r="CN315" s="3"/>
     </row>
-    <row r="316" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
         <v>43676</v>
       </c>
@@ -36713,7 +36824,7 @@
       </c>
       <c r="CN316" s="3"/>
     </row>
-    <row r="317" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>43676</v>
       </c>
@@ -36794,7 +36905,7 @@
       </c>
       <c r="CN317" s="3"/>
     </row>
-    <row r="318" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
         <v>43676</v>
       </c>
@@ -36875,7 +36986,7 @@
       </c>
       <c r="CN318" s="3"/>
     </row>
-    <row r="319" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>43676</v>
       </c>
@@ -36956,7 +37067,7 @@
       </c>
       <c r="CN319" s="3"/>
     </row>
-    <row r="320" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
         <v>43676</v>
       </c>
@@ -37317,7 +37428,7 @@
       <c r="BX324" s="77"/>
       <c r="BY324" s="77"/>
     </row>
-    <row r="325" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>43677</v>
       </c>
@@ -37518,7 +37629,7 @@
       </c>
       <c r="CN326" s="3"/>
     </row>
-    <row r="327" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
         <v>43677</v>
       </c>
@@ -37617,7 +37728,7 @@
       </c>
       <c r="CN327" s="3"/>
     </row>
-    <row r="328" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="8">
         <v>43677</v>
       </c>
@@ -37713,7 +37824,7 @@
       </c>
       <c r="CN328" s="3"/>
     </row>
-    <row r="329" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="8">
         <v>43677</v>
       </c>
@@ -37809,7 +37920,7 @@
       </c>
       <c r="CN329" s="3"/>
     </row>
-    <row r="330" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="8">
         <v>43677</v>
       </c>
@@ -37905,7 +38016,7 @@
       </c>
       <c r="CN330" s="3"/>
     </row>
-    <row r="331" spans="1:92" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:92" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
         <v>43677</v>
       </c>
@@ -38010,7 +38121,7 @@
       </c>
       <c r="CN331" s="3"/>
     </row>
-    <row r="332" spans="1:92" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:92" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="8">
         <v>43677</v>
       </c>
@@ -38205,7 +38316,7 @@
       </c>
       <c r="CN333" s="3"/>
     </row>
-    <row r="334" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
         <v>43677</v>
       </c>
@@ -38301,7 +38412,7 @@
       </c>
       <c r="CN334" s="3"/>
     </row>
-    <row r="335" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>43677</v>
       </c>
@@ -38397,7 +38508,7 @@
       </c>
       <c r="CN335" s="3"/>
     </row>
-    <row r="336" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
         <v>43677</v>
       </c>
@@ -38589,7 +38700,7 @@
       </c>
       <c r="CN337" s="3"/>
     </row>
-    <row r="338" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="8">
         <v>43677</v>
       </c>
@@ -38859,7 +38970,7 @@
       <c r="BX340" s="77"/>
       <c r="BY340" s="77"/>
     </row>
-    <row r="341" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
         <v>43678</v>
       </c>
@@ -38955,7 +39066,7 @@
       </c>
       <c r="CN341" s="3"/>
     </row>
-    <row r="342" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="8">
         <v>43678</v>
       </c>
@@ -39051,7 +39162,7 @@
       </c>
       <c r="CN342" s="3"/>
     </row>
-    <row r="343" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
         <v>43678</v>
       </c>
@@ -39147,7 +39258,7 @@
       </c>
       <c r="CN343" s="3"/>
     </row>
-    <row r="344" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="8">
         <v>43678</v>
       </c>
@@ -39243,7 +39354,7 @@
       </c>
       <c r="CN344" s="3"/>
     </row>
-    <row r="345" spans="1:92" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:92" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="8">
         <v>43678</v>
       </c>
@@ -39345,7 +39456,7 @@
       </c>
       <c r="CN345" s="3"/>
     </row>
-    <row r="346" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="8">
         <v>43678</v>
       </c>
@@ -39441,7 +39552,7 @@
       </c>
       <c r="CN346" s="3"/>
     </row>
-    <row r="347" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="8">
         <v>43678</v>
       </c>
@@ -39540,7 +39651,7 @@
       </c>
       <c r="CN347" s="3"/>
     </row>
-    <row r="348" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="8">
         <v>43678</v>
       </c>
@@ -39636,7 +39747,7 @@
       </c>
       <c r="CN348" s="3"/>
     </row>
-    <row r="349" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="8">
         <v>43678</v>
       </c>
@@ -39735,7 +39846,7 @@
       </c>
       <c r="CN349" s="3"/>
     </row>
-    <row r="350" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="8">
         <v>43678</v>
       </c>
@@ -40023,7 +40134,7 @@
       </c>
       <c r="CN352" s="3"/>
     </row>
-    <row r="353" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="8">
         <v>43678</v>
       </c>
@@ -40119,7 +40230,7 @@
       </c>
       <c r="CN353" s="3"/>
     </row>
-    <row r="354" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="8">
         <v>43678</v>
       </c>
@@ -40215,7 +40326,7 @@
       </c>
       <c r="CN354" s="3"/>
     </row>
-    <row r="355" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="8">
         <v>43678</v>
       </c>
@@ -40407,7 +40518,7 @@
       </c>
       <c r="CN356" s="3"/>
     </row>
-    <row r="357" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="8">
         <v>43678</v>
       </c>
@@ -40503,7 +40614,7 @@
       </c>
       <c r="CN357" s="3"/>
     </row>
-    <row r="358" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="8">
         <v>43678</v>
       </c>
@@ -40770,7 +40881,7 @@
       <c r="BX360" s="77"/>
       <c r="BY360" s="77"/>
     </row>
-    <row r="361" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="8">
         <v>43679</v>
       </c>
@@ -40857,7 +40968,7 @@
       </c>
       <c r="CN361" s="3"/>
     </row>
-    <row r="362" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="8">
         <v>43679</v>
       </c>
@@ -40950,7 +41061,7 @@
       </c>
       <c r="CN362" s="3"/>
     </row>
-    <row r="363" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="8">
         <v>43679</v>
       </c>
@@ -41049,7 +41160,7 @@
       </c>
       <c r="CN363" s="3"/>
     </row>
-    <row r="364" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="8">
         <v>43679</v>
       </c>
@@ -41241,7 +41352,7 @@
       </c>
       <c r="CN365" s="3"/>
     </row>
-    <row r="366" spans="1:92" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:92" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="8">
         <v>43679</v>
       </c>
@@ -41340,7 +41451,7 @@
       </c>
       <c r="CN366" s="3"/>
     </row>
-    <row r="367" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:92" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="8">
         <v>43679</v>
       </c>
@@ -41415,7 +41526,7 @@
       </c>
       <c r="CN367" s="3"/>
     </row>
-    <row r="368" spans="1:92" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:92" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="8">
         <v>43679</v>
       </c>
@@ -41649,7 +41760,7 @@
       <c r="BX370" s="128"/>
       <c r="BY370" s="128"/>
     </row>
-    <row r="371" spans="1:92" ht="60" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:92" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A371" s="8">
         <v>43683</v>
       </c>
@@ -41748,7 +41859,7 @@
       </c>
       <c r="CN371" s="3"/>
     </row>
-    <row r="372" spans="1:92" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:92" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="8">
         <v>43683</v>
       </c>
@@ -41847,7 +41958,7 @@
       </c>
       <c r="CN372" s="3"/>
     </row>
-    <row r="373" spans="1:92" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:92" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="8">
         <v>43683</v>
       </c>
@@ -41946,7 +42057,7 @@
       </c>
       <c r="CN373" s="3"/>
     </row>
-    <row r="374" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="8">
         <v>43683</v>
       </c>
@@ -42042,7 +42153,7 @@
       </c>
       <c r="CN374" s="3"/>
     </row>
-    <row r="375" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="8">
         <v>43683</v>
       </c>
@@ -42138,7 +42249,7 @@
       </c>
       <c r="CN375" s="3"/>
     </row>
-    <row r="376" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="8">
         <v>43683</v>
       </c>
@@ -42234,7 +42345,7 @@
       </c>
       <c r="CN376" s="3"/>
     </row>
-    <row r="377" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="8">
         <v>43683</v>
       </c>
@@ -42330,7 +42441,7 @@
       </c>
       <c r="CN377" s="3"/>
     </row>
-    <row r="378" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="8">
         <v>43683</v>
       </c>
@@ -42522,7 +42633,7 @@
       </c>
       <c r="CN379" s="3"/>
     </row>
-    <row r="380" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="8">
         <v>43683</v>
       </c>
@@ -42597,7 +42708,7 @@
       </c>
       <c r="CN380" s="3"/>
     </row>
-    <row r="381" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="8">
         <v>43683</v>
       </c>
@@ -42651,7 +42762,7 @@
       </c>
       <c r="CN381" s="3"/>
     </row>
-    <row r="382" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="8">
         <v>43683</v>
       </c>
@@ -42759,7 +42870,7 @@
       </c>
       <c r="CN383" s="3"/>
     </row>
-    <row r="384" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="8">
         <v>43683</v>
       </c>
@@ -43056,7 +43167,7 @@
       <c r="BX388" s="77"/>
       <c r="BY388" s="77"/>
     </row>
-    <row r="389" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="8">
         <v>43684</v>
       </c>
@@ -43152,7 +43263,7 @@
       </c>
       <c r="CN389" s="3"/>
     </row>
-    <row r="390" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="8">
         <v>43684</v>
       </c>
@@ -43248,7 +43359,7 @@
       </c>
       <c r="CN390" s="3"/>
     </row>
-    <row r="391" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="8">
         <v>43684</v>
       </c>
@@ -44505,7 +44616,7 @@
       <c r="BX404" s="77"/>
       <c r="BY404" s="77"/>
     </row>
-    <row r="405" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F405" s="26">
         <v>54779</v>
       </c>
@@ -44677,7 +44788,7 @@
       </c>
       <c r="CN406" s="3"/>
     </row>
-    <row r="407" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F407" s="26">
         <v>54781</v>
       </c>
@@ -44698,7 +44809,7 @@
       </c>
       <c r="CN407" s="3"/>
     </row>
-    <row r="408" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F408" s="26">
         <v>54782</v>
       </c>
@@ -44722,7 +44833,7 @@
       </c>
       <c r="CN408" s="3"/>
     </row>
-    <row r="409" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F409" s="26">
         <v>54783</v>
       </c>
@@ -44919,7 +45030,7 @@
       </c>
       <c r="CN411" s="3"/>
     </row>
-    <row r="412" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F412" s="26">
         <v>54785</v>
       </c>
@@ -45141,7 +45252,7 @@
       </c>
       <c r="CN415" s="3"/>
     </row>
-    <row r="416" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F416" s="26">
         <v>54789</v>
       </c>
@@ -45163,7 +45274,7 @@
       </c>
       <c r="CN416" s="3"/>
     </row>
-    <row r="417" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F417" s="26">
         <v>54790</v>
       </c>
@@ -45372,7 +45483,7 @@
       <c r="BX420" s="128"/>
       <c r="BY420" s="128"/>
     </row>
-    <row r="421" spans="1:92" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:92" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="8">
         <v>43711</v>
       </c>
@@ -45474,7 +45585,7 @@
       </c>
       <c r="CN421" s="3"/>
     </row>
-    <row r="422" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="8">
         <v>43711</v>
       </c>
@@ -45569,7 +45680,7 @@
       </c>
       <c r="CN422" s="3"/>
     </row>
-    <row r="423" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="8">
         <v>43711</v>
       </c>
@@ -45664,7 +45775,7 @@
       </c>
       <c r="CN423" s="3"/>
     </row>
-    <row r="424" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="8">
         <v>43711</v>
       </c>
@@ -45759,7 +45870,7 @@
       </c>
       <c r="CN424" s="3"/>
     </row>
-    <row r="425" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="8">
         <v>43711</v>
       </c>
@@ -45851,7 +45962,7 @@
       </c>
       <c r="CN425" s="3"/>
     </row>
-    <row r="426" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="8">
         <v>43711</v>
       </c>
@@ -45943,7 +46054,7 @@
       </c>
       <c r="CN426" s="3"/>
     </row>
-    <row r="427" spans="1:92" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:92" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="8">
         <v>43711</v>
       </c>
@@ -46311,7 +46422,7 @@
       </c>
       <c r="CN430" s="3"/>
     </row>
-    <row r="431" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="8">
         <v>43711</v>
       </c>
@@ -46412,7 +46523,7 @@
       </c>
       <c r="CN431" s="3"/>
     </row>
-    <row r="432" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="8">
         <v>43711</v>
       </c>
@@ -46507,7 +46618,7 @@
       </c>
       <c r="CN432" s="3"/>
     </row>
-    <row r="433" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="8">
         <v>43711</v>
       </c>
@@ -46602,7 +46713,7 @@
       </c>
       <c r="CN433" s="3"/>
     </row>
-    <row r="434" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="8">
         <v>43711</v>
       </c>
@@ -46694,7 +46805,7 @@
       </c>
       <c r="CN434" s="3"/>
     </row>
-    <row r="435" spans="1:92" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:92" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="8">
         <v>43711</v>
       </c>
@@ -46784,7 +46895,7 @@
       </c>
       <c r="CN435" s="3"/>
     </row>
-    <row r="436" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="8">
         <v>43711</v>
       </c>
@@ -46874,7 +46985,7 @@
       </c>
       <c r="CN436" s="3"/>
     </row>
-    <row r="437" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="8">
         <v>43711</v>
       </c>
@@ -46967,7 +47078,7 @@
       </c>
       <c r="CN437" s="3"/>
     </row>
-    <row r="438" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="8">
         <v>43711</v>
       </c>
@@ -47057,7 +47168,7 @@
       </c>
       <c r="CN438" s="3"/>
     </row>
-    <row r="439" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="8">
         <v>43711</v>
       </c>
@@ -47147,7 +47258,7 @@
       </c>
       <c r="CN439" s="3"/>
     </row>
-    <row r="440" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="8">
         <v>43711</v>
       </c>
@@ -47237,7 +47348,7 @@
       </c>
       <c r="CN440" s="3"/>
     </row>
-    <row r="441" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="8">
         <v>43711</v>
       </c>
@@ -47327,7 +47438,7 @@
       </c>
       <c r="CN441" s="3"/>
     </row>
-    <row r="442" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="8">
         <v>43711</v>
       </c>
@@ -47420,7 +47531,7 @@
       </c>
       <c r="CN442" s="3"/>
     </row>
-    <row r="443" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="8">
         <v>43711</v>
       </c>
@@ -47678,7 +47789,7 @@
       <c r="BX445" s="77"/>
       <c r="BY445" s="77"/>
     </row>
-    <row r="446" spans="1:92" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:92" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="8">
         <v>43714</v>
       </c>
@@ -47864,7 +47975,7 @@
       </c>
       <c r="CN447" s="3"/>
     </row>
-    <row r="448" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="8">
         <v>43714</v>
       </c>
@@ -47960,7 +48071,7 @@
       </c>
       <c r="CN448" s="3"/>
     </row>
-    <row r="449" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="8">
         <v>43714</v>
       </c>
@@ -48050,7 +48161,7 @@
       </c>
       <c r="CN449" s="3"/>
     </row>
-    <row r="450" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="8">
         <v>43714</v>
       </c>
@@ -48140,7 +48251,7 @@
       </c>
       <c r="CN450" s="3"/>
     </row>
-    <row r="451" spans="1:92" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:92" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="8">
         <v>43714</v>
       </c>
@@ -48323,7 +48434,7 @@
       </c>
       <c r="CN452" s="3"/>
     </row>
-    <row r="453" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="8">
         <v>43714</v>
       </c>
@@ -48491,7 +48602,7 @@
       <c r="BX454" s="128"/>
       <c r="BY454" s="128"/>
     </row>
-    <row r="455" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:92" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D455" s="144"/>
       <c r="E455" s="144"/>
       <c r="K455" s="145"/>
@@ -48508,7 +48619,7 @@
       <c r="BY455" s="145"/>
       <c r="CN455" s="3"/>
     </row>
-    <row r="456" spans="1:92" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:92" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="8">
         <v>43718</v>
       </c>
@@ -48701,7 +48812,7 @@
       </c>
       <c r="CN457" s="3"/>
     </row>
-    <row r="458" spans="1:92" ht="45" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A458" s="8">
         <v>43718</v>
       </c>
@@ -48794,7 +48905,7 @@
       </c>
       <c r="CN458" s="3"/>
     </row>
-    <row r="459" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A459" s="8">
         <v>43718</v>
       </c>
@@ -48884,7 +48995,7 @@
       </c>
       <c r="CN459" s="3"/>
     </row>
-    <row r="460" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A460" s="8">
         <v>43718</v>
       </c>
@@ -49160,7 +49271,7 @@
       </c>
       <c r="CN462" s="3"/>
     </row>
-    <row r="463" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="8">
         <v>43718</v>
       </c>
@@ -49430,7 +49541,7 @@
       </c>
       <c r="CN465" s="3"/>
     </row>
-    <row r="466" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="8">
         <v>43718</v>
       </c>
@@ -49612,7 +49723,7 @@
       </c>
       <c r="CN467" s="3"/>
     </row>
-    <row r="468" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="8">
         <v>43718</v>
       </c>
@@ -49648,7 +49759,7 @@
       <c r="BY468" s="145"/>
       <c r="CN468" s="3"/>
     </row>
-    <row r="469" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="8">
         <v>43718</v>
       </c>
@@ -49832,7 +49943,7 @@
       </c>
       <c r="CN470" s="3"/>
     </row>
-    <row r="471" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="8">
         <v>43718</v>
       </c>
@@ -50259,7 +50370,7 @@
       <c r="BX475" s="77"/>
       <c r="BY475" s="77"/>
     </row>
-    <row r="476" spans="1:92" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:92" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="8">
         <v>43721</v>
       </c>
@@ -50271,7 +50382,10 @@
       </c>
       <c r="CN476" s="3"/>
     </row>
-    <row r="477" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="8">
+        <v>43721</v>
+      </c>
       <c r="E477" s="19">
         <v>0.61805555555555558</v>
       </c>
@@ -50367,7 +50481,10 @@
       </c>
       <c r="CN477" s="3"/>
     </row>
-    <row r="478" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="8">
+        <v>43721</v>
+      </c>
       <c r="F478" s="26">
         <v>55105</v>
       </c>
@@ -50455,6 +50572,9 @@
       <c r="CN478" s="3"/>
     </row>
     <row r="479" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="8">
+        <v>43721</v>
+      </c>
       <c r="F479" s="26">
         <v>55106</v>
       </c>
@@ -50542,6 +50662,9 @@
       <c r="CN479" s="3"/>
     </row>
     <row r="480" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="8">
+        <v>43721</v>
+      </c>
       <c r="D480" s="151"/>
       <c r="E480" s="151"/>
       <c r="F480" s="26">
@@ -50558,7 +50681,10 @@
       <c r="BY480" s="152"/>
       <c r="CN480" s="3"/>
     </row>
-    <row r="481" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="8">
+        <v>43721</v>
+      </c>
       <c r="F481" s="26">
         <v>55108</v>
       </c>
@@ -50651,7 +50777,10 @@
       </c>
       <c r="CN481" s="3"/>
     </row>
-    <row r="482" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="8">
+        <v>43721</v>
+      </c>
       <c r="F482" s="26">
         <v>55109</v>
       </c>
@@ -50741,7 +50870,10 @@
       </c>
       <c r="CN482" s="3"/>
     </row>
-    <row r="483" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="8">
+        <v>43721</v>
+      </c>
       <c r="F483" s="26">
         <v>55110</v>
       </c>
@@ -50832,7 +50964,10 @@
       </c>
       <c r="CN483" s="3"/>
     </row>
-    <row r="484" spans="1:92" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:92" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="8">
+        <v>43721</v>
+      </c>
       <c r="F484" s="26">
         <v>55111</v>
       </c>
@@ -50919,7 +51054,10 @@
       </c>
       <c r="CN484" s="3"/>
     </row>
-    <row r="485" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="8">
+        <v>43721</v>
+      </c>
       <c r="F485" s="26">
         <v>55112</v>
       </c>
@@ -51006,7 +51144,10 @@
       </c>
       <c r="CN485" s="3"/>
     </row>
-    <row r="486" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="8">
+        <v>43721</v>
+      </c>
       <c r="F486" s="26">
         <v>55113</v>
       </c>
@@ -51093,7 +51234,10 @@
       </c>
       <c r="CN486" s="3"/>
     </row>
-    <row r="487" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="8">
+        <v>43721</v>
+      </c>
       <c r="F487" s="26">
         <v>55114</v>
       </c>
@@ -51258,7 +51402,10 @@
       <c r="BX488" s="77"/>
       <c r="BY488" s="77"/>
     </row>
-    <row r="489" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:92" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="8">
+        <v>43725</v>
+      </c>
       <c r="K489" s="67" t="s">
         <v>1021</v>
       </c>
@@ -51270,7 +51417,10 @@
       </c>
       <c r="CN489" s="3"/>
     </row>
-    <row r="490" spans="1:92" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:92" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="8">
+        <v>43725</v>
+      </c>
       <c r="F490" s="26">
         <v>55144</v>
       </c>
@@ -51360,7 +51510,10 @@
       </c>
       <c r="CN490" s="3"/>
     </row>
-    <row r="491" spans="1:92" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:92" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="8">
+        <v>43725</v>
+      </c>
       <c r="F491" s="26">
         <v>55145</v>
       </c>
@@ -51450,7 +51603,10 @@
       </c>
       <c r="CN491" s="3"/>
     </row>
-    <row r="492" spans="1:92" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:92" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="8">
+        <v>43725</v>
+      </c>
       <c r="F492" s="26">
         <v>55146</v>
       </c>
@@ -51540,7 +51696,10 @@
       </c>
       <c r="CN492" s="3"/>
     </row>
-    <row r="493" spans="1:92" ht="75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:92" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A493" s="8">
+        <v>43725</v>
+      </c>
       <c r="F493" s="26">
         <v>55147</v>
       </c>
@@ -51630,7 +51789,10 @@
       </c>
       <c r="CN493" s="3"/>
     </row>
-    <row r="494" spans="1:92" ht="45" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:92" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A494" s="8">
+        <v>43725</v>
+      </c>
       <c r="F494" s="26">
         <v>55148</v>
       </c>
@@ -51654,7 +51816,10 @@
       </c>
       <c r="CN494" s="3"/>
     </row>
-    <row r="495" spans="1:92" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:92" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="8">
+        <v>43725</v>
+      </c>
       <c r="F495" s="26">
         <v>55149</v>
       </c>
@@ -51678,7 +51843,10 @@
       </c>
       <c r="CN495" s="3"/>
     </row>
-    <row r="496" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:92" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A496" s="8">
+        <v>43725</v>
+      </c>
       <c r="F496" s="26">
         <v>55150</v>
       </c>
@@ -51702,7 +51870,10 @@
       </c>
       <c r="CN496" s="3"/>
     </row>
-    <row r="497" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:92" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="8">
+        <v>43725</v>
+      </c>
       <c r="F497" s="26">
         <v>55151</v>
       </c>
@@ -51726,7 +51897,7 @@
       </c>
       <c r="CN497" s="3"/>
     </row>
-    <row r="498" spans="1:92" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:92" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="73"/>
       <c r="B498" s="74"/>
       <c r="C498" s="74"/>
@@ -51804,7 +51975,7 @@
       <c r="BX498" s="77"/>
       <c r="BY498" s="77"/>
     </row>
-    <row r="499" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="8">
         <v>43726</v>
       </c>
@@ -51830,7 +52001,10 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="500" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="8">
+        <v>43726</v>
+      </c>
       <c r="F500" s="26">
         <v>55159</v>
       </c>
@@ -51853,7 +52027,10 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="501" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="8">
+        <v>43726</v>
+      </c>
       <c r="F501" s="26">
         <v>55160</v>
       </c>
@@ -51879,7 +52056,10 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="502" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="8">
+        <v>43726</v>
+      </c>
       <c r="F502" s="26">
         <v>55161</v>
       </c>
@@ -51905,7 +52085,10 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="503" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="8">
+        <v>43726</v>
+      </c>
       <c r="F503" s="26">
         <v>55162</v>
       </c>
@@ -51928,7 +52111,10 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="504" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="8">
+        <v>43726</v>
+      </c>
       <c r="F504" s="26">
         <v>55163</v>
       </c>
@@ -51954,7 +52140,10 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="505" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="8">
+        <v>43726</v>
+      </c>
       <c r="F505" s="26">
         <v>55164</v>
       </c>
@@ -51980,7 +52169,10 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="506" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="8">
+        <v>43726</v>
+      </c>
       <c r="F506" s="26">
         <v>55165</v>
       </c>
@@ -52006,7 +52198,10 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="507" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="8">
+        <v>43726</v>
+      </c>
       <c r="F507" s="26">
         <v>55166</v>
       </c>
@@ -52032,7 +52227,10 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="508" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A508" s="8">
+        <v>43726</v>
+      </c>
       <c r="F508" s="26">
         <v>55167</v>
       </c>
@@ -52055,7 +52253,10 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="509" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A509" s="8">
+        <v>43726</v>
+      </c>
       <c r="F509" s="26">
         <v>55168</v>
       </c>
@@ -52079,6 +52280,9 @@
       </c>
     </row>
     <row r="510" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="8">
+        <v>43726</v>
+      </c>
       <c r="F510" s="26">
         <v>55169</v>
       </c>
@@ -52098,7 +52302,10 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="511" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="8">
+        <v>43726</v>
+      </c>
       <c r="F511" s="26">
         <v>55170</v>
       </c>
@@ -52124,7 +52331,10 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="512" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:92" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="8">
+        <v>43726</v>
+      </c>
       <c r="F512" s="26">
         <v>55171</v>
       </c>
@@ -52150,7 +52360,10 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="513" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="8">
+        <v>43726</v>
+      </c>
       <c r="F513" s="26">
         <v>55172</v>
       </c>
@@ -52176,7 +52389,10 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="514" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="8">
+        <v>43726</v>
+      </c>
       <c r="F514" s="26">
         <v>55173</v>
       </c>
@@ -52199,7 +52415,10 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="515" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="8">
+        <v>43726</v>
+      </c>
       <c r="F515" s="26">
         <v>55174</v>
       </c>
@@ -52225,7 +52444,10 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="516" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="8">
+        <v>43726</v>
+      </c>
       <c r="F516" s="26">
         <v>55175</v>
       </c>
@@ -52251,7 +52473,10 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="517" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="8">
+        <v>43726</v>
+      </c>
       <c r="F517" s="26">
         <v>55176</v>
       </c>
@@ -52274,7 +52499,10 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="518" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="8">
+        <v>43726</v>
+      </c>
       <c r="F518" s="26">
         <v>55177</v>
       </c>
@@ -52297,7 +52525,10 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="519" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="8">
+        <v>43726</v>
+      </c>
       <c r="F519" s="26">
         <v>55178</v>
       </c>
@@ -52398,7 +52629,7 @@
       <c r="BX520" s="77"/>
       <c r="BY520" s="77"/>
     </row>
-    <row r="521" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="8">
         <v>43727</v>
       </c>
@@ -52491,6 +52722,9 @@
       </c>
     </row>
     <row r="522" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="8">
+        <v>43727</v>
+      </c>
       <c r="F522" s="26">
         <v>55193</v>
       </c>
@@ -52579,7 +52813,10 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="523" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="8">
+        <v>43727</v>
+      </c>
       <c r="F523" s="26">
         <v>55194</v>
       </c>
@@ -52668,7 +52905,10 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="524" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="8">
+        <v>43727</v>
+      </c>
       <c r="F524" s="26">
         <v>55195</v>
       </c>
@@ -52754,7 +52994,10 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="525" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="8">
+        <v>43727</v>
+      </c>
       <c r="F525" s="26">
         <v>55196</v>
       </c>
@@ -52840,7 +53083,10 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="526" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="8">
+        <v>43727</v>
+      </c>
       <c r="F526" s="26">
         <v>551967</v>
       </c>
@@ -52926,7 +53172,10 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="527" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="8">
+        <v>43727</v>
+      </c>
       <c r="F527" s="26">
         <v>55198</v>
       </c>
@@ -53012,7 +53261,10 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="528" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="8">
+        <v>43727</v>
+      </c>
       <c r="F528" s="26">
         <v>55199</v>
       </c>
@@ -53101,7 +53353,10 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="529" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="8">
+        <v>43727</v>
+      </c>
       <c r="F529" s="26">
         <v>55200</v>
       </c>
@@ -53188,6 +53443,9 @@
       </c>
     </row>
     <row r="530" spans="1:77" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="8">
+        <v>43727</v>
+      </c>
       <c r="F530" s="26">
         <v>55201</v>
       </c>
@@ -53273,7 +53531,10 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="531" spans="1:77" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:77" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="8">
+        <v>43727</v>
+      </c>
       <c r="F531" s="26">
         <v>55202</v>
       </c>
@@ -53363,6 +53624,9 @@
       </c>
     </row>
     <row r="532" spans="1:77" ht="30" x14ac:dyDescent="0.25">
+      <c r="A532" s="8">
+        <v>43727</v>
+      </c>
       <c r="F532" s="26">
         <v>55203</v>
       </c>
@@ -53449,6 +53713,9 @@
       </c>
     </row>
     <row r="533" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="8">
+        <v>43727</v>
+      </c>
       <c r="F533" s="26">
         <v>55204</v>
       </c>
@@ -53535,6 +53802,9 @@
       </c>
     </row>
     <row r="534" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="8">
+        <v>43727</v>
+      </c>
       <c r="F534" s="26">
         <v>55205</v>
       </c>
@@ -53621,6 +53891,9 @@
       </c>
     </row>
     <row r="535" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="8">
+        <v>43727</v>
+      </c>
       <c r="F535" s="26">
         <v>55206</v>
       </c>
@@ -53709,7 +53982,10 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="536" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="8">
+        <v>43727</v>
+      </c>
       <c r="F536" s="26">
         <v>55207</v>
       </c>
@@ -53799,6 +54075,9 @@
       </c>
     </row>
     <row r="537" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="8">
+        <v>43727</v>
+      </c>
       <c r="F537" s="26">
         <v>55208</v>
       </c>
@@ -53888,6 +54167,9 @@
       </c>
     </row>
     <row r="538" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="8">
+        <v>43727</v>
+      </c>
       <c r="F538" s="26">
         <v>55209</v>
       </c>
@@ -53912,8 +54194,74 @@
       <c r="M538" s="155" t="s">
         <v>1124</v>
       </c>
+      <c r="O538" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P538" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q538" s="25">
+        <v>2950</v>
+      </c>
+      <c r="R538" s="149">
+        <v>51.55</v>
+      </c>
+      <c r="S538" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T538" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U538" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP538" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ538" s="25">
+        <v>230</v>
+      </c>
+      <c r="AR538" s="11">
+        <v>2950</v>
+      </c>
+      <c r="AS538" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT538" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU538" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV538" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP538" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="BQ538" s="25">
+        <v>90</v>
+      </c>
+      <c r="BR538" s="11">
+        <v>2950</v>
+      </c>
+      <c r="BS538" s="11">
+        <v>57.2</v>
+      </c>
+      <c r="BT538" s="11">
+        <v>56.42</v>
+      </c>
+      <c r="BU538" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV538" s="11">
+        <v>45.58</v>
+      </c>
     </row>
     <row r="539" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="8">
+        <v>43727</v>
+      </c>
       <c r="F539" s="26">
         <v>55210</v>
       </c>
@@ -53934,6 +54282,69 @@
       </c>
       <c r="L539" s="1" t="s">
         <v>284</v>
+      </c>
+      <c r="O539" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P539" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q539" s="25">
+        <v>2950</v>
+      </c>
+      <c r="R539" s="149">
+        <v>51.55</v>
+      </c>
+      <c r="S539" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T539" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U539" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP539" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ539" s="25">
+        <v>230</v>
+      </c>
+      <c r="AR539" s="11">
+        <v>2950</v>
+      </c>
+      <c r="AS539" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT539" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU539" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV539" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP539" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="BQ539" s="25">
+        <v>90</v>
+      </c>
+      <c r="BR539" s="11">
+        <v>2950</v>
+      </c>
+      <c r="BS539" s="11">
+        <v>57.2</v>
+      </c>
+      <c r="BT539" s="11">
+        <v>56.42</v>
+      </c>
+      <c r="BU539" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV539" s="11">
+        <v>45.58</v>
       </c>
     </row>
     <row r="540" spans="1:77" s="78" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -54014,51 +54425,819 @@
       <c r="BX540" s="77"/>
       <c r="BY540" s="77"/>
     </row>
-    <row r="541" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" spans="1:77" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F541" s="26">
+        <v>55214</v>
+      </c>
+      <c r="G541" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H541" s="100">
+        <v>700</v>
+      </c>
+      <c r="I541" s="99">
+        <v>700</v>
+      </c>
+      <c r="J541" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K541" s="67" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L541" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="M541" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O541" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P541" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q541" s="25">
+        <v>2950</v>
+      </c>
+      <c r="R541" s="119">
+        <v>51.23</v>
+      </c>
+      <c r="S541" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T541" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U541" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP541" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ541" s="25">
+        <v>230</v>
+      </c>
+      <c r="AR541" s="11">
+        <v>2950</v>
+      </c>
+      <c r="AS541" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT541" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU541" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV541" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP541" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="BQ541" s="25">
+        <v>90</v>
+      </c>
+      <c r="BR541" s="11">
+        <v>2950</v>
+      </c>
+      <c r="BS541" s="11">
+        <v>57.2</v>
+      </c>
+      <c r="BT541" s="11">
+        <v>56.42</v>
+      </c>
+      <c r="BU541" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV541" s="11">
+        <v>45.58</v>
+      </c>
+    </row>
+    <row r="542" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F542" s="26">
+        <v>55215</v>
+      </c>
+      <c r="G542" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H542" s="100">
+        <v>800</v>
+      </c>
+      <c r="I542" s="99">
+        <v>800</v>
+      </c>
+      <c r="J542" s="99">
+        <v>800</v>
+      </c>
+      <c r="K542" s="67" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L542" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="O542" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P542" s="25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q542" s="25">
+        <v>2950</v>
+      </c>
+      <c r="R542" s="119">
+        <v>51.23</v>
+      </c>
+      <c r="S542" s="11">
+        <v>49.36</v>
+      </c>
+      <c r="T542" s="11">
+        <v>54.2</v>
+      </c>
+      <c r="U542" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP542" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ542" s="25">
+        <v>230</v>
+      </c>
+      <c r="AR542" s="11">
+        <v>2950</v>
+      </c>
+      <c r="AS542" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT542" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU542" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV542" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP542" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="BQ542" s="25">
+        <v>90</v>
+      </c>
+      <c r="BR542" s="11">
+        <v>2950</v>
+      </c>
+      <c r="BS542" s="11">
+        <v>57.2</v>
+      </c>
+      <c r="BT542" s="11">
+        <v>56.42</v>
+      </c>
+      <c r="BU542" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV542" s="11">
+        <v>45.58</v>
+      </c>
+    </row>
+    <row r="543" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F543" s="26">
+        <v>55216</v>
+      </c>
+      <c r="G543" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H543" s="100">
+        <v>800</v>
+      </c>
+      <c r="I543" s="99">
+        <v>800</v>
+      </c>
+      <c r="J543" s="99">
+        <v>800</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L543" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O543" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P543" s="25" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Q543" s="25">
+        <v>2950</v>
+      </c>
+      <c r="R543" s="119">
+        <v>51.23</v>
+      </c>
+      <c r="S543" s="11">
+        <v>49.1</v>
+      </c>
+      <c r="T543" s="11">
+        <v>54.3</v>
+      </c>
+      <c r="U543" s="11">
+        <v>49.12</v>
+      </c>
+      <c r="AP543" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="AQ543" s="25">
+        <v>230</v>
+      </c>
+      <c r="AR543" s="11">
+        <v>2950</v>
+      </c>
+      <c r="AS543" s="11">
+        <v>53.94</v>
+      </c>
+      <c r="AT543" s="11">
+        <v>49.31</v>
+      </c>
+      <c r="AU543" s="149">
+        <v>55.11</v>
+      </c>
+      <c r="AV543" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="BP543" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="BQ543" s="25">
+        <v>90</v>
+      </c>
+      <c r="BR543" s="11">
+        <v>2950</v>
+      </c>
+      <c r="BS543" s="11">
+        <v>57.4</v>
+      </c>
+      <c r="BT543" s="11">
+        <v>56.42</v>
+      </c>
+      <c r="BU543" s="11">
+        <v>50.75</v>
+      </c>
+      <c r="BV543" s="11">
+        <v>45.58</v>
+      </c>
+    </row>
+    <row r="544" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F544" s="26">
+        <v>55217</v>
+      </c>
+      <c r="G544" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H544" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I544" s="99">
+        <v>800</v>
+      </c>
+      <c r="J544" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="K544" s="67" t="s">
+        <v>1135</v>
+      </c>
+      <c r="L544" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O544" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P544" s="25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Q544" s="25">
+        <v>2950</v>
+      </c>
+      <c r="R544" s="119">
+        <v>51.23</v>
+      </c>
+      <c r="S544" s="11">
+        <v>49.1</v>
+      </c>
+      <c r="T544" s="11">
+        <v>54.3</v>
+      </c>
+      <c r="U544" s="11">
+        <v>49.12</v>
+      </c>
+    </row>
+    <row r="545" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F545" s="26">
+        <v>55218</v>
+      </c>
+      <c r="G545" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H545" s="100">
+        <v>800</v>
+      </c>
+      <c r="I545" s="99">
+        <v>800</v>
+      </c>
+      <c r="J545" s="99">
+        <v>800</v>
+      </c>
+      <c r="K545" s="67" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L545" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O545" s="37">
+        <v>55.8</v>
+      </c>
+      <c r="P545" s="25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Q545" s="25">
+        <v>2950</v>
+      </c>
+      <c r="R545" s="119">
+        <v>51.23</v>
+      </c>
+      <c r="S545" s="11">
+        <v>49.1</v>
+      </c>
+      <c r="T545" s="11">
+        <v>54.3</v>
+      </c>
+      <c r="U545" s="11">
+        <v>49.12</v>
+      </c>
+    </row>
+    <row r="546" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F546" s="26">
+        <v>55219</v>
+      </c>
+      <c r="G546" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H546" s="100">
+        <v>1000</v>
+      </c>
+      <c r="I546" s="99">
+        <v>1000</v>
+      </c>
+      <c r="J546" s="99">
+        <v>1000</v>
+      </c>
+      <c r="K546" s="67" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L546" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="547" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F547" s="26">
+        <v>55220</v>
+      </c>
+      <c r="G547" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H547" s="100">
+        <v>1000</v>
+      </c>
+      <c r="I547" s="99">
+        <v>1000</v>
+      </c>
+      <c r="J547" s="99">
+        <v>1000</v>
+      </c>
+      <c r="K547" s="67" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L547" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="548" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F548" s="26">
+        <v>55221</v>
+      </c>
+      <c r="G548" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H548" s="100">
+        <v>1000</v>
+      </c>
+      <c r="I548" s="99">
+        <v>1000</v>
+      </c>
+      <c r="J548" s="99">
+        <v>1000</v>
+      </c>
+      <c r="K548" s="67" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L548" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="549" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F549" s="26">
+        <v>55222</v>
+      </c>
+      <c r="G549" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H549" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I549" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J549" s="99">
+        <v>800</v>
+      </c>
+      <c r="K549" s="67" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L549" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="550" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F550" s="26">
+        <v>55223</v>
+      </c>
+      <c r="G550" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H550" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I550" s="99">
+        <v>600</v>
+      </c>
+      <c r="J550" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K550" s="67" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L550" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="551" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F551" s="26">
+        <v>55224</v>
+      </c>
+      <c r="G551" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H551" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I551" s="100">
+        <v>600</v>
+      </c>
+      <c r="J551" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K551" s="67" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L551" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="552" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F552" s="26">
+        <v>55225</v>
+      </c>
+      <c r="G552" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H552" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I552" s="100">
+        <v>600</v>
+      </c>
+      <c r="J552" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K552" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L552" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="553" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F553" s="26">
+        <v>55226</v>
+      </c>
+      <c r="G553" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H553" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I553" s="99">
+        <v>600</v>
+      </c>
+      <c r="J553" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K553" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L553" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="554" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F554" s="26">
+        <v>55227</v>
+      </c>
+      <c r="G554" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H554" s="99">
+        <v>1200</v>
+      </c>
+      <c r="I554" s="99">
+        <v>1200</v>
+      </c>
+      <c r="J554" s="99">
+        <v>1200</v>
+      </c>
+      <c r="K554" s="67" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L554" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="555" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F555" s="26">
+        <v>55228</v>
+      </c>
+      <c r="G555" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H555" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I555" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J555" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K555" s="67" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L555" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="556" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="8">
+        <v>43728</v>
+      </c>
+      <c r="F556" s="26">
+        <v>55229</v>
+      </c>
+      <c r="G556" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="H556" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I556" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J556" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K556" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L556" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M556" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="557" spans="1:77" s="78" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="73"/>
+      <c r="B557" s="74"/>
+      <c r="C557" s="74"/>
+      <c r="D557" s="75"/>
+      <c r="E557" s="75"/>
+      <c r="F557" s="76"/>
+      <c r="G557" s="76"/>
+      <c r="H557" s="76"/>
+      <c r="I557" s="76"/>
+      <c r="J557" s="76"/>
+      <c r="K557" s="77"/>
+      <c r="L557" s="77"/>
+      <c r="M557" s="77"/>
+      <c r="O557" s="79"/>
+      <c r="P557" s="74"/>
+      <c r="Q557" s="74"/>
+      <c r="R557" s="80"/>
+      <c r="S557" s="80"/>
+      <c r="T557" s="80"/>
+      <c r="U557" s="80"/>
+      <c r="V557" s="80"/>
+      <c r="W557" s="80"/>
+      <c r="X557" s="77"/>
+      <c r="Y557" s="80"/>
+      <c r="Z557" s="80"/>
+      <c r="AA557" s="80"/>
+      <c r="AB557" s="80"/>
+      <c r="AC557" s="80"/>
+      <c r="AD557" s="80"/>
+      <c r="AE557" s="80"/>
+      <c r="AF557" s="80"/>
+      <c r="AG557" s="80"/>
+      <c r="AH557" s="80"/>
+      <c r="AI557" s="80"/>
+      <c r="AJ557" s="80"/>
+      <c r="AK557" s="80"/>
+      <c r="AL557" s="80"/>
+      <c r="AM557" s="80"/>
+      <c r="AN557" s="80"/>
+      <c r="AO557" s="80"/>
+      <c r="AP557" s="80"/>
+      <c r="AQ557" s="74"/>
+      <c r="AR557" s="80"/>
+      <c r="AS557" s="80"/>
+      <c r="AT557" s="80"/>
+      <c r="AU557" s="80"/>
+      <c r="AV557" s="80"/>
+      <c r="AW557" s="80"/>
+      <c r="AX557" s="80"/>
+      <c r="AY557" s="77"/>
+      <c r="AZ557" s="80"/>
+      <c r="BA557" s="80"/>
+      <c r="BB557" s="80"/>
+      <c r="BC557" s="80"/>
+      <c r="BD557" s="80"/>
+      <c r="BE557" s="80"/>
+      <c r="BF557" s="80"/>
+      <c r="BG557" s="80"/>
+      <c r="BH557" s="80"/>
+      <c r="BI557" s="80"/>
+      <c r="BJ557" s="80"/>
+      <c r="BK557" s="80"/>
+      <c r="BL557" s="80"/>
+      <c r="BM557" s="80"/>
+      <c r="BN557" s="80"/>
+      <c r="BO557" s="80"/>
+      <c r="BP557" s="80"/>
+      <c r="BQ557" s="74"/>
+      <c r="BR557" s="80"/>
+      <c r="BS557" s="80"/>
+      <c r="BT557" s="80"/>
+      <c r="BU557" s="80"/>
+      <c r="BV557" s="80"/>
+      <c r="BW557" s="80"/>
+      <c r="BX557" s="77"/>
+      <c r="BY557" s="77"/>
+    </row>
+    <row r="558" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M558" s="31" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="559" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" spans="1:77" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="561" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="562" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="563" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="564" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="565" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="566" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A4:CN33"/>
   <mergeCells count="81">
-    <mergeCell ref="CH3:CN3"/>
-    <mergeCell ref="BY2:BY4"/>
-    <mergeCell ref="BR2:BR4"/>
-    <mergeCell ref="BW2:BW4"/>
-    <mergeCell ref="BX2:BX4"/>
-    <mergeCell ref="BZ2:BZ4"/>
-    <mergeCell ref="BS3:BS4"/>
-    <mergeCell ref="BT3:BT4"/>
-    <mergeCell ref="BU3:BU4"/>
+    <mergeCell ref="D269:D286"/>
+    <mergeCell ref="D159:D173"/>
+    <mergeCell ref="D178:D190"/>
+    <mergeCell ref="D192:D215"/>
+    <mergeCell ref="D217:D227"/>
+    <mergeCell ref="D247:D267"/>
+    <mergeCell ref="D230:D245"/>
+    <mergeCell ref="D132:D156"/>
+    <mergeCell ref="BV3:BV4"/>
+    <mergeCell ref="D71:D88"/>
+    <mergeCell ref="D35:D69"/>
+    <mergeCell ref="M9:M18"/>
+    <mergeCell ref="D5:D33"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="M20:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AM3"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="AP1:BN1"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="BA3:BG3"/>
+    <mergeCell ref="BH3:BN3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AY2:AY4"/>
     <mergeCell ref="AZ2:AZ4"/>
     <mergeCell ref="BP2:BP4"/>
     <mergeCell ref="BQ2:BQ4"/>
@@ -54075,62 +55254,15 @@
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="CA3:CG3"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="AP1:BN1"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AQ4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="BA3:BG3"/>
-    <mergeCell ref="BH3:BN3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D132:D156"/>
-    <mergeCell ref="BV3:BV4"/>
-    <mergeCell ref="D71:D88"/>
-    <mergeCell ref="D35:D69"/>
-    <mergeCell ref="M9:M18"/>
-    <mergeCell ref="D5:D33"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="M20:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AM3"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="D269:D286"/>
-    <mergeCell ref="D159:D173"/>
-    <mergeCell ref="D178:D190"/>
-    <mergeCell ref="D192:D215"/>
-    <mergeCell ref="D217:D227"/>
-    <mergeCell ref="D247:D267"/>
-    <mergeCell ref="D230:D245"/>
+    <mergeCell ref="CH3:CN3"/>
+    <mergeCell ref="BY2:BY4"/>
+    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="BW2:BW4"/>
+    <mergeCell ref="BX2:BX4"/>
+    <mergeCell ref="BZ2:BZ4"/>
+    <mergeCell ref="BS3:BS4"/>
+    <mergeCell ref="BT3:BT4"/>
+    <mergeCell ref="BU3:BU4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -54148,20 +55280,20 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="24" customWidth="1"/>
     <col min="3" max="3" width="26" style="24" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="86" customWidth="1"/>
-    <col min="8" max="8" width="64.28515625" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="24"/>
+    <col min="4" max="4" width="23.44140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="86" customWidth="1"/>
+    <col min="8" max="8" width="64.33203125" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
         <v>37</v>
       </c>
@@ -54193,7 +55325,7 @@
       <c r="G3" s="84"/>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>41</v>
       </c>
@@ -54210,7 +55342,7 @@
       </c>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>73</v>
       </c>
@@ -54225,7 +55357,7 @@
       <c r="G5" s="84"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>44</v>
       </c>
@@ -54244,7 +55376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>59</v>
       </c>
@@ -54379,7 +55511,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>53</v>
       </c>
@@ -54396,7 +55528,7 @@
       <c r="G16" s="84"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
         <v>361</v>
       </c>
@@ -54422,7 +55554,7 @@
       <c r="G18" s="84"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="82"/>
@@ -54431,7 +55563,7 @@
       <c r="G19" s="84"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="82"/>
@@ -54440,7 +55572,7 @@
       <c r="G20" s="84"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="82"/>
@@ -54449,7 +55581,7 @@
       <c r="G21" s="84"/>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="82"/>
@@ -54458,34 +55590,34 @@
       <c r="G22" s="84"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="85"/>
     </row>
-    <row r="24" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="85"/>
     </row>
-    <row r="25" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="85"/>
     </row>
-    <row r="26" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="85"/>
     </row>
-    <row r="27" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="85"/>
     </row>
-    <row r="28" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="85"/>
     </row>
-    <row r="29" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="85"/>
     </row>
-    <row r="30" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="85"/>
     </row>
-    <row r="31" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="85"/>
     </row>
-    <row r="32" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="85"/>
     </row>
   </sheetData>
@@ -54505,13 +55637,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
         <v>417</v>
       </c>
@@ -54519,7 +55651,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" s="106" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="107">
         <v>1</v>
       </c>
@@ -54530,7 +55662,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" s="106" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="107">
         <v>2</v>
       </c>
@@ -54541,7 +55673,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" s="106" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="107">
         <v>6</v>
       </c>
@@ -54550,7 +55682,7 @@
       </c>
       <c r="D5" s="107"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>7</v>
       </c>
@@ -54558,7 +55690,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>8</v>
       </c>
@@ -54566,7 +55698,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>9</v>
       </c>
@@ -54577,7 +55709,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>10</v>
       </c>
@@ -54588,7 +55720,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>11</v>
       </c>
@@ -54599,7 +55731,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C13" s="105" t="s">
         <v>526</v>
       </c>
@@ -54618,7 +55750,7 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
@@ -54821,9 +55953,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>482</v>
       </c>
@@ -54834,7 +55966,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -54843,7 +55975,7 @@
         <v>-260</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -54854,12 +55986,12 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>200</v>
       </c>
@@ -54867,7 +55999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>250</v>
       </c>
@@ -54875,7 +56007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>422</v>
       </c>
@@ -54883,7 +56015,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>421</v>
       </c>
@@ -54891,7 +56023,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>420</v>
       </c>
